--- a/Area de proceso CM/REGITCON_V1.0_2017.xlsx
+++ b/Area de proceso CM/REGITCON_V1.0_2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23880" windowHeight="16440" tabRatio="518" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23880" windowHeight="16440" tabRatio="518" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="92" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="352">
   <si>
     <t>Fecha:
 Vigencia\
@@ -594,18 +594,9 @@
     <t>En la fase de Ejecución</t>
   </si>
   <si>
-    <t>MTRO_[PROY]</t>
-  </si>
-  <si>
-    <t>PROY: referencia al proyecto - Código OCTP</t>
-  </si>
-  <si>
     <t>Al finalizar el proyecto</t>
   </si>
   <si>
-    <t>Jefe de Proyecto / Analista</t>
-  </si>
-  <si>
     <t>Al finalizar el análisis</t>
   </si>
   <si>
@@ -690,9 +681,6 @@
     <t>Cuando lo crean</t>
   </si>
   <si>
-    <t>Usuario de Fabrica</t>
-  </si>
-  <si>
     <t>Gestor de Configuración</t>
   </si>
   <si>
@@ -709,9 +697,6 @@
   </si>
   <si>
     <t>Fast Track / Incidencias</t>
-  </si>
-  <si>
-    <t>Gestor de Calidad</t>
   </si>
   <si>
     <t>En la fase de Implementación de OM</t>
@@ -911,9 +896,6 @@
     <t>https://github.com/sofiaqsy/documentationStaradmin/blob/master/Area%20de%20proceso%20MA/TABME_V1.0_2017.xlsx</t>
   </si>
   <si>
-    <t>IAVSEM</t>
-  </si>
-  <si>
     <t>PPROY_V#.#_2017</t>
   </si>
   <si>
@@ -1185,6 +1167,57 @@
   </si>
   <si>
     <t>FMICIC_V1.0_2017</t>
+  </si>
+  <si>
+    <t>SOLACC_V#.#_2017</t>
+  </si>
+  <si>
+    <t>PGC_V#.#_2017</t>
+  </si>
+  <si>
+    <t>REGITCON_V#.#_2017</t>
+  </si>
+  <si>
+    <t>PGC_V1.0_2017</t>
+  </si>
+  <si>
+    <t>REGITCON_V1.0_2017</t>
+  </si>
+  <si>
+    <t>SOLACC_V1.0_2017</t>
+  </si>
+  <si>
+    <t>cliente</t>
+  </si>
+  <si>
+    <t>al inicio del Proyecto</t>
+  </si>
+  <si>
+    <t>PGPROY_V#.#_2017</t>
+  </si>
+  <si>
+    <t>PGPROY_V1.0_2017</t>
+  </si>
+  <si>
+    <t>Analista Funcional</t>
+  </si>
+  <si>
+    <t>Jede de proyecto</t>
+  </si>
+  <si>
+    <t>Analista funcional</t>
+  </si>
+  <si>
+    <t>Analista de calidad</t>
+  </si>
+  <si>
+    <t>Analista programador</t>
+  </si>
+  <si>
+    <t>Documentador</t>
+  </si>
+  <si>
+    <t>Programador</t>
   </si>
 </sst>
 </file>
@@ -1417,7 +1450,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1639,6 +1672,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1665,7 +1728,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="272">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1"/>
@@ -2164,6 +2227,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2191,249 +2258,255 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -2458,7 +2531,154 @@
     <cellStyle name="Normal_sst2D" xfId="10"/>
     <cellStyle name="Normal_sstA" xfId="11"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="50">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3268,7 +3488,7 @@
   <dimension ref="B1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D10"/>
+      <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3293,15 +3513,15 @@
       <c r="H1" s="85"/>
     </row>
     <row r="2" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="185" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
     </row>
     <row r="3" spans="2:8" ht="13" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="85"/>
@@ -3336,90 +3556,90 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="185">
+      <c r="B5" s="186">
         <v>1</v>
       </c>
-      <c r="C5" s="186">
+      <c r="C5" s="187">
         <v>1</v>
       </c>
-      <c r="D5" s="187">
-        <v>43031</v>
-      </c>
-      <c r="E5" s="185" t="s">
-        <v>194</v>
-      </c>
-      <c r="F5" s="185" t="s">
+      <c r="D5" s="188">
+        <v>43049</v>
+      </c>
+      <c r="E5" s="186" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="186" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="185" t="s">
+      <c r="G5" s="186" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="185" t="s">
-        <v>195</v>
+      <c r="H5" s="186" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="185"/>
-      <c r="C6" s="186"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="185"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="185"/>
-      <c r="H6" s="185"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
     </row>
     <row r="7" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="181"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="181"/>
-      <c r="F7" s="181"/>
-      <c r="G7" s="181"/>
-      <c r="H7" s="181"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
     </row>
     <row r="8" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="181"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="181"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="181"/>
-      <c r="G8" s="181"/>
-      <c r="H8" s="181"/>
+      <c r="B8" s="182"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="182"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="181"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="181"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="181"/>
+      <c r="B9" s="182"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="182"/>
+      <c r="H9" s="182"/>
     </row>
     <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="181"/>
-      <c r="C10" s="182"/>
-      <c r="D10" s="181"/>
-      <c r="E10" s="181"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="181"/>
+      <c r="B10" s="182"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="182"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="182"/>
+      <c r="H10" s="182"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="181"/>
-      <c r="C11" s="182"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="181"/>
-      <c r="F11" s="181"/>
-      <c r="G11" s="181"/>
-      <c r="H11" s="181"/>
+      <c r="B11" s="182"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="182"/>
+      <c r="H11" s="182"/>
     </row>
     <row r="12" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="181"/>
-      <c r="C12" s="182"/>
-      <c r="D12" s="181"/>
-      <c r="E12" s="181"/>
-      <c r="F12" s="181"/>
-      <c r="G12" s="181"/>
-      <c r="H12" s="181"/>
+      <c r="B12" s="182"/>
+      <c r="C12" s="183"/>
+      <c r="D12" s="182"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="182"/>
+      <c r="H12" s="182"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B13" s="160"/>
@@ -3441,20 +3661,13 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -3463,13 +3676,20 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3483,8 +3703,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Q195"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView showGridLines="0" topLeftCell="B74" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3501,26 +3721,26 @@
     <row r="1" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="17"/>
-      <c r="C1" s="207" t="s">
-        <v>315</v>
-      </c>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="209"/>
+      <c r="C1" s="237" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="239"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="210">
-        <v>43037</v>
-      </c>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="212"/>
+      <c r="C2" s="240">
+        <v>43049</v>
+      </c>
+      <c r="D2" s="241"/>
+      <c r="E2" s="241"/>
+      <c r="F2" s="241"/>
+      <c r="G2" s="242"/>
     </row>
     <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
@@ -3534,14 +3754,14 @@
     </row>
     <row r="4" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
-      <c r="B4" s="213" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="214"/>
-      <c r="D4" s="214"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="214"/>
-      <c r="G4" s="215"/>
+      <c r="B4" s="243" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="244"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="245"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
@@ -3568,12 +3788,12 @@
         <v>49</v>
       </c>
       <c r="C7" s="25"/>
-      <c r="D7" s="216" t="s">
+      <c r="D7" s="246" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="217"/>
-      <c r="F7" s="217"/>
-      <c r="G7" s="218"/>
+      <c r="E7" s="247"/>
+      <c r="F7" s="247"/>
+      <c r="G7" s="248"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
@@ -3589,12 +3809,12 @@
         <v>29</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="243" t="s">
+      <c r="D9" s="222" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="243"/>
-      <c r="F9" s="243"/>
-      <c r="G9" s="243"/>
+      <c r="E9" s="222"/>
+      <c r="F9" s="222"/>
+      <c r="G9" s="222"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
@@ -3611,12 +3831,12 @@
         <v>29</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="243" t="s">
+      <c r="D11" s="222" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="243"/>
-      <c r="F11" s="243"/>
-      <c r="G11" s="243"/>
+      <c r="E11" s="222"/>
+      <c r="F11" s="222"/>
+      <c r="G11" s="222"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
@@ -3633,12 +3853,12 @@
         <v>29</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="243" t="s">
+      <c r="D13" s="222" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="243"/>
-      <c r="F13" s="243"/>
-      <c r="G13" s="243"/>
+      <c r="E13" s="222"/>
+      <c r="F13" s="222"/>
+      <c r="G13" s="222"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
@@ -3655,12 +3875,12 @@
         <v>29</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="243" t="s">
+      <c r="D15" s="222" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="243"/>
-      <c r="F15" s="243"/>
-      <c r="G15" s="243"/>
+      <c r="E15" s="222"/>
+      <c r="F15" s="222"/>
+      <c r="G15" s="222"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
@@ -3690,84 +3910,84 @@
       <c r="A19" s="4"/>
     </row>
     <row r="20" spans="1:17" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="201" t="s">
+      <c r="B20" s="192" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="202"/>
-      <c r="D20" s="202"/>
-      <c r="E20" s="202"/>
-      <c r="F20" s="202"/>
-      <c r="G20" s="203"/>
+      <c r="C20" s="193"/>
+      <c r="D20" s="193"/>
+      <c r="E20" s="193"/>
+      <c r="F20" s="193"/>
+      <c r="G20" s="194"/>
     </row>
     <row r="21" spans="1:17" s="28" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="204" t="s">
+      <c r="C21" s="195" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="205"/>
-      <c r="E21" s="205"/>
-      <c r="F21" s="205"/>
-      <c r="G21" s="206"/>
+      <c r="D21" s="196"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="196"/>
+      <c r="G21" s="197"/>
     </row>
     <row r="22" spans="1:17" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="245" t="s">
+      <c r="C22" s="224" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="246"/>
-      <c r="E22" s="246"/>
-      <c r="F22" s="246"/>
-      <c r="G22" s="247"/>
+      <c r="D22" s="225"/>
+      <c r="E22" s="225"/>
+      <c r="F22" s="225"/>
+      <c r="G22" s="226"/>
     </row>
     <row r="23" spans="1:17" s="28" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="234" t="s">
+      <c r="B23" s="256" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="224" t="s">
+      <c r="C23" s="189" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="225"/>
-      <c r="E23" s="225"/>
-      <c r="F23" s="225"/>
-      <c r="G23" s="226"/>
+      <c r="D23" s="190"/>
+      <c r="E23" s="190"/>
+      <c r="F23" s="190"/>
+      <c r="G23" s="191"/>
     </row>
     <row r="24" spans="1:17" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="235"/>
-      <c r="C24" s="224" t="s">
+      <c r="B24" s="257"/>
+      <c r="C24" s="189" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="225"/>
-      <c r="E24" s="225"/>
-      <c r="F24" s="225"/>
-      <c r="G24" s="226"/>
+      <c r="D24" s="190"/>
+      <c r="E24" s="190"/>
+      <c r="F24" s="190"/>
+      <c r="G24" s="191"/>
     </row>
     <row r="25" spans="1:17" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="224" t="s">
+      <c r="C25" s="189" t="s">
         <v>128</v>
       </c>
-      <c r="D25" s="225"/>
-      <c r="E25" s="225"/>
-      <c r="F25" s="225"/>
-      <c r="G25" s="226"/>
+      <c r="D25" s="190"/>
+      <c r="E25" s="190"/>
+      <c r="F25" s="190"/>
+      <c r="G25" s="191"/>
     </row>
     <row r="26" spans="1:17" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="126" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="224" t="s">
+      <c r="C26" s="189" t="s">
         <v>129</v>
       </c>
-      <c r="D26" s="225"/>
-      <c r="E26" s="225"/>
-      <c r="F26" s="225"/>
-      <c r="G26" s="226"/>
+      <c r="D26" s="190"/>
+      <c r="E26" s="190"/>
+      <c r="F26" s="190"/>
+      <c r="G26" s="191"/>
     </row>
     <row r="27" spans="1:17" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="127"/>
@@ -3778,14 +3998,14 @@
       <c r="G27" s="128"/>
     </row>
     <row r="28" spans="1:17" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="201" t="s">
+      <c r="B28" s="192" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="202"/>
-      <c r="D28" s="202"/>
-      <c r="E28" s="202"/>
-      <c r="F28" s="202"/>
-      <c r="G28" s="203"/>
+      <c r="C28" s="193"/>
+      <c r="D28" s="193"/>
+      <c r="E28" s="193"/>
+      <c r="F28" s="193"/>
+      <c r="G28" s="194"/>
       <c r="H28" s="7"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -3798,14 +4018,14 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" s="28" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="255" t="s">
+      <c r="B29" s="234" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="256"/>
-      <c r="D29" s="256"/>
-      <c r="E29" s="256"/>
-      <c r="F29" s="256"/>
-      <c r="G29" s="257"/>
+      <c r="C29" s="235"/>
+      <c r="D29" s="235"/>
+      <c r="E29" s="235"/>
+      <c r="F29" s="235"/>
+      <c r="G29" s="236"/>
       <c r="H29" s="7"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -3819,14 +4039,14 @@
     </row>
     <row r="30" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
-      <c r="B30" s="236" t="s">
+      <c r="B30" s="258" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="237"/>
-      <c r="D30" s="237"/>
-      <c r="E30" s="237"/>
-      <c r="F30" s="237"/>
-      <c r="G30" s="238"/>
+      <c r="C30" s="259"/>
+      <c r="D30" s="259"/>
+      <c r="E30" s="259"/>
+      <c r="F30" s="259"/>
+      <c r="G30" s="260"/>
       <c r="H30" s="1"/>
       <c r="I30" s="3"/>
       <c r="J30" s="1"/>
@@ -3843,21 +4063,21 @@
       <c r="B31" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="230" t="s">
+      <c r="C31" s="252" t="s">
         <v>113</v>
       </c>
-      <c r="D31" s="230"/>
-      <c r="E31" s="230"/>
-      <c r="F31" s="230"/>
-      <c r="G31" s="231"/>
+      <c r="D31" s="252"/>
+      <c r="E31" s="252"/>
+      <c r="F31" s="252"/>
+      <c r="G31" s="253"/>
       <c r="H31" s="57"/>
-      <c r="I31" s="244"/>
-      <c r="J31" s="244"/>
-      <c r="K31" s="244"/>
-      <c r="L31" s="244"/>
-      <c r="M31" s="244"/>
-      <c r="N31" s="244"/>
-      <c r="O31" s="244"/>
+      <c r="I31" s="223"/>
+      <c r="J31" s="223"/>
+      <c r="K31" s="223"/>
+      <c r="L31" s="223"/>
+      <c r="M31" s="223"/>
+      <c r="N31" s="223"/>
+      <c r="O31" s="223"/>
       <c r="P31" s="11"/>
       <c r="Q31" s="1"/>
     </row>
@@ -3885,13 +4105,13 @@
       <c r="B33" s="59">
         <v>1</v>
       </c>
-      <c r="C33" s="248" t="s">
+      <c r="C33" s="227" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="248"/>
-      <c r="E33" s="248"/>
-      <c r="F33" s="248"/>
-      <c r="G33" s="249"/>
+      <c r="D33" s="227"/>
+      <c r="E33" s="227"/>
+      <c r="F33" s="227"/>
+      <c r="G33" s="228"/>
       <c r="H33" s="57"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="1"/>
@@ -3911,13 +4131,13 @@
     <row r="35" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
       <c r="B35" s="60"/>
-      <c r="C35" s="194" t="s">
+      <c r="C35" s="216" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="194"/>
-      <c r="E35" s="194"/>
-      <c r="F35" s="194"/>
-      <c r="G35" s="195"/>
+      <c r="D35" s="216"/>
+      <c r="E35" s="216"/>
+      <c r="F35" s="216"/>
+      <c r="G35" s="217"/>
       <c r="H35" s="57"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="1"/>
@@ -3927,13 +4147,13 @@
       <c r="B36" s="59">
         <v>1</v>
       </c>
-      <c r="C36" s="248" t="s">
+      <c r="C36" s="227" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="248"/>
-      <c r="E36" s="248"/>
-      <c r="F36" s="248"/>
-      <c r="G36" s="249"/>
+      <c r="D36" s="227"/>
+      <c r="E36" s="227"/>
+      <c r="F36" s="227"/>
+      <c r="G36" s="228"/>
       <c r="H36" s="57"/>
       <c r="P36" s="11"/>
       <c r="Q36" s="1"/>
@@ -3943,13 +4163,13 @@
       <c r="B37" s="59">
         <v>2</v>
       </c>
-      <c r="C37" s="248" t="s">
+      <c r="C37" s="227" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="248"/>
-      <c r="E37" s="248"/>
-      <c r="F37" s="248"/>
-      <c r="G37" s="249"/>
+      <c r="D37" s="227"/>
+      <c r="E37" s="227"/>
+      <c r="F37" s="227"/>
+      <c r="G37" s="228"/>
       <c r="H37" s="57"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="1"/>
@@ -3959,13 +4179,13 @@
       <c r="B38" s="59">
         <v>3</v>
       </c>
-      <c r="C38" s="250" t="s">
+      <c r="C38" s="229" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="250"/>
-      <c r="E38" s="250"/>
-      <c r="F38" s="250"/>
-      <c r="G38" s="251"/>
+      <c r="D38" s="229"/>
+      <c r="E38" s="229"/>
+      <c r="F38" s="229"/>
+      <c r="G38" s="230"/>
       <c r="H38" s="11"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -4057,10 +4277,10 @@
     <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
       <c r="B45" s="105"/>
-      <c r="C45" s="254" t="s">
+      <c r="C45" s="233" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="254"/>
+      <c r="D45" s="233"/>
       <c r="E45" s="110"/>
       <c r="F45" s="110"/>
       <c r="G45" s="111"/>
@@ -4071,27 +4291,27 @@
     <row r="46" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" s="112"/>
-      <c r="C46" s="252" t="s">
+      <c r="C46" s="231" t="s">
         <v>108</v>
       </c>
-      <c r="D46" s="252"/>
-      <c r="E46" s="252"/>
-      <c r="F46" s="252"/>
-      <c r="G46" s="253"/>
+      <c r="D46" s="231"/>
+      <c r="E46" s="231"/>
+      <c r="F46" s="231"/>
+      <c r="G46" s="232"/>
       <c r="H46" s="11"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
     <row r="47" spans="1:17" ht="16" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
-      <c r="B47" s="239" t="s">
+      <c r="B47" s="218" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="240"/>
-      <c r="D47" s="240"/>
-      <c r="E47" s="240"/>
-      <c r="F47" s="240"/>
-      <c r="G47" s="241"/>
+      <c r="C47" s="219"/>
+      <c r="D47" s="219"/>
+      <c r="E47" s="219"/>
+      <c r="F47" s="219"/>
+      <c r="G47" s="220"/>
       <c r="H47" s="1"/>
       <c r="I47" s="3"/>
       <c r="J47" s="1"/>
@@ -4120,13 +4340,13 @@
       <c r="B49" s="59">
         <v>1</v>
       </c>
-      <c r="C49" s="232" t="s">
+      <c r="C49" s="254" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="232"/>
-      <c r="E49" s="232"/>
-      <c r="F49" s="232"/>
-      <c r="G49" s="233"/>
+      <c r="D49" s="254"/>
+      <c r="E49" s="254"/>
+      <c r="F49" s="254"/>
+      <c r="G49" s="255"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="9"/>
@@ -4258,8 +4478,8 @@
       <c r="F55" s="66"/>
       <c r="G55" s="67"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="242"/>
-      <c r="J55" s="242"/>
+      <c r="I55" s="221"/>
+      <c r="J55" s="221"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -4279,8 +4499,8 @@
       <c r="F56" s="115"/>
       <c r="G56" s="116"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="242"/>
-      <c r="J56" s="242"/>
+      <c r="I56" s="221"/>
+      <c r="J56" s="221"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -4300,8 +4520,8 @@
       <c r="F57" s="115"/>
       <c r="G57" s="116"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="242"/>
-      <c r="J57" s="242"/>
+      <c r="I57" s="221"/>
+      <c r="J57" s="221"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -4321,8 +4541,8 @@
       <c r="F58" s="115"/>
       <c r="G58" s="116"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="242"/>
-      <c r="J58" s="242"/>
+      <c r="I58" s="221"/>
+      <c r="J58" s="221"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -4342,8 +4562,8 @@
       <c r="F59" s="115"/>
       <c r="G59" s="116"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="242"/>
-      <c r="J59" s="242"/>
+      <c r="I59" s="221"/>
+      <c r="J59" s="221"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -4363,8 +4583,8 @@
       <c r="F60" s="83"/>
       <c r="G60" s="84"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="242"/>
-      <c r="J60" s="242"/>
+      <c r="I60" s="221"/>
+      <c r="J60" s="221"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -4386,8 +4606,8 @@
       <c r="F61" s="68"/>
       <c r="G61" s="69"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="242"/>
-      <c r="J61" s="242"/>
+      <c r="I61" s="221"/>
+      <c r="J61" s="221"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -4417,14 +4637,14 @@
     </row>
     <row r="63" spans="1:17" ht="16" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
-      <c r="B63" s="239" t="s">
+      <c r="B63" s="218" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="240"/>
-      <c r="D63" s="240"/>
-      <c r="E63" s="240"/>
-      <c r="F63" s="240"/>
-      <c r="G63" s="241"/>
+      <c r="C63" s="219"/>
+      <c r="D63" s="219"/>
+      <c r="E63" s="219"/>
+      <c r="F63" s="219"/>
+      <c r="G63" s="220"/>
       <c r="H63" s="1"/>
       <c r="I63" s="3"/>
       <c r="J63" s="1"/>
@@ -4460,13 +4680,13 @@
       <c r="B65" s="59">
         <v>1</v>
       </c>
-      <c r="C65" s="194" t="s">
+      <c r="C65" s="216" t="s">
         <v>121</v>
       </c>
-      <c r="D65" s="194"/>
-      <c r="E65" s="194"/>
-      <c r="F65" s="194"/>
-      <c r="G65" s="195"/>
+      <c r="D65" s="216"/>
+      <c r="E65" s="216"/>
+      <c r="F65" s="216"/>
+      <c r="G65" s="217"/>
       <c r="H65" s="7"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -4483,13 +4703,13 @@
       <c r="B66" s="59">
         <v>2</v>
       </c>
-      <c r="C66" s="194" t="s">
+      <c r="C66" s="216" t="s">
         <v>103</v>
       </c>
-      <c r="D66" s="194"/>
-      <c r="E66" s="194"/>
-      <c r="F66" s="194"/>
-      <c r="G66" s="195"/>
+      <c r="D66" s="216"/>
+      <c r="E66" s="216"/>
+      <c r="F66" s="216"/>
+      <c r="G66" s="217"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -4506,13 +4726,13 @@
       <c r="B67" s="59">
         <v>3</v>
       </c>
-      <c r="C67" s="194" t="s">
+      <c r="C67" s="216" t="s">
         <v>102</v>
       </c>
-      <c r="D67" s="194"/>
-      <c r="E67" s="194"/>
-      <c r="F67" s="194"/>
-      <c r="G67" s="195"/>
+      <c r="D67" s="216"/>
+      <c r="E67" s="216"/>
+      <c r="F67" s="216"/>
+      <c r="G67" s="217"/>
       <c r="J67" s="57"/>
       <c r="K67" s="57"/>
       <c r="L67" s="57"/>
@@ -4525,11 +4745,11 @@
     <row r="68" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="59"/>
-      <c r="C68" s="194"/>
-      <c r="D68" s="194"/>
-      <c r="E68" s="194"/>
-      <c r="F68" s="194"/>
-      <c r="G68" s="195"/>
+      <c r="C68" s="216"/>
+      <c r="D68" s="216"/>
+      <c r="E68" s="216"/>
+      <c r="F68" s="216"/>
+      <c r="G68" s="217"/>
       <c r="J68" s="57"/>
       <c r="K68" s="57"/>
       <c r="L68" s="57"/>
@@ -4561,39 +4781,39 @@
       <c r="B70" s="23"/>
     </row>
     <row r="71" spans="1:17" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="201" t="s">
+      <c r="B71" s="192" t="s">
         <v>109</v>
       </c>
-      <c r="C71" s="202"/>
-      <c r="D71" s="202"/>
-      <c r="E71" s="202"/>
-      <c r="F71" s="202"/>
-      <c r="G71" s="203"/>
+      <c r="C71" s="193"/>
+      <c r="D71" s="193"/>
+      <c r="E71" s="193"/>
+      <c r="F71" s="193"/>
+      <c r="G71" s="194"/>
     </row>
     <row r="72" spans="1:17" s="28" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C72" s="204" t="s">
+      <c r="C72" s="195" t="s">
         <v>28</v>
       </c>
-      <c r="D72" s="205"/>
-      <c r="E72" s="205"/>
-      <c r="F72" s="205"/>
-      <c r="G72" s="206"/>
+      <c r="D72" s="196"/>
+      <c r="E72" s="196"/>
+      <c r="F72" s="196"/>
+      <c r="G72" s="197"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
       <c r="B73" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="C73" s="227" t="s">
+      <c r="C73" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="D73" s="228"/>
-      <c r="E73" s="228"/>
-      <c r="F73" s="228"/>
-      <c r="G73" s="229"/>
+      <c r="D73" s="214"/>
+      <c r="E73" s="214"/>
+      <c r="F73" s="214"/>
+      <c r="G73" s="215"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
@@ -4633,56 +4853,56 @@
       <c r="B77" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="C77" s="198" t="s">
+      <c r="C77" s="210" t="s">
         <v>91</v>
       </c>
-      <c r="D77" s="199"/>
-      <c r="E77" s="199"/>
-      <c r="F77" s="199"/>
-      <c r="G77" s="200"/>
+      <c r="D77" s="211"/>
+      <c r="E77" s="211"/>
+      <c r="F77" s="211"/>
+      <c r="G77" s="212"/>
     </row>
     <row r="78" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
       <c r="B78" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="C78" s="198" t="s">
+      <c r="C78" s="210" t="s">
         <v>50</v>
       </c>
-      <c r="D78" s="199"/>
-      <c r="E78" s="199"/>
-      <c r="F78" s="199"/>
-      <c r="G78" s="200"/>
+      <c r="D78" s="211"/>
+      <c r="E78" s="211"/>
+      <c r="F78" s="211"/>
+      <c r="G78" s="212"/>
     </row>
     <row r="79" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
       <c r="B79" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="227" t="s">
+      <c r="C79" s="213" t="s">
         <v>51</v>
       </c>
-      <c r="D79" s="228"/>
-      <c r="E79" s="228"/>
-      <c r="F79" s="228"/>
-      <c r="G79" s="229"/>
+      <c r="D79" s="214"/>
+      <c r="E79" s="214"/>
+      <c r="F79" s="214"/>
+      <c r="G79" s="215"/>
     </row>
     <row r="80" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
-      <c r="B80" s="258" t="s">
+      <c r="B80" s="198" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="227" t="s">
+      <c r="C80" s="213" t="s">
         <v>25</v>
       </c>
-      <c r="D80" s="228"/>
-      <c r="E80" s="228"/>
-      <c r="F80" s="228"/>
-      <c r="G80" s="229"/>
+      <c r="D80" s="214"/>
+      <c r="E80" s="214"/>
+      <c r="F80" s="214"/>
+      <c r="G80" s="215"/>
     </row>
     <row r="81" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
-      <c r="B81" s="259"/>
+      <c r="B81" s="199"/>
       <c r="C81" s="89" t="s">
         <v>76</v>
       </c>
@@ -4695,7 +4915,7 @@
     </row>
     <row r="82" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
-      <c r="B82" s="259"/>
+      <c r="B82" s="199"/>
       <c r="C82" s="89" t="s">
         <v>64</v>
       </c>
@@ -4708,7 +4928,7 @@
     </row>
     <row r="83" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
-      <c r="B83" s="259"/>
+      <c r="B83" s="199"/>
       <c r="C83" s="89" t="s">
         <v>65</v>
       </c>
@@ -4721,7 +4941,7 @@
     </row>
     <row r="84" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
-      <c r="B84" s="259"/>
+      <c r="B84" s="199"/>
       <c r="C84" s="89" t="s">
         <v>34</v>
       </c>
@@ -4734,7 +4954,7 @@
     </row>
     <row r="85" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
-      <c r="B85" s="260"/>
+      <c r="B85" s="200"/>
       <c r="C85" s="91"/>
       <c r="D85" s="92"/>
       <c r="E85" s="50"/>
@@ -4746,182 +4966,182 @@
       <c r="B86" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="C86" s="263" t="s">
+      <c r="C86" s="205" t="s">
         <v>52</v>
       </c>
-      <c r="D86" s="261"/>
-      <c r="E86" s="261"/>
-      <c r="F86" s="261"/>
-      <c r="G86" s="262"/>
+      <c r="D86" s="201"/>
+      <c r="E86" s="201"/>
+      <c r="F86" s="201"/>
+      <c r="G86" s="202"/>
     </row>
     <row r="87" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
       <c r="B87" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="C87" s="264" t="s">
+      <c r="C87" s="206" t="s">
         <v>53</v>
       </c>
-      <c r="D87" s="222"/>
-      <c r="E87" s="222"/>
-      <c r="F87" s="222"/>
-      <c r="G87" s="223"/>
+      <c r="D87" s="203"/>
+      <c r="E87" s="203"/>
+      <c r="F87" s="203"/>
+      <c r="G87" s="204"/>
     </row>
     <row r="88" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
       <c r="B88" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="C88" s="265" t="s">
+      <c r="C88" s="207" t="s">
         <v>54</v>
       </c>
-      <c r="D88" s="266"/>
-      <c r="E88" s="266"/>
-      <c r="F88" s="266"/>
-      <c r="G88" s="267"/>
+      <c r="D88" s="208"/>
+      <c r="E88" s="208"/>
+      <c r="F88" s="208"/>
+      <c r="G88" s="209"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
       <c r="B89" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="C89" s="222" t="s">
+      <c r="C89" s="203" t="s">
         <v>97</v>
       </c>
-      <c r="D89" s="222"/>
-      <c r="E89" s="222"/>
-      <c r="F89" s="222"/>
-      <c r="G89" s="223"/>
+      <c r="D89" s="203"/>
+      <c r="E89" s="203"/>
+      <c r="F89" s="203"/>
+      <c r="G89" s="204"/>
     </row>
     <row r="90" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
       <c r="B90" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="C90" s="222" t="s">
+      <c r="C90" s="203" t="s">
         <v>95</v>
       </c>
-      <c r="D90" s="222"/>
-      <c r="E90" s="222"/>
-      <c r="F90" s="222"/>
-      <c r="G90" s="223"/>
+      <c r="D90" s="203"/>
+      <c r="E90" s="203"/>
+      <c r="F90" s="203"/>
+      <c r="G90" s="204"/>
     </row>
     <row r="91" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
       <c r="B91" s="118" t="s">
         <v>92</v>
       </c>
-      <c r="C91" s="261" t="s">
+      <c r="C91" s="201" t="s">
         <v>55</v>
       </c>
-      <c r="D91" s="261"/>
-      <c r="E91" s="261"/>
-      <c r="F91" s="261"/>
-      <c r="G91" s="262"/>
+      <c r="D91" s="201"/>
+      <c r="E91" s="201"/>
+      <c r="F91" s="201"/>
+      <c r="G91" s="202"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
       <c r="B92" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="C92" s="222" t="s">
+      <c r="C92" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="D92" s="222"/>
-      <c r="E92" s="222"/>
-      <c r="F92" s="222"/>
-      <c r="G92" s="223"/>
+      <c r="D92" s="203"/>
+      <c r="E92" s="203"/>
+      <c r="F92" s="203"/>
+      <c r="G92" s="204"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
       <c r="B93" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="C93" s="222" t="s">
+      <c r="C93" s="203" t="s">
         <v>94</v>
       </c>
-      <c r="D93" s="222"/>
-      <c r="E93" s="222"/>
-      <c r="F93" s="222"/>
-      <c r="G93" s="223"/>
+      <c r="D93" s="203"/>
+      <c r="E93" s="203"/>
+      <c r="F93" s="203"/>
+      <c r="G93" s="204"/>
     </row>
     <row r="94" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
       <c r="B94" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="C94" s="222" t="s">
+      <c r="C94" s="203" t="s">
         <v>56</v>
       </c>
-      <c r="D94" s="222"/>
-      <c r="E94" s="222"/>
-      <c r="F94" s="222"/>
-      <c r="G94" s="223"/>
+      <c r="D94" s="203"/>
+      <c r="E94" s="203"/>
+      <c r="F94" s="203"/>
+      <c r="G94" s="204"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
       <c r="B95" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="C95" s="222" t="s">
+      <c r="C95" s="203" t="s">
         <v>57</v>
       </c>
-      <c r="D95" s="222"/>
-      <c r="E95" s="222"/>
-      <c r="F95" s="222"/>
-      <c r="G95" s="223"/>
+      <c r="D95" s="203"/>
+      <c r="E95" s="203"/>
+      <c r="F95" s="203"/>
+      <c r="G95" s="204"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
       <c r="B96" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="C96" s="222" t="s">
+      <c r="C96" s="203" t="s">
         <v>99</v>
       </c>
-      <c r="D96" s="222"/>
-      <c r="E96" s="222"/>
-      <c r="F96" s="222"/>
-      <c r="G96" s="223"/>
+      <c r="D96" s="203"/>
+      <c r="E96" s="203"/>
+      <c r="F96" s="203"/>
+      <c r="G96" s="204"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
       <c r="B97" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="C97" s="222" t="s">
+      <c r="C97" s="203" t="s">
         <v>58</v>
       </c>
-      <c r="D97" s="222"/>
-      <c r="E97" s="222"/>
-      <c r="F97" s="222"/>
-      <c r="G97" s="223"/>
+      <c r="D97" s="203"/>
+      <c r="E97" s="203"/>
+      <c r="F97" s="203"/>
+      <c r="G97" s="204"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
       <c r="B98" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="C98" s="222" t="s">
+      <c r="C98" s="203" t="s">
         <v>59</v>
       </c>
-      <c r="D98" s="222"/>
-      <c r="E98" s="222"/>
-      <c r="F98" s="222"/>
-      <c r="G98" s="223"/>
+      <c r="D98" s="203"/>
+      <c r="E98" s="203"/>
+      <c r="F98" s="203"/>
+      <c r="G98" s="204"/>
     </row>
     <row r="99" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
       <c r="B99" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="C99" s="219" t="s">
+      <c r="C99" s="249" t="s">
         <v>106</v>
       </c>
-      <c r="D99" s="220"/>
-      <c r="E99" s="220"/>
-      <c r="F99" s="220"/>
-      <c r="G99" s="221"/>
+      <c r="D99" s="250"/>
+      <c r="E99" s="250"/>
+      <c r="F99" s="250"/>
+      <c r="G99" s="251"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
@@ -4940,7 +5160,7 @@
       <c r="A101" s="4"/>
       <c r="B101" s="120"/>
       <c r="C101" s="94" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D101" s="54"/>
       <c r="E101" s="22"/>
@@ -4964,62 +5184,62 @@
     </row>
     <row r="104" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
-      <c r="B104" s="201" t="s">
+      <c r="B104" s="192" t="s">
         <v>130</v>
       </c>
-      <c r="C104" s="202"/>
-      <c r="D104" s="202"/>
-      <c r="E104" s="202"/>
-      <c r="F104" s="202"/>
-      <c r="G104" s="203"/>
+      <c r="C104" s="193"/>
+      <c r="D104" s="193"/>
+      <c r="E104" s="193"/>
+      <c r="F104" s="193"/>
+      <c r="G104" s="194"/>
     </row>
     <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6"/>
       <c r="B105" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C105" s="204" t="s">
+      <c r="C105" s="195" t="s">
         <v>28</v>
       </c>
-      <c r="D105" s="205"/>
-      <c r="E105" s="205"/>
-      <c r="F105" s="205"/>
-      <c r="G105" s="206"/>
+      <c r="D105" s="196"/>
+      <c r="E105" s="196"/>
+      <c r="F105" s="196"/>
+      <c r="G105" s="197"/>
     </row>
     <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="6"/>
       <c r="B106" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="C106" s="196" t="s">
+      <c r="C106" s="263" t="s">
         <v>134</v>
       </c>
-      <c r="D106" s="196"/>
-      <c r="E106" s="196"/>
-      <c r="F106" s="196"/>
-      <c r="G106" s="196"/>
+      <c r="D106" s="263"/>
+      <c r="E106" s="263"/>
+      <c r="F106" s="263"/>
+      <c r="G106" s="263"/>
     </row>
     <row r="107" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6"/>
       <c r="B107" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="C107" s="198" t="s">
+      <c r="C107" s="210" t="s">
         <v>135</v>
       </c>
-      <c r="D107" s="199"/>
-      <c r="E107" s="199"/>
-      <c r="F107" s="199"/>
-      <c r="G107" s="200"/>
+      <c r="D107" s="211"/>
+      <c r="E107" s="211"/>
+      <c r="F107" s="211"/>
+      <c r="G107" s="212"/>
     </row>
     <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="6"/>
       <c r="B108" s="98"/>
-      <c r="C108" s="198"/>
-      <c r="D108" s="199"/>
-      <c r="E108" s="199"/>
-      <c r="F108" s="199"/>
-      <c r="G108" s="200"/>
+      <c r="C108" s="210"/>
+      <c r="D108" s="211"/>
+      <c r="E108" s="211"/>
+      <c r="F108" s="211"/>
+      <c r="G108" s="212"/>
     </row>
     <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="6"/>
@@ -5032,62 +5252,62 @@
     </row>
     <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="6"/>
-      <c r="B110" s="201" t="s">
+      <c r="B110" s="192" t="s">
         <v>131</v>
       </c>
-      <c r="C110" s="202"/>
-      <c r="D110" s="202"/>
-      <c r="E110" s="202"/>
-      <c r="F110" s="202"/>
-      <c r="G110" s="203"/>
+      <c r="C110" s="193"/>
+      <c r="D110" s="193"/>
+      <c r="E110" s="193"/>
+      <c r="F110" s="193"/>
+      <c r="G110" s="194"/>
     </row>
     <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6"/>
       <c r="B111" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C111" s="204" t="s">
+      <c r="C111" s="195" t="s">
         <v>28</v>
       </c>
-      <c r="D111" s="205"/>
-      <c r="E111" s="205"/>
-      <c r="F111" s="205"/>
-      <c r="G111" s="206"/>
+      <c r="D111" s="196"/>
+      <c r="E111" s="196"/>
+      <c r="F111" s="196"/>
+      <c r="G111" s="197"/>
     </row>
     <row r="112" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6"/>
       <c r="B112" s="129" t="s">
         <v>136</v>
       </c>
-      <c r="C112" s="196" t="s">
+      <c r="C112" s="263" t="s">
         <v>138</v>
       </c>
-      <c r="D112" s="196"/>
-      <c r="E112" s="196"/>
-      <c r="F112" s="196"/>
-      <c r="G112" s="196"/>
+      <c r="D112" s="263"/>
+      <c r="E112" s="263"/>
+      <c r="F112" s="263"/>
+      <c r="G112" s="263"/>
     </row>
     <row r="113" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6"/>
       <c r="B113" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="C113" s="198" t="s">
+      <c r="C113" s="210" t="s">
         <v>137</v>
       </c>
-      <c r="D113" s="199"/>
-      <c r="E113" s="199"/>
-      <c r="F113" s="199"/>
-      <c r="G113" s="200"/>
+      <c r="D113" s="211"/>
+      <c r="E113" s="211"/>
+      <c r="F113" s="211"/>
+      <c r="G113" s="212"/>
     </row>
     <row r="114" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6"/>
       <c r="B114" s="98"/>
-      <c r="C114" s="196"/>
-      <c r="D114" s="196"/>
-      <c r="E114" s="196"/>
-      <c r="F114" s="196"/>
-      <c r="G114" s="196"/>
+      <c r="C114" s="263"/>
+      <c r="D114" s="263"/>
+      <c r="E114" s="263"/>
+      <c r="F114" s="263"/>
+      <c r="G114" s="263"/>
     </row>
     <row r="115" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="6"/>
@@ -5325,12 +5545,12 @@
     </row>
     <row r="141" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="26"/>
-      <c r="B141" s="197"/>
-      <c r="C141" s="197"/>
-      <c r="D141" s="197"/>
-      <c r="E141" s="197"/>
-      <c r="F141" s="197"/>
-      <c r="G141" s="197"/>
+      <c r="B141" s="264"/>
+      <c r="C141" s="264"/>
+      <c r="D141" s="264"/>
+      <c r="E141" s="264"/>
+      <c r="F141" s="264"/>
+      <c r="G141" s="264"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A142" s="26"/>
@@ -5344,11 +5564,11 @@
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A143" s="26"/>
       <c r="B143" s="43"/>
-      <c r="C143" s="188"/>
-      <c r="D143" s="188"/>
-      <c r="E143" s="188"/>
-      <c r="F143" s="188"/>
-      <c r="G143" s="188"/>
+      <c r="C143" s="261"/>
+      <c r="D143" s="261"/>
+      <c r="E143" s="261"/>
+      <c r="F143" s="261"/>
+      <c r="G143" s="261"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A144" s="26"/>
@@ -5362,11 +5582,11 @@
     <row r="145" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="26"/>
       <c r="B145" s="45"/>
-      <c r="C145" s="192"/>
-      <c r="D145" s="192"/>
-      <c r="E145" s="192"/>
-      <c r="F145" s="192"/>
-      <c r="G145" s="192"/>
+      <c r="C145" s="262"/>
+      <c r="D145" s="262"/>
+      <c r="E145" s="262"/>
+      <c r="F145" s="262"/>
+      <c r="G145" s="262"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A146" s="26"/>
@@ -5380,11 +5600,11 @@
     <row r="147" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A147" s="26"/>
       <c r="B147" s="43"/>
-      <c r="C147" s="188"/>
-      <c r="D147" s="188"/>
-      <c r="E147" s="188"/>
-      <c r="F147" s="188"/>
-      <c r="G147" s="188"/>
+      <c r="C147" s="261"/>
+      <c r="D147" s="261"/>
+      <c r="E147" s="261"/>
+      <c r="F147" s="261"/>
+      <c r="G147" s="261"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A148" s="26"/>
@@ -5398,11 +5618,11 @@
     <row r="149" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="26"/>
       <c r="B149" s="45"/>
-      <c r="C149" s="192"/>
-      <c r="D149" s="192"/>
-      <c r="E149" s="192"/>
-      <c r="F149" s="192"/>
-      <c r="G149" s="192"/>
+      <c r="C149" s="262"/>
+      <c r="D149" s="262"/>
+      <c r="E149" s="262"/>
+      <c r="F149" s="262"/>
+      <c r="G149" s="262"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A150" s="26"/>
@@ -5425,11 +5645,11 @@
     <row r="152" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A152" s="26"/>
       <c r="B152" s="43"/>
-      <c r="C152" s="188"/>
-      <c r="D152" s="188"/>
-      <c r="E152" s="188"/>
-      <c r="F152" s="188"/>
-      <c r="G152" s="188"/>
+      <c r="C152" s="261"/>
+      <c r="D152" s="261"/>
+      <c r="E152" s="261"/>
+      <c r="F152" s="261"/>
+      <c r="G152" s="261"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A153" s="26"/>
@@ -5443,35 +5663,35 @@
     <row r="154" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="26"/>
       <c r="B154" s="45"/>
-      <c r="C154" s="192"/>
-      <c r="D154" s="192"/>
-      <c r="E154" s="192"/>
-      <c r="F154" s="192"/>
-      <c r="G154" s="192"/>
+      <c r="C154" s="262"/>
+      <c r="D154" s="262"/>
+      <c r="E154" s="262"/>
+      <c r="F154" s="262"/>
+      <c r="G154" s="262"/>
     </row>
     <row r="155" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="26"/>
       <c r="B155" s="45"/>
-      <c r="C155" s="192"/>
-      <c r="D155" s="192"/>
-      <c r="E155" s="192"/>
-      <c r="F155" s="192"/>
-      <c r="G155" s="192"/>
+      <c r="C155" s="262"/>
+      <c r="D155" s="262"/>
+      <c r="E155" s="262"/>
+      <c r="F155" s="262"/>
+      <c r="G155" s="262"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A156" s="26"/>
       <c r="B156" s="45"/>
-      <c r="C156" s="193"/>
-      <c r="D156" s="193"/>
-      <c r="E156" s="193"/>
-      <c r="F156" s="193"/>
-      <c r="G156" s="193"/>
+      <c r="C156" s="267"/>
+      <c r="D156" s="267"/>
+      <c r="E156" s="267"/>
+      <c r="F156" s="267"/>
+      <c r="G156" s="267"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A157" s="26"/>
       <c r="B157" s="47"/>
-      <c r="C157" s="189"/>
-      <c r="D157" s="189"/>
+      <c r="C157" s="266"/>
+      <c r="D157" s="266"/>
       <c r="E157" s="48"/>
       <c r="F157" s="48"/>
       <c r="G157" s="35"/>
@@ -5479,8 +5699,8 @@
     <row r="158" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A158" s="26"/>
       <c r="B158" s="47"/>
-      <c r="C158" s="189"/>
-      <c r="D158" s="189"/>
+      <c r="C158" s="266"/>
+      <c r="D158" s="266"/>
       <c r="E158" s="48"/>
       <c r="F158" s="48"/>
       <c r="G158" s="35"/>
@@ -5488,8 +5708,8 @@
     <row r="159" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A159" s="26"/>
       <c r="B159" s="47"/>
-      <c r="C159" s="189"/>
-      <c r="D159" s="189"/>
+      <c r="C159" s="266"/>
+      <c r="D159" s="266"/>
       <c r="E159" s="48"/>
       <c r="F159" s="48"/>
       <c r="G159" s="35"/>
@@ -5497,8 +5717,8 @@
     <row r="160" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A160" s="26"/>
       <c r="B160" s="47"/>
-      <c r="C160" s="189"/>
-      <c r="D160" s="189"/>
+      <c r="C160" s="266"/>
+      <c r="D160" s="266"/>
       <c r="E160" s="48"/>
       <c r="F160" s="48"/>
       <c r="G160" s="35"/>
@@ -5506,8 +5726,8 @@
     <row r="161" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A161" s="26"/>
       <c r="B161" s="47"/>
-      <c r="C161" s="189"/>
-      <c r="D161" s="189"/>
+      <c r="C161" s="266"/>
+      <c r="D161" s="266"/>
       <c r="E161" s="48"/>
       <c r="F161" s="48"/>
       <c r="G161" s="35"/>
@@ -5515,8 +5735,8 @@
     <row r="162" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A162" s="26"/>
       <c r="B162" s="47"/>
-      <c r="C162" s="189"/>
-      <c r="D162" s="189"/>
+      <c r="C162" s="266"/>
+      <c r="D162" s="266"/>
       <c r="E162" s="48"/>
       <c r="F162" s="48"/>
       <c r="G162" s="35"/>
@@ -5524,8 +5744,8 @@
     <row r="163" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A163" s="26"/>
       <c r="B163" s="47"/>
-      <c r="C163" s="189"/>
-      <c r="D163" s="189"/>
+      <c r="C163" s="266"/>
+      <c r="D163" s="266"/>
       <c r="E163" s="48"/>
       <c r="F163" s="48"/>
       <c r="G163" s="49"/>
@@ -5533,8 +5753,8 @@
     <row r="164" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A164" s="26"/>
       <c r="B164" s="47"/>
-      <c r="C164" s="189"/>
-      <c r="D164" s="189"/>
+      <c r="C164" s="266"/>
+      <c r="D164" s="266"/>
       <c r="E164" s="48"/>
       <c r="F164" s="48"/>
       <c r="G164" s="49"/>
@@ -5542,8 +5762,8 @@
     <row r="165" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A165" s="26"/>
       <c r="B165" s="47"/>
-      <c r="C165" s="189"/>
-      <c r="D165" s="189"/>
+      <c r="C165" s="266"/>
+      <c r="D165" s="266"/>
       <c r="E165" s="48"/>
       <c r="F165" s="48"/>
       <c r="G165" s="49"/>
@@ -5551,8 +5771,8 @@
     <row r="166" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A166" s="26"/>
       <c r="B166" s="47"/>
-      <c r="C166" s="189"/>
-      <c r="D166" s="189"/>
+      <c r="C166" s="266"/>
+      <c r="D166" s="266"/>
       <c r="E166" s="48"/>
       <c r="F166" s="48"/>
       <c r="G166" s="49"/>
@@ -5560,11 +5780,11 @@
     <row r="167" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="26"/>
       <c r="B167" s="47"/>
-      <c r="C167" s="191"/>
-      <c r="D167" s="191"/>
-      <c r="E167" s="191"/>
-      <c r="F167" s="191"/>
-      <c r="G167" s="191"/>
+      <c r="C167" s="265"/>
+      <c r="D167" s="265"/>
+      <c r="E167" s="265"/>
+      <c r="F167" s="265"/>
+      <c r="G167" s="265"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A168" s="26"/>
@@ -5622,8 +5842,8 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A174" s="26"/>
-      <c r="B174" s="189"/>
-      <c r="C174" s="189"/>
+      <c r="B174" s="266"/>
+      <c r="C174" s="266"/>
       <c r="D174" s="26"/>
       <c r="E174" s="26"/>
       <c r="F174" s="26"/>
@@ -5631,8 +5851,8 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A175" s="26"/>
-      <c r="B175" s="189"/>
-      <c r="C175" s="189"/>
+      <c r="B175" s="266"/>
+      <c r="C175" s="266"/>
       <c r="D175" s="26"/>
       <c r="E175" s="26"/>
       <c r="F175" s="26"/>
@@ -5640,8 +5860,8 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A176" s="26"/>
-      <c r="B176" s="189"/>
-      <c r="C176" s="189"/>
+      <c r="B176" s="266"/>
+      <c r="C176" s="266"/>
       <c r="D176" s="26"/>
       <c r="E176" s="26"/>
       <c r="F176" s="26"/>
@@ -5649,8 +5869,8 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A177" s="26"/>
-      <c r="B177" s="189"/>
-      <c r="C177" s="189"/>
+      <c r="B177" s="266"/>
+      <c r="C177" s="266"/>
       <c r="D177" s="26"/>
       <c r="E177" s="26"/>
       <c r="F177" s="26"/>
@@ -5658,8 +5878,8 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A178" s="26"/>
-      <c r="B178" s="189"/>
-      <c r="C178" s="189"/>
+      <c r="B178" s="266"/>
+      <c r="C178" s="266"/>
       <c r="D178" s="26"/>
       <c r="E178" s="26"/>
       <c r="F178" s="26"/>
@@ -5667,8 +5887,8 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A179" s="26"/>
-      <c r="B179" s="189"/>
-      <c r="C179" s="189"/>
+      <c r="B179" s="266"/>
+      <c r="C179" s="266"/>
       <c r="D179" s="26"/>
       <c r="E179" s="26"/>
       <c r="F179" s="26"/>
@@ -5676,8 +5896,8 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A180" s="26"/>
-      <c r="B180" s="189"/>
-      <c r="C180" s="189"/>
+      <c r="B180" s="266"/>
+      <c r="C180" s="266"/>
       <c r="D180" s="26"/>
       <c r="E180" s="26"/>
       <c r="F180" s="26"/>
@@ -5685,8 +5905,8 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A181" s="26"/>
-      <c r="B181" s="189"/>
-      <c r="C181" s="189"/>
+      <c r="B181" s="266"/>
+      <c r="C181" s="266"/>
       <c r="D181" s="26"/>
       <c r="E181" s="26"/>
       <c r="F181" s="26"/>
@@ -5694,8 +5914,8 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A182" s="26"/>
-      <c r="B182" s="189"/>
-      <c r="C182" s="189"/>
+      <c r="B182" s="266"/>
+      <c r="C182" s="266"/>
       <c r="D182" s="26"/>
       <c r="E182" s="26"/>
       <c r="F182" s="26"/>
@@ -5703,8 +5923,8 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A183" s="26"/>
-      <c r="B183" s="189"/>
-      <c r="C183" s="189"/>
+      <c r="B183" s="266"/>
+      <c r="C183" s="266"/>
       <c r="D183" s="26"/>
       <c r="E183" s="26"/>
       <c r="F183" s="26"/>
@@ -5712,8 +5932,8 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A184" s="26"/>
-      <c r="B184" s="189"/>
-      <c r="C184" s="189"/>
+      <c r="B184" s="266"/>
+      <c r="C184" s="266"/>
       <c r="D184" s="26"/>
       <c r="E184" s="26"/>
       <c r="F184" s="26"/>
@@ -5721,8 +5941,8 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A185" s="26"/>
-      <c r="B185" s="189"/>
-      <c r="C185" s="189"/>
+      <c r="B185" s="266"/>
+      <c r="C185" s="266"/>
       <c r="D185" s="26"/>
       <c r="E185" s="26"/>
       <c r="F185" s="26"/>
@@ -5739,21 +5959,21 @@
     </row>
     <row r="187" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="45"/>
-      <c r="B187" s="188"/>
-      <c r="C187" s="188"/>
-      <c r="D187" s="188"/>
-      <c r="E187" s="188"/>
-      <c r="F187" s="188"/>
-      <c r="G187" s="188"/>
+      <c r="B187" s="261"/>
+      <c r="C187" s="261"/>
+      <c r="D187" s="261"/>
+      <c r="E187" s="261"/>
+      <c r="F187" s="261"/>
+      <c r="G187" s="261"/>
     </row>
     <row r="188" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="45"/>
-      <c r="B188" s="188"/>
-      <c r="C188" s="188"/>
-      <c r="D188" s="188"/>
-      <c r="E188" s="188"/>
-      <c r="F188" s="188"/>
-      <c r="G188" s="188"/>
+      <c r="B188" s="261"/>
+      <c r="C188" s="261"/>
+      <c r="D188" s="261"/>
+      <c r="E188" s="261"/>
+      <c r="F188" s="261"/>
+      <c r="G188" s="261"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A189" s="26"/>
@@ -5784,59 +6004,113 @@
     </row>
     <row r="192" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="45"/>
-      <c r="B192" s="190"/>
-      <c r="C192" s="190"/>
-      <c r="D192" s="190"/>
-      <c r="E192" s="190"/>
-      <c r="F192" s="190"/>
-      <c r="G192" s="190"/>
+      <c r="B192" s="268"/>
+      <c r="C192" s="268"/>
+      <c r="D192" s="268"/>
+      <c r="E192" s="268"/>
+      <c r="F192" s="268"/>
+      <c r="G192" s="268"/>
     </row>
     <row r="193" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="45"/>
-      <c r="B193" s="190"/>
-      <c r="C193" s="190"/>
-      <c r="D193" s="190"/>
-      <c r="E193" s="190"/>
-      <c r="F193" s="190"/>
-      <c r="G193" s="190"/>
+      <c r="B193" s="268"/>
+      <c r="C193" s="268"/>
+      <c r="D193" s="268"/>
+      <c r="E193" s="268"/>
+      <c r="F193" s="268"/>
+      <c r="G193" s="268"/>
     </row>
     <row r="194" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="45"/>
-      <c r="B194" s="190"/>
-      <c r="C194" s="190"/>
-      <c r="D194" s="190"/>
-      <c r="E194" s="190"/>
-      <c r="F194" s="190"/>
-      <c r="G194" s="190"/>
+      <c r="B194" s="268"/>
+      <c r="C194" s="268"/>
+      <c r="D194" s="268"/>
+      <c r="E194" s="268"/>
+      <c r="F194" s="268"/>
+      <c r="G194" s="268"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A195" s="45"/>
-      <c r="B195" s="190"/>
-      <c r="C195" s="190"/>
-      <c r="D195" s="190"/>
-      <c r="E195" s="190"/>
-      <c r="F195" s="190"/>
-      <c r="G195" s="190"/>
+      <c r="B195" s="268"/>
+      <c r="C195" s="268"/>
+      <c r="D195" s="268"/>
+      <c r="E195" s="268"/>
+      <c r="F195" s="268"/>
+      <c r="G195" s="268"/>
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="C105:G105"/>
-    <mergeCell ref="B80:B85"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="B187:G187"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="B195:G195"/>
+    <mergeCell ref="B188:G188"/>
+    <mergeCell ref="B193:G193"/>
+    <mergeCell ref="B194:G194"/>
+    <mergeCell ref="B192:G192"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="C167:G167"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="C149:G149"/>
+    <mergeCell ref="C152:G152"/>
+    <mergeCell ref="C154:G154"/>
+    <mergeCell ref="C155:G155"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C156:G156"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="C145:G145"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="C147:G147"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B47:G47"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="D11:G11"/>
@@ -5861,77 +6135,23 @@
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C143:G143"/>
-    <mergeCell ref="C145:G145"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C147:G147"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C112:G112"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C107:G107"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C167:G167"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="C149:G149"/>
-    <mergeCell ref="C152:G152"/>
-    <mergeCell ref="C154:G154"/>
-    <mergeCell ref="C155:G155"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="C156:G156"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="B187:G187"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="B195:G195"/>
-    <mergeCell ref="B188:G188"/>
-    <mergeCell ref="B193:G193"/>
-    <mergeCell ref="B194:G194"/>
-    <mergeCell ref="B192:G192"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="B80:B85"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C66:G66"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -5950,8 +6170,8 @@
   <sheetPr codeName="Hoja3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:U148"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6021,7 +6241,7 @@
         <v>41</v>
       </c>
       <c r="N1" s="136" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="O1" s="136" t="s">
         <v>21</v>
@@ -6050,56 +6270,60 @@
         <v>27</v>
       </c>
       <c r="B2" s="139" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C2" s="140" t="str">
         <f>IF(F2=0," ",IF(ISERROR(MID(F2,1,FIND(" ",F2))),MID(F2,1,FIND(".",F2)),MID(F2,1,FIND(" ",F2))))</f>
         <v xml:space="preserve">Plan </v>
       </c>
       <c r="D2" s="141" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E2" s="142" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F2" s="162" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G2" s="143" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H2" s="143"/>
       <c r="I2" s="135" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J2" s="144" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="K2" s="165" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="L2" s="165" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M2" s="165" t="s">
-        <v>271</v>
-      </c>
-      <c r="N2" s="144"/>
+        <v>265</v>
+      </c>
+      <c r="N2" s="144" t="s">
+        <v>161</v>
+      </c>
       <c r="O2" s="145" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="P2" s="145" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q2" s="145"/>
+        <v>170</v>
+      </c>
+      <c r="Q2" s="168" t="s">
+        <v>342</v>
+      </c>
       <c r="R2" s="168" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="S2" s="168" t="s">
         <v>79</v>
       </c>
       <c r="T2" s="163" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="U2" s="146" t="s">
         <v>79</v>
@@ -6110,56 +6334,60 @@
         <v>27</v>
       </c>
       <c r="B3" s="139" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C3" s="140" t="str">
         <f t="shared" ref="C3:C5" si="0">IF(F3=0," ",IF(ISERROR(MID(F3,1,FIND(" ",F3))),MID(F3,1,FIND(".",F3)),MID(F3,1,FIND(" ",F3))))</f>
         <v xml:space="preserve">Cronograma </v>
       </c>
       <c r="D3" s="141" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E3" s="142" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F3" s="162" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G3" s="143" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H3" s="147"/>
       <c r="I3" s="135" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J3" s="144" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K3" s="165" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L3" s="165" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M3" s="165" t="s">
-        <v>272</v>
-      </c>
-      <c r="N3" s="144"/>
+        <v>266</v>
+      </c>
+      <c r="N3" s="144" t="s">
+        <v>161</v>
+      </c>
       <c r="O3" s="145" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="P3" s="145" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q3" s="145"/>
+        <v>170</v>
+      </c>
+      <c r="Q3" s="168" t="s">
+        <v>342</v>
+      </c>
       <c r="R3" s="168" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="S3" s="168" t="s">
         <v>79</v>
       </c>
       <c r="T3" s="163" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="U3" s="146" t="s">
         <v>79</v>
@@ -6170,20 +6398,20 @@
         <v>27</v>
       </c>
       <c r="B4" s="139" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C4" s="140" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Proceso </v>
       </c>
       <c r="D4" s="141" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E4" s="142" t="s">
         <v>76</v>
       </c>
       <c r="F4" s="162" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G4" s="143" t="str">
         <f>F4</f>
@@ -6191,36 +6419,40 @@
       </c>
       <c r="H4" s="147"/>
       <c r="I4" s="135" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J4" s="144" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="K4" s="165" t="s">
-        <v>251</v>
+        <v>343</v>
       </c>
       <c r="L4" s="165" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M4" s="165" t="s">
-        <v>272</v>
-      </c>
-      <c r="N4" s="144"/>
+        <v>344</v>
+      </c>
+      <c r="N4" s="144" t="s">
+        <v>161</v>
+      </c>
       <c r="O4" s="145" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="P4" s="145" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q4" s="145"/>
+        <v>170</v>
+      </c>
+      <c r="Q4" s="168" t="s">
+        <v>342</v>
+      </c>
       <c r="R4" s="168" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="S4" s="168" t="s">
         <v>79</v>
       </c>
       <c r="T4" s="163" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="U4" s="146" t="s">
         <v>79</v>
@@ -6231,20 +6463,20 @@
         <v>27</v>
       </c>
       <c r="B5" s="139" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C5" s="140" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Acta </v>
       </c>
       <c r="D5" s="141" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E5" s="148" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="162" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G5" s="143" t="str">
         <f t="shared" ref="G5" si="1">F5</f>
@@ -6252,59 +6484,65 @@
       </c>
       <c r="H5" s="132"/>
       <c r="I5" s="135" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J5" s="149" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="K5" s="165" t="s">
-        <v>252</v>
-      </c>
-      <c r="L5" s="166" t="s">
-        <v>249</v>
+        <v>246</v>
+      </c>
+      <c r="L5" s="167" t="s">
+        <v>263</v>
       </c>
       <c r="M5" s="165" t="s">
-        <v>273</v>
-      </c>
-      <c r="N5" s="144"/>
+        <v>267</v>
+      </c>
+      <c r="N5" s="144" t="s">
+        <v>161</v>
+      </c>
       <c r="O5" s="145" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="P5" s="145" t="str">
         <f>O5</f>
         <v>Cada mes</v>
       </c>
-      <c r="Q5" s="145"/>
-      <c r="R5" s="145"/>
+      <c r="Q5" s="145" t="s">
+        <v>168</v>
+      </c>
+      <c r="R5" s="168" t="s">
+        <v>147</v>
+      </c>
       <c r="S5" s="168" t="s">
         <v>79</v>
       </c>
       <c r="T5" s="145" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="U5" s="146" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="40" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="138" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="139" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C6" s="140" t="str">
         <f t="shared" ref="C6:C31" si="2">IF(F6=0," ",IF(ISERROR(MID(F6,1,FIND(" ",F6))),MID(F6,1,FIND(".",F6)),MID(F6,1,FIND(" ",F6))))</f>
         <v xml:space="preserve">Acta </v>
       </c>
       <c r="D6" s="141" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E6" s="142" t="s">
         <v>34</v>
       </c>
       <c r="F6" s="162" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G6" s="143" t="str">
         <f>F6</f>
@@ -6312,39 +6550,41 @@
       </c>
       <c r="H6" s="132"/>
       <c r="I6" s="135" t="s">
-        <v>222</v>
-      </c>
-      <c r="J6" s="144"/>
+        <v>217</v>
+      </c>
+      <c r="J6" s="144" t="s">
+        <v>318</v>
+      </c>
       <c r="K6" s="166" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="L6" s="167" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M6" s="166" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N6" s="144" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="O6" s="145" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="P6" s="145" t="str">
         <f>O6</f>
         <v>Cada mes</v>
       </c>
       <c r="Q6" s="145" t="s">
-        <v>191</v>
-      </c>
-      <c r="R6" s="145" t="s">
-        <v>177</v>
+        <v>186</v>
+      </c>
+      <c r="R6" s="168" t="s">
+        <v>147</v>
       </c>
       <c r="S6" s="168" t="s">
         <v>79</v>
       </c>
       <c r="T6" s="145" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="U6" s="146" t="s">
         <v>79</v>
@@ -6355,44 +6595,54 @@
         <v>27</v>
       </c>
       <c r="B7" s="139" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C7" s="140" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Acta </v>
       </c>
       <c r="D7" s="173" t="s">
-        <v>220</v>
-      </c>
-      <c r="E7" s="142"/>
+        <v>215</v>
+      </c>
+      <c r="E7" s="142" t="s">
+        <v>34</v>
+      </c>
       <c r="F7" s="162" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G7" s="162" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H7" s="132"/>
       <c r="I7" s="135" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J7" s="144"/>
       <c r="K7" s="166" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="L7" s="167" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M7" s="166" t="s">
-        <v>297</v>
-      </c>
-      <c r="N7" s="144"/>
+        <v>291</v>
+      </c>
+      <c r="N7" s="144" t="s">
+        <v>161</v>
+      </c>
       <c r="O7" s="145" t="s">
         <v>15</v>
       </c>
       <c r="P7" s="145"/>
-      <c r="Q7" s="145"/>
-      <c r="R7" s="145"/>
-      <c r="S7" s="168"/>
+      <c r="Q7" s="145" t="s">
+        <v>168</v>
+      </c>
+      <c r="R7" s="168" t="s">
+        <v>147</v>
+      </c>
+      <c r="S7" s="168" t="s">
+        <v>341</v>
+      </c>
       <c r="T7" s="145"/>
       <c r="U7" s="146"/>
     </row>
@@ -6401,43 +6651,43 @@
         <v>27</v>
       </c>
       <c r="B8" s="139" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C8" s="140" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Informe </v>
       </c>
       <c r="D8" s="141" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E8" s="142" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="162" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G8" s="143" t="str">
         <f t="shared" ref="G8:G25" si="3">F8</f>
         <v>Informe Avance Mensual</v>
       </c>
       <c r="H8" s="132"/>
-      <c r="I8" s="268" t="s">
-        <v>222</v>
+      <c r="I8" s="181" t="s">
+        <v>217</v>
       </c>
       <c r="J8" s="175" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K8" s="165" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L8" s="167" t="s">
+        <v>263</v>
+      </c>
+      <c r="M8" s="165" t="s">
         <v>269</v>
       </c>
-      <c r="M8" s="165" t="s">
-        <v>275</v>
-      </c>
       <c r="N8" s="144" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="O8" s="168" t="s">
         <v>14</v>
@@ -6446,15 +6696,17 @@
         <f t="shared" ref="P8:P10" si="4">O8</f>
         <v>Cada semana</v>
       </c>
-      <c r="Q8" s="145"/>
-      <c r="R8" s="145" t="s">
-        <v>177</v>
+      <c r="Q8" s="145" t="s">
+        <v>168</v>
+      </c>
+      <c r="R8" s="168" t="s">
+        <v>345</v>
       </c>
       <c r="S8" s="168" t="s">
         <v>79</v>
       </c>
       <c r="T8" s="145" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="U8" s="146" t="s">
         <v>79</v>
@@ -6465,20 +6717,20 @@
         <v>27</v>
       </c>
       <c r="B9" s="139" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C9" s="140" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Aceptación </v>
       </c>
       <c r="D9" s="141" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E9" s="148" t="s">
         <v>34</v>
       </c>
       <c r="F9" s="162" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G9" s="143" t="str">
         <f t="shared" si="3"/>
@@ -6486,39 +6738,41 @@
       </c>
       <c r="H9" s="132"/>
       <c r="I9" s="135" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J9" s="144" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="K9" s="165" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="L9" s="167" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M9" s="165" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="N9" s="144" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="O9" s="145" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="P9" s="145" t="str">
         <f t="shared" si="4"/>
         <v>Cada mes</v>
       </c>
-      <c r="Q9" s="145"/>
-      <c r="R9" s="145" t="s">
-        <v>177</v>
+      <c r="Q9" s="145" t="s">
+        <v>168</v>
+      </c>
+      <c r="R9" s="168" t="s">
+        <v>147</v>
       </c>
       <c r="S9" s="168" t="s">
         <v>79</v>
       </c>
       <c r="T9" s="145" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="U9" s="146" t="s">
         <v>79</v>
@@ -6529,20 +6783,20 @@
         <v>27</v>
       </c>
       <c r="B10" s="139" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C10" s="140" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Registro </v>
       </c>
       <c r="D10" s="141" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E10" s="148" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="162" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G10" s="143" t="str">
         <f t="shared" si="3"/>
@@ -6550,41 +6804,41 @@
       </c>
       <c r="H10" s="132"/>
       <c r="I10" s="135" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J10" s="144" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="K10" s="165" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L10" s="165" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M10" s="165" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="N10" s="144" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="O10" s="145" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P10" s="145" t="str">
         <f t="shared" si="4"/>
         <v>Cada vez que se requiera</v>
       </c>
       <c r="Q10" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="R10" s="145" t="s">
-        <v>177</v>
+        <v>168</v>
+      </c>
+      <c r="R10" s="168" t="s">
+        <v>346</v>
       </c>
       <c r="S10" s="168" t="s">
         <v>79</v>
       </c>
       <c r="T10" s="163" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="U10" s="146" t="s">
         <v>79</v>
@@ -6595,7 +6849,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="139" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C11" s="140" t="str">
         <f t="shared" si="2"/>
@@ -6608,7 +6862,7 @@
         <v>34</v>
       </c>
       <c r="F11" s="162" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G11" s="143" t="str">
         <f t="shared" si="3"/>
@@ -6616,40 +6870,40 @@
       </c>
       <c r="H11" s="132"/>
       <c r="I11" s="135" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J11" s="149" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="K11" s="165" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="L11" s="165" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M11" s="165" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="N11" s="144" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="O11" s="145" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P11" s="145" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q11" s="145" t="s">
-        <v>191</v>
-      </c>
-      <c r="R11" s="145" t="s">
-        <v>177</v>
+        <v>186</v>
+      </c>
+      <c r="R11" s="168" t="s">
+        <v>347</v>
       </c>
       <c r="S11" s="168" t="s">
         <v>79</v>
       </c>
       <c r="T11" s="163" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="U11" s="146" t="s">
         <v>79</v>
@@ -6660,7 +6914,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="139" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C12" s="140" t="str">
         <f t="shared" si="2"/>
@@ -6673,7 +6927,7 @@
         <v>34</v>
       </c>
       <c r="F12" s="162" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G12" s="143" t="str">
         <f t="shared" si="3"/>
@@ -6681,40 +6935,40 @@
       </c>
       <c r="H12" s="132"/>
       <c r="I12" s="135" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J12" s="144" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K12" s="165" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="L12" s="165" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M12" s="165" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="N12" s="144" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="O12" s="145" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P12" s="145" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q12" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="R12" s="145" t="s">
-        <v>177</v>
+        <v>168</v>
+      </c>
+      <c r="R12" s="168" t="s">
+        <v>347</v>
       </c>
       <c r="S12" s="168" t="s">
         <v>79</v>
       </c>
       <c r="T12" s="163" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="U12" s="146" t="s">
         <v>79</v>
@@ -6725,7 +6979,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="139" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C13" s="140" t="str">
         <f t="shared" si="2"/>
@@ -6738,7 +6992,7 @@
         <v>76</v>
       </c>
       <c r="F13" s="162" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G13" s="143" t="str">
         <f t="shared" si="3"/>
@@ -6746,40 +7000,40 @@
       </c>
       <c r="H13" s="132"/>
       <c r="I13" s="135" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J13" s="144" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K13" s="165" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="L13" s="165" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M13" s="165" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="N13" s="144" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="O13" s="145" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P13" s="145" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q13" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="R13" s="145" t="s">
-        <v>177</v>
+        <v>168</v>
+      </c>
+      <c r="R13" s="168" t="s">
+        <v>347</v>
       </c>
       <c r="S13" s="168" t="s">
         <v>79</v>
       </c>
       <c r="T13" s="163" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="U13" s="146" t="s">
         <v>79</v>
@@ -6790,7 +7044,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="139" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C14" s="140" t="str">
         <f t="shared" si="2"/>
@@ -6803,7 +7057,7 @@
         <v>34</v>
       </c>
       <c r="F14" s="162" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G14" s="143" t="str">
         <f t="shared" si="3"/>
@@ -6811,38 +7065,40 @@
       </c>
       <c r="H14" s="132"/>
       <c r="I14" s="135" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J14" s="144" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="K14" s="165" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="L14" s="165" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M14" s="165" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="N14" s="144" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="O14" s="145" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P14" s="145" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q14" s="145"/>
-      <c r="R14" s="145" t="s">
-        <v>177</v>
+        <v>170</v>
+      </c>
+      <c r="Q14" s="145" t="s">
+        <v>168</v>
+      </c>
+      <c r="R14" s="168" t="s">
+        <v>347</v>
       </c>
       <c r="S14" s="168" t="s">
         <v>79</v>
       </c>
       <c r="T14" s="163" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="U14" s="146" t="s">
         <v>79</v>
@@ -6853,7 +7109,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="139" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C15" s="140" t="str">
         <f t="shared" si="2"/>
@@ -6866,7 +7122,7 @@
         <v>34</v>
       </c>
       <c r="F15" s="162" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G15" s="143" t="str">
         <f t="shared" si="3"/>
@@ -6874,38 +7130,40 @@
       </c>
       <c r="H15" s="132"/>
       <c r="I15" s="135" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J15" s="144" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="K15" s="165" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="L15" s="165" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M15" s="165" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="N15" s="144" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="O15" s="145" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P15" s="145" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q15" s="145"/>
-      <c r="R15" s="145" t="s">
-        <v>177</v>
+        <v>170</v>
+      </c>
+      <c r="Q15" s="145" t="s">
+        <v>168</v>
+      </c>
+      <c r="R15" s="168" t="s">
+        <v>347</v>
       </c>
       <c r="S15" s="168" t="s">
         <v>79</v>
       </c>
       <c r="T15" s="163" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="U15" s="146" t="s">
         <v>79</v>
@@ -6916,20 +7174,20 @@
         <v>27</v>
       </c>
       <c r="B16" s="139" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C16" s="140" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">CheckList </v>
       </c>
       <c r="D16" s="159" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E16" s="151" t="s">
         <v>34</v>
       </c>
       <c r="F16" s="162" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G16" s="143" t="str">
         <f t="shared" si="3"/>
@@ -6937,34 +7195,40 @@
       </c>
       <c r="H16" s="132"/>
       <c r="I16" s="164" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="J16" s="144" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K16" s="165" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="L16" s="165" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M16" s="165" t="s">
-        <v>283</v>
-      </c>
-      <c r="N16" s="144"/>
+        <v>277</v>
+      </c>
+      <c r="N16" s="144" t="s">
+        <v>161</v>
+      </c>
       <c r="O16" s="145" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P16" s="145" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q16" s="145"/>
-      <c r="R16" s="145"/>
+        <v>170</v>
+      </c>
+      <c r="Q16" s="145" t="s">
+        <v>168</v>
+      </c>
+      <c r="R16" s="168" t="s">
+        <v>348</v>
+      </c>
       <c r="S16" s="168" t="s">
         <v>79</v>
       </c>
       <c r="T16" s="163" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="U16" s="146" t="s">
         <v>79</v>
@@ -6975,20 +7239,20 @@
         <v>27</v>
       </c>
       <c r="B17" s="139" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C17" s="140" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Herramienta </v>
       </c>
       <c r="D17" s="148" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E17" s="148" t="s">
         <v>34</v>
       </c>
       <c r="F17" s="162" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G17" s="143" t="str">
         <f t="shared" si="3"/>
@@ -6996,34 +7260,38 @@
       </c>
       <c r="H17" s="132"/>
       <c r="I17" s="135" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="J17" s="149" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K17" s="165" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L17" s="165" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M17" s="165" t="s">
-        <v>284</v>
-      </c>
-      <c r="N17" s="144"/>
+        <v>278</v>
+      </c>
+      <c r="N17" s="144" t="s">
+        <v>161</v>
+      </c>
       <c r="O17" s="145" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P17" s="145" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q17" s="145"/>
-      <c r="R17" s="145"/>
+      <c r="R17" s="168" t="s">
+        <v>348</v>
+      </c>
       <c r="S17" s="168" t="s">
         <v>79</v>
       </c>
       <c r="T17" s="163" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="U17" s="170" t="s">
         <v>79</v>
@@ -7034,20 +7302,20 @@
         <v>27</v>
       </c>
       <c r="B18" s="139" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C18" s="140" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Proceso </v>
       </c>
       <c r="D18" s="148" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E18" s="148" t="s">
         <v>76</v>
       </c>
       <c r="F18" s="162" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G18" s="143" t="str">
         <f t="shared" si="3"/>
@@ -7055,34 +7323,40 @@
       </c>
       <c r="H18" s="132"/>
       <c r="I18" s="135" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="J18" s="149" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="K18" s="165" t="s">
+        <v>258</v>
+      </c>
+      <c r="L18" s="165" t="s">
         <v>264</v>
       </c>
-      <c r="L18" s="165" t="s">
-        <v>270</v>
-      </c>
       <c r="M18" s="165" t="s">
-        <v>285</v>
-      </c>
-      <c r="N18" s="144"/>
+        <v>279</v>
+      </c>
+      <c r="N18" s="144" t="s">
+        <v>161</v>
+      </c>
       <c r="O18" s="145" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P18" s="145" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q18" s="145"/>
-      <c r="R18" s="145"/>
+        <v>170</v>
+      </c>
+      <c r="Q18" s="145" t="s">
+        <v>168</v>
+      </c>
+      <c r="R18" s="168" t="s">
+        <v>348</v>
+      </c>
       <c r="S18" s="168" t="s">
         <v>79</v>
       </c>
       <c r="T18" s="163" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="U18" s="171" t="s">
         <v>79</v>
@@ -7093,7 +7367,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="139" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C19" s="140" t="str">
         <f t="shared" si="2"/>
@@ -7106,7 +7380,7 @@
         <v>65</v>
       </c>
       <c r="F19" s="162" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="143" t="str">
         <f t="shared" si="3"/>
@@ -7114,34 +7388,40 @@
       </c>
       <c r="H19" s="132"/>
       <c r="I19" s="135" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J19" s="149" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="K19" s="165" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L19" s="165" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M19" s="165" t="s">
-        <v>286</v>
-      </c>
-      <c r="N19" s="144"/>
+        <v>280</v>
+      </c>
+      <c r="N19" s="144" t="s">
+        <v>161</v>
+      </c>
       <c r="O19" s="145" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P19" s="145" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q19" s="145"/>
-      <c r="R19" s="145"/>
+        <v>170</v>
+      </c>
+      <c r="Q19" s="145" t="s">
+        <v>168</v>
+      </c>
+      <c r="R19" s="168" t="s">
+        <v>348</v>
+      </c>
       <c r="S19" s="168" t="s">
         <v>79</v>
       </c>
       <c r="T19" s="163" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="U19" s="171" t="s">
         <v>79</v>
@@ -7152,7 +7432,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="139" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C20" s="140" t="str">
         <f t="shared" si="2"/>
@@ -7165,7 +7445,7 @@
         <v>65</v>
       </c>
       <c r="F20" s="162" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G20" s="143" t="str">
         <f t="shared" si="3"/>
@@ -7173,40 +7453,40 @@
       </c>
       <c r="H20" s="132"/>
       <c r="I20" s="135" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J20" s="149" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K20" s="166" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L20" s="165" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M20" s="166" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="N20" s="144" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="O20" s="145" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P20" s="145" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q20" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="R20" s="145" t="s">
-        <v>183</v>
+        <v>168</v>
+      </c>
+      <c r="R20" s="168" t="s">
+        <v>349</v>
       </c>
       <c r="S20" s="168" t="s">
         <v>79</v>
       </c>
       <c r="T20" s="163" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="U20" s="171" t="s">
         <v>79</v>
@@ -7217,7 +7497,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="139" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C21" s="140" t="str">
         <f t="shared" si="2"/>
@@ -7230,7 +7510,7 @@
         <v>65</v>
       </c>
       <c r="F21" s="162" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G21" s="143" t="str">
         <f t="shared" si="3"/>
@@ -7238,40 +7518,40 @@
       </c>
       <c r="H21" s="132"/>
       <c r="I21" s="135" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J21" s="149" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K21" s="166" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L21" s="165" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M21" s="166" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="N21" s="144" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="O21" s="145" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P21" s="145" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q21" s="145" t="s">
-        <v>192</v>
-      </c>
-      <c r="R21" s="145" t="s">
-        <v>176</v>
+        <v>187</v>
+      </c>
+      <c r="R21" s="168" t="s">
+        <v>348</v>
       </c>
       <c r="S21" s="168" t="s">
         <v>79</v>
       </c>
       <c r="T21" s="163" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="U21" s="171" t="s">
         <v>79</v>
@@ -7282,20 +7562,20 @@
         <v>27</v>
       </c>
       <c r="B22" s="139" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C22" s="140" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Proceso </v>
       </c>
       <c r="D22" s="170" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E22" s="151" t="s">
         <v>76</v>
       </c>
       <c r="F22" s="162" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G22" s="143" t="str">
         <f t="shared" si="3"/>
@@ -7303,48 +7583,62 @@
       </c>
       <c r="H22" s="132"/>
       <c r="I22" s="135" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="J22" s="176" t="s">
-        <v>246</v>
-      </c>
-      <c r="K22" s="166"/>
-      <c r="L22" s="144"/>
-      <c r="M22" s="166"/>
-      <c r="N22" s="144"/>
+        <v>241</v>
+      </c>
+      <c r="K22" s="270" t="s">
+        <v>336</v>
+      </c>
+      <c r="L22" s="165" t="s">
+        <v>264</v>
+      </c>
+      <c r="M22" s="270" t="s">
+        <v>338</v>
+      </c>
+      <c r="N22" s="144" t="s">
+        <v>161</v>
+      </c>
       <c r="O22" s="145"/>
-      <c r="P22" s="145"/>
-      <c r="Q22" s="145"/>
-      <c r="R22" s="145"/>
+      <c r="P22" s="145" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q22" s="145" t="s">
+        <v>168</v>
+      </c>
+      <c r="R22" s="145" t="s">
+        <v>173</v>
+      </c>
       <c r="S22" s="168" t="s">
         <v>79</v>
       </c>
       <c r="T22" s="163" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="U22" s="171" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="52" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" ht="53" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="150" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="139" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C23" s="140" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Registro </v>
       </c>
       <c r="D23" s="170" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E23" s="151" t="s">
         <v>34</v>
       </c>
       <c r="F23" s="162" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G23" s="143" t="str">
         <f t="shared" si="3"/>
@@ -7352,40 +7646,40 @@
       </c>
       <c r="H23" s="132"/>
       <c r="I23" s="135" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="J23" s="176" t="s">
-        <v>246</v>
-      </c>
-      <c r="K23" s="149" t="s">
+        <v>241</v>
+      </c>
+      <c r="K23" s="271" t="s">
+        <v>337</v>
+      </c>
+      <c r="L23" s="165" t="s">
+        <v>264</v>
+      </c>
+      <c r="M23" s="271" t="s">
+        <v>339</v>
+      </c>
+      <c r="N23" s="144" t="s">
+        <v>159</v>
+      </c>
+      <c r="O23" s="145" t="s">
+        <v>145</v>
+      </c>
+      <c r="P23" s="145" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q23" s="145" t="s">
         <v>144</v>
       </c>
-      <c r="L23" s="144" t="s">
-        <v>145</v>
-      </c>
-      <c r="M23" s="149" t="s">
-        <v>144</v>
-      </c>
-      <c r="N23" s="144" t="s">
-        <v>162</v>
-      </c>
-      <c r="O23" s="145" t="s">
-        <v>148</v>
-      </c>
-      <c r="P23" s="145" t="s">
+      <c r="R23" s="145" t="s">
         <v>173</v>
-      </c>
-      <c r="Q23" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="R23" s="145" t="s">
-        <v>147</v>
       </c>
       <c r="S23" s="168" t="s">
         <v>79</v>
       </c>
       <c r="T23" s="163" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="U23" s="171" t="s">
         <v>79</v>
@@ -7396,20 +7690,20 @@
         <v>27</v>
       </c>
       <c r="B24" s="139" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C24" s="140" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Solicitud </v>
       </c>
       <c r="D24" s="170" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E24" s="151" t="s">
         <v>64</v>
       </c>
       <c r="F24" s="162" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G24" s="143" t="str">
         <f t="shared" si="3"/>
@@ -7417,24 +7711,38 @@
       </c>
       <c r="H24" s="132"/>
       <c r="I24" s="135" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="J24" s="176" t="s">
-        <v>247</v>
-      </c>
-      <c r="K24" s="149"/>
-      <c r="L24" s="144"/>
-      <c r="M24" s="149"/>
-      <c r="N24" s="144"/>
+        <v>242</v>
+      </c>
+      <c r="K24" s="180" t="s">
+        <v>335</v>
+      </c>
+      <c r="L24" s="165" t="s">
+        <v>264</v>
+      </c>
+      <c r="M24" s="180" t="s">
+        <v>340</v>
+      </c>
+      <c r="N24" s="144" t="s">
+        <v>161</v>
+      </c>
       <c r="O24" s="145"/>
-      <c r="P24" s="145"/>
-      <c r="Q24" s="145"/>
-      <c r="R24" s="145"/>
+      <c r="P24" s="145" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q24" s="145" t="s">
+        <v>168</v>
+      </c>
+      <c r="R24" s="145" t="s">
+        <v>173</v>
+      </c>
       <c r="S24" s="168" t="s">
         <v>79</v>
       </c>
       <c r="T24" s="163" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="U24" s="171" t="s">
         <v>79</v>
@@ -7445,7 +7753,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="139" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C25" s="140" t="str">
         <f t="shared" si="2"/>
@@ -7454,11 +7762,11 @@
       <c r="D25" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="151" t="s">
-        <v>65</v>
+      <c r="E25" s="269" t="s">
+        <v>34</v>
       </c>
       <c r="F25" s="162" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G25" s="143" t="str">
         <f t="shared" si="3"/>
@@ -7466,38 +7774,40 @@
       </c>
       <c r="H25" s="132"/>
       <c r="I25" s="135" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J25" s="176" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="K25" s="165" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L25" s="165" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M25" s="165" t="s">
-        <v>340</v>
-      </c>
-      <c r="N25" s="144"/>
+        <v>334</v>
+      </c>
+      <c r="N25" s="144" t="s">
+        <v>161</v>
+      </c>
       <c r="O25" s="169" t="s">
+        <v>170</v>
+      </c>
+      <c r="P25" s="169" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q25" s="145" t="s">
+        <v>161</v>
+      </c>
+      <c r="R25" s="145" t="s">
         <v>173</v>
-      </c>
-      <c r="P25" s="169" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q25" s="145" t="s">
-        <v>164</v>
-      </c>
-      <c r="R25" s="145" t="s">
-        <v>177</v>
       </c>
       <c r="S25" s="168" t="s">
         <v>79</v>
       </c>
       <c r="T25" s="163" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="U25" s="171" t="s">
         <v>79</v>
@@ -7508,7 +7818,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="139" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C26" s="140" t="str">
         <f>IF(F26=0," ",IF(ISERROR(MID(F26,1,FIND(" ",F26))),MID(F26,1,FIND(".",F26)),MID(F26,1,FIND(" ",F26))))</f>
@@ -7517,11 +7827,11 @@
       <c r="D26" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="151" t="s">
-        <v>64</v>
+      <c r="E26" s="269" t="s">
+        <v>34</v>
       </c>
       <c r="F26" s="162" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G26" s="143" t="str">
         <f>F26</f>
@@ -7529,38 +7839,40 @@
       </c>
       <c r="H26" s="132"/>
       <c r="I26" s="135" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J26" s="149" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="K26" s="165" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="L26" s="165" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M26" s="165" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="N26" s="144" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O26" s="169" t="s">
+        <v>170</v>
+      </c>
+      <c r="P26" s="169" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q26" s="145" t="s">
+        <v>161</v>
+      </c>
+      <c r="R26" s="145" t="s">
         <v>173</v>
       </c>
-      <c r="P26" s="169" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q26" s="145" t="s">
-        <v>164</v>
-      </c>
-      <c r="R26" s="145"/>
       <c r="S26" s="168" t="s">
         <v>79</v>
       </c>
       <c r="T26" s="163" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="U26" s="171" t="s">
         <v>79</v>
@@ -7571,7 +7883,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="139" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C27" s="140" t="str">
         <f t="shared" si="2"/>
@@ -7580,47 +7892,49 @@
       <c r="D27" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="151" t="s">
-        <v>64</v>
+      <c r="E27" s="269" t="s">
+        <v>65</v>
       </c>
       <c r="F27" s="162" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G27" s="177" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H27" s="132"/>
       <c r="I27" s="135" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J27" s="149"/>
       <c r="K27" s="178" t="s">
+        <v>297</v>
+      </c>
+      <c r="L27" s="165" t="s">
+        <v>264</v>
+      </c>
+      <c r="M27" s="178" t="s">
         <v>303</v>
       </c>
-      <c r="L27" s="165" t="s">
-        <v>270</v>
-      </c>
-      <c r="M27" s="178" t="s">
-        <v>309</v>
-      </c>
       <c r="N27" s="144" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O27" s="169" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P27" s="145" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q27" s="145" t="s">
-        <v>164</v>
-      </c>
-      <c r="R27" s="145"/>
+        <v>161</v>
+      </c>
+      <c r="R27" s="168" t="s">
+        <v>349</v>
+      </c>
       <c r="S27" s="168" t="s">
         <v>79</v>
       </c>
       <c r="T27" s="163" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="U27" s="171" t="s">
         <v>79</v>
@@ -7631,7 +7945,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="139" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C28" s="140" t="str">
         <f t="shared" si="2"/>
@@ -7640,11 +7954,11 @@
       <c r="D28" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="151" t="s">
-        <v>64</v>
+      <c r="E28" s="269" t="s">
+        <v>65</v>
       </c>
       <c r="F28" s="177" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G28" s="143" t="str">
         <f>F28</f>
@@ -7652,36 +7966,38 @@
       </c>
       <c r="H28" s="132"/>
       <c r="I28" s="135" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J28" s="149"/>
       <c r="K28" s="165" t="s">
+        <v>298</v>
+      </c>
+      <c r="L28" s="167" t="s">
+        <v>263</v>
+      </c>
+      <c r="M28" s="165" t="s">
         <v>304</v>
       </c>
-      <c r="L28" s="167" t="s">
-        <v>269</v>
-      </c>
-      <c r="M28" s="165" t="s">
-        <v>310</v>
-      </c>
       <c r="N28" s="144" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O28" s="169" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P28" s="145" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q28" s="145" t="s">
-        <v>164</v>
-      </c>
-      <c r="R28" s="145"/>
+        <v>161</v>
+      </c>
+      <c r="R28" s="168" t="s">
+        <v>349</v>
+      </c>
       <c r="S28" s="168" t="s">
         <v>79</v>
       </c>
       <c r="T28" s="163" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="U28" s="171" t="s">
         <v>79</v>
@@ -7692,7 +8008,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="139" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C29" s="140" t="str">
         <f t="shared" si="2"/>
@@ -7701,11 +8017,11 @@
       <c r="D29" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="151" t="s">
-        <v>64</v>
+      <c r="E29" s="269" t="s">
+        <v>65</v>
       </c>
       <c r="F29" s="177" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G29" s="143" t="str">
         <f>F29</f>
@@ -7713,36 +8029,38 @@
       </c>
       <c r="H29" s="132"/>
       <c r="I29" s="135" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J29" s="149"/>
       <c r="K29" s="166" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="L29" s="167" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M29" s="165" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="N29" s="144" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O29" s="169" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P29" s="145" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q29" s="145" t="s">
-        <v>164</v>
-      </c>
-      <c r="R29" s="145"/>
+        <v>161</v>
+      </c>
+      <c r="R29" s="168" t="s">
+        <v>349</v>
+      </c>
       <c r="S29" s="168" t="s">
         <v>79</v>
       </c>
       <c r="T29" s="163" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="U29" s="171" t="s">
         <v>79</v>
@@ -7753,7 +8071,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="139" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C30" s="140" t="str">
         <f t="shared" si="2"/>
@@ -7762,11 +8080,11 @@
       <c r="D30" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="151" t="s">
-        <v>64</v>
+      <c r="E30" s="269" t="s">
+        <v>65</v>
       </c>
       <c r="F30" s="177" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G30" s="143" t="str">
         <f>F30</f>
@@ -7774,36 +8092,38 @@
       </c>
       <c r="H30" s="132"/>
       <c r="I30" s="135" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J30" s="149"/>
       <c r="K30" s="180" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L30" s="167" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M30" s="180" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="N30" s="144" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O30" s="169" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P30" s="145" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q30" s="145" t="s">
-        <v>164</v>
-      </c>
-      <c r="R30" s="145"/>
+        <v>161</v>
+      </c>
+      <c r="R30" s="168" t="s">
+        <v>350</v>
+      </c>
       <c r="S30" s="168" t="s">
         <v>79</v>
       </c>
       <c r="T30" s="163" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="U30" s="171" t="s">
         <v>79</v>
@@ -7814,7 +8134,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="139" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C31" s="140" t="str">
         <f t="shared" si="2"/>
@@ -7823,7 +8143,7 @@
       <c r="D31" s="146"/>
       <c r="E31" s="151"/>
       <c r="F31" s="179" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G31" s="143" t="str">
         <f>F31</f>
@@ -7833,32 +8153,32 @@
       <c r="I31" s="174"/>
       <c r="J31" s="149"/>
       <c r="K31" s="165" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="L31" s="165" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M31" s="165" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="N31" s="144" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O31" s="169" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P31" s="145" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q31" s="145" t="s">
-        <v>164</v>
-      </c>
-      <c r="R31" s="145"/>
-      <c r="S31" s="168" t="s">
-        <v>79</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="R31" s="168" t="s">
+        <v>351</v>
+      </c>
+      <c r="S31" s="168"/>
       <c r="T31" s="163" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="U31" s="171" t="s">
         <v>79</v>
@@ -8764,109 +9084,124 @@
   </sheetData>
   <autoFilter ref="A1:U26"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="J23:L24 L22 N25:N26 N22:R24 N2:N21 Q16:R21 Q2:S2 P5:R5 R26 U17 L6:L9 Q3:R4 J2:J22 J25 S3:S26">
-    <cfRule type="expression" dxfId="28" priority="21" stopIfTrue="1">
+  <conditionalFormatting sqref="N23:Q23 Q2:S2 P5 U17 L6:L9 S3:S26 J2:J25 N22:O22 Q3:R4 N2:N22 N24:O24 N25:N26 Q17:R17 R16 Q21:R21 R18:R20 R5">
+    <cfRule type="expression" dxfId="49" priority="25" stopIfTrue="1">
       <formula>$E2&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A26">
-    <cfRule type="cellIs" dxfId="27" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="26" stopIfTrue="1" operator="equal">
       <formula>"Vigente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="27" stopIfTrue="1" operator="equal">
       <formula>"No Vigente"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M23:M24">
-    <cfRule type="expression" dxfId="25" priority="20" stopIfTrue="1">
-      <formula>$E23&lt;&gt;"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N27 R27:S27">
-    <cfRule type="expression" dxfId="24" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="21" stopIfTrue="1">
       <formula>$E27&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" dxfId="23" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="22" stopIfTrue="1" operator="equal">
       <formula>"Vigente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="23" stopIfTrue="1" operator="equal">
       <formula>"No Vigente"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28 R28:S28">
-    <cfRule type="expression" dxfId="21" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="18" stopIfTrue="1">
       <formula>$E28&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="20" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="19" stopIfTrue="1" operator="equal">
       <formula>"Vigente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="20" stopIfTrue="1" operator="equal">
       <formula>"No Vigente"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29 R29:S29">
-    <cfRule type="expression" dxfId="18" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="15" stopIfTrue="1">
       <formula>$E29&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" dxfId="17" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="16" stopIfTrue="1" operator="equal">
       <formula>"Vigente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="17" stopIfTrue="1" operator="equal">
       <formula>"No Vigente"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30 R30:S30">
-    <cfRule type="expression" dxfId="15" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="12" stopIfTrue="1">
       <formula>$E30&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="14" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="13" stopIfTrue="1" operator="equal">
       <formula>"Vigente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="14" stopIfTrue="1" operator="equal">
       <formula>"No Vigente"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31 R31:S31">
-    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="9" stopIfTrue="1">
       <formula>$E31&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Vigente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="11" stopIfTrue="1" operator="equal">
       <formula>"No Vigente"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="5" stopIfTrue="1">
       <formula>$E28&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30">
-    <cfRule type="expression" dxfId="8" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="7" stopIfTrue="1">
       <formula>$E30&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29">
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="6" stopIfTrue="1">
       <formula>$E29&lt;&gt;"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="expression" dxfId="15" priority="4" stopIfTrue="1">
+      <formula>$E5&lt;&gt;"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R6">
+    <cfRule type="expression" dxfId="8" priority="3" stopIfTrue="1">
+      <formula>$E6&lt;&gt;"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7">
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+      <formula>$E7&lt;&gt;"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R9">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+      <formula>$E9&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U16">
       <formula1>ENTREGA</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O21 P2:P4 Q6:Q15 P6:P21 Q25:Q31 P27:P31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O21 P2:P4 P24:Q24 P6:P22 Q25:Q31 P27:P31 Q22 Q18:Q20 Q5:Q16">
       <formula1>aaa</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N31">
@@ -8930,36 +9265,36 @@
         <v>125</v>
       </c>
       <c r="F1" s="124" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G1" s="124" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H1" s="124" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="124" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="124" t="s">
+        <v>164</v>
+      </c>
+      <c r="K1" s="124" t="s">
         <v>165</v>
       </c>
-      <c r="I1" s="124" t="s">
+      <c r="L1" s="124" t="s">
         <v>166</v>
-      </c>
-      <c r="J1" s="124" t="s">
-        <v>167</v>
-      </c>
-      <c r="K1" s="124" t="s">
-        <v>168</v>
-      </c>
-      <c r="L1" s="124" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="122" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B2" s="172" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C2" s="172" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D2" s="122"/>
       <c r="E2" s="122"/>
@@ -8973,13 +9308,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="122" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B3" s="172" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C3" s="172" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D3" s="122"/>
       <c r="E3" s="122"/>
@@ -8993,13 +9328,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="122" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B4" s="172" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C4" s="172" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D4" s="122"/>
       <c r="E4" s="122"/>
@@ -9013,13 +9348,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="122" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B5" s="172" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C5" s="172" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D5" s="122"/>
       <c r="E5" s="122"/>
@@ -13050,12 +13385,12 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:A5 A7:A286 B8:B293 I3:L300 D3:H285 B6 C6:C282">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
       <formula>A1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6 B7 D2:H2">
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="6" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13080,8 +13415,8 @@
   <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:L281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13118,39 +13453,39 @@
         <v>125</v>
       </c>
       <c r="F1" s="124" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G1" s="124" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H1" s="124" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="124" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="124" t="s">
+        <v>164</v>
+      </c>
+      <c r="K1" s="124" t="s">
         <v>165</v>
       </c>
-      <c r="I1" s="124" t="s">
+      <c r="L1" s="124" t="s">
         <v>166</v>
-      </c>
-      <c r="J1" s="124" t="s">
-        <v>167</v>
-      </c>
-      <c r="K1" s="124" t="s">
-        <v>168</v>
-      </c>
-      <c r="L1" s="124" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="122" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B2" s="172" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C2" s="172" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D2" s="172" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E2" s="122"/>
       <c r="F2" s="122"/>
@@ -13163,16 +13498,16 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="122" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B3" s="172" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C3" s="172" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D3" s="172" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E3" s="122"/>
       <c r="F3" s="122"/>
@@ -13185,16 +13520,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="122" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B4" s="172" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C4" s="172" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D4" s="172" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E4" s="122"/>
       <c r="F4" s="122"/>
@@ -13207,16 +13542,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="122" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B5" s="172" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C5" s="172" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D5" s="172" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E5" s="122"/>
       <c r="F5" s="122"/>
@@ -13229,19 +13564,19 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="122" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B6" s="172" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D6" s="172" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E6" s="172" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F6" s="122"/>
       <c r="G6" s="122"/>
@@ -13253,19 +13588,19 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="122" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B7" s="172" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C7" s="172" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D7" s="172" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E7" s="122" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F7" s="122"/>
       <c r="G7" s="122"/>
@@ -13277,16 +13612,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="122" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B8" s="172" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C8" s="172" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D8" s="172" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E8" s="122"/>
       <c r="F8" s="122"/>
@@ -13299,10 +13634,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="122" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B9" s="172" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C9" s="122"/>
       <c r="D9" s="122"/>
@@ -13317,13 +13652,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="122" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B10" s="172" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C10" s="172" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D10" s="122"/>
       <c r="E10" s="122"/>
@@ -13337,13 +13672,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="122" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B11" s="172" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C11" s="172" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D11" s="122"/>
       <c r="E11" s="122"/>
@@ -13357,13 +13692,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="122" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B12" s="172" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C12" s="172" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D12" s="122"/>
       <c r="E12" s="122"/>
@@ -13377,13 +13712,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="122" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B13" s="172" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C13" s="172" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D13" s="122"/>
       <c r="E13" s="122"/>
@@ -13397,13 +13732,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="122" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B14" s="172" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C14" s="172" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D14" s="122"/>
       <c r="E14" s="122"/>
@@ -13417,13 +13752,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="122" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B15" s="172" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C15" s="172" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D15" s="122"/>
       <c r="E15" s="122"/>
@@ -13437,13 +13772,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="122" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B16" s="172" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C16" s="172" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D16" s="122"/>
       <c r="E16" s="122"/>
@@ -13457,13 +13792,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="122" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B17" s="172" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C17" s="172" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D17" s="122"/>
       <c r="E17" s="122"/>
@@ -13477,13 +13812,13 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="122" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B18" s="172" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C18" s="172" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D18" s="122"/>
       <c r="E18" s="122"/>
@@ -13497,16 +13832,16 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="122" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B19" s="172" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C19" s="172" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D19" s="172" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E19" s="122"/>
       <c r="F19" s="122"/>
@@ -13519,16 +13854,16 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="122" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B20" s="172" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C20" s="172" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D20" s="172" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E20" s="122"/>
       <c r="F20" s="122"/>
@@ -13541,16 +13876,16 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="122" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B21" s="172" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C21" s="172" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D21" s="172" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E21" s="122"/>
       <c r="F21" s="122"/>
@@ -13563,13 +13898,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="122" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B22" s="172" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C22" s="172" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D22" s="122"/>
       <c r="E22" s="122"/>
@@ -13583,13 +13918,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B23" s="172" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C23" s="172" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D23" s="122"/>
       <c r="E23" s="122"/>
@@ -13603,13 +13938,13 @@
     </row>
     <row r="24" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B24" s="172" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C24" s="172" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D24" s="122"/>
       <c r="E24" s="122"/>
@@ -13623,13 +13958,13 @@
     </row>
     <row r="25" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="177" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B25" s="172" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C25" s="172" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D25" s="122"/>
       <c r="E25" s="122"/>
@@ -13643,13 +13978,13 @@
     </row>
     <row r="26" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="177" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B26" s="172" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C26" s="172" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D26" s="122"/>
       <c r="E26" s="122"/>
@@ -13663,10 +13998,10 @@
     </row>
     <row r="27" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="177" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B27" s="172" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C27" s="172"/>
       <c r="D27" s="122"/>
@@ -17106,17 +17441,17 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E4:E5 E7:E9 A22 F22:L268 E22:E279 D22:D275 B28:B255 D10:D11 D13:D18 A3:A11 A13:A20 F3:L11 E11 E13:L20 A28:A274 C28:C281">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" stopIfTrue="1" operator="equal">
       <formula>A2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 E3 E2:L2">
-    <cfRule type="cellIs" dxfId="3" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="25" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 C9:D9 A21 E21:L21 A12 D12:L12">
-    <cfRule type="cellIs" dxfId="2" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="27" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17208,57 +17543,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="130" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="122" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="122" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="122" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="122" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="122" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="122" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="122" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="122" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="122" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="122" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
@@ -17273,22 +17608,22 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="122" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="130" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="122" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="122" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
@@ -17308,22 +17643,22 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="122" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="122" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="122" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
@@ -17333,7 +17668,7 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="122" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
@@ -17343,7 +17678,7 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="122" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
@@ -17353,7 +17688,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="122" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
@@ -17378,7 +17713,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="122" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
@@ -17403,17 +17738,17 @@
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="122" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="122" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="122" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
@@ -17438,17 +17773,17 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="122" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="122" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="122" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/Area de proceso CM/REGITCON_V1.0_2017.xlsx
+++ b/Area de proceso CM/REGITCON_V1.0_2017.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jared/Desktop/documentationStaradmin/Area de proceso CM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jared/Desktop/Cursos Generales/documentationStaradmin/Area de proceso CM/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23880" windowHeight="16440" tabRatio="518" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17760" windowHeight="17440" tabRatio="518" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="92" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="358">
   <si>
     <t>Fecha:
 Vigencia\
@@ -1218,6 +1218,24 @@
   </si>
   <si>
     <t>Programador</t>
+  </si>
+  <si>
+    <t>https://github.com/sofiaqsy/documentationStaradmin/blob/master/Area%20de%20proceso%20REQM/INPRUIN_07_11_2017.docx</t>
+  </si>
+  <si>
+    <t>https://github.com/sofiaqsy/documentationStaradmin/blob/master/Area%20de%20proceso%20REQM/INPRUEX_10_11_2017.docx</t>
+  </si>
+  <si>
+    <t>https://github.com/sofiaqsy/documentationStaradmin/blob/master/Area%20de%20proceso%20REQM/DANADIS_V1.0_2017.docx</t>
+  </si>
+  <si>
+    <t>https://github.com/sofiaqsy/documentationStaradmin/blob/master/Area%20de%20proceso%20REQM/MANUSER_v1.1_2017.docx</t>
+  </si>
+  <si>
+    <t>https://github.com/sofiaqsy/staradmin</t>
+  </si>
+  <si>
+    <t>ninguna vez</t>
   </si>
 </sst>
 </file>
@@ -2231,6 +2249,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2258,6 +2286,114 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2267,23 +2403,98 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2300,12 +2511,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2320,193 +2525,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -2531,168 +2549,7 @@
     <cellStyle name="Normal_sst2D" xfId="10"/>
     <cellStyle name="Normal_sstA" xfId="11"/>
   </cellStyles>
-  <dxfs count="50">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="55"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="55"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="55"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="55"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="55"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="55"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="55"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="55"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="55"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="55"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="55"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="55"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="55"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="55"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="55"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="55"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="55"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="55"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="55"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="55"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="55"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="55"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="55"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <font>
         <condense val="0"/>
@@ -2750,6 +2607,34 @@
       <fill>
         <patternFill>
           <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2869,13 +2754,6 @@
       <fill>
         <patternFill>
           <bgColor indexed="50"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="55"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3513,15 +3391,15 @@
       <c r="H1" s="85"/>
     </row>
     <row r="2" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="188" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
     </row>
     <row r="3" spans="2:8" ht="13" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="85"/>
@@ -3556,90 +3434,90 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="186">
+      <c r="B5" s="189">
         <v>1</v>
       </c>
-      <c r="C5" s="187">
+      <c r="C5" s="190">
         <v>1</v>
       </c>
-      <c r="D5" s="188">
+      <c r="D5" s="191">
         <v>43049</v>
       </c>
-      <c r="E5" s="186" t="s">
+      <c r="E5" s="189" t="s">
         <v>189</v>
       </c>
-      <c r="F5" s="186" t="s">
+      <c r="F5" s="189" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="186" t="s">
+      <c r="G5" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="186" t="s">
+      <c r="H5" s="189" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="186"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="188"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
+      <c r="B6" s="189"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="189"/>
+      <c r="H6" s="189"/>
     </row>
     <row r="7" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="182"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="185"/>
+      <c r="F7" s="185"/>
+      <c r="G7" s="185"/>
+      <c r="H7" s="185"/>
     </row>
     <row r="8" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="182"/>
-      <c r="C8" s="183"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="182"/>
+      <c r="B8" s="185"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="182"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="182"/>
-      <c r="H9" s="182"/>
+      <c r="B9" s="185"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="185"/>
+      <c r="H9" s="185"/>
     </row>
     <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="182"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="182"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="182"/>
-      <c r="G10" s="182"/>
-      <c r="H10" s="182"/>
+      <c r="B10" s="185"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="185"/>
+      <c r="E10" s="185"/>
+      <c r="F10" s="185"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="185"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="182"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="184"/>
-      <c r="E11" s="182"/>
-      <c r="F11" s="182"/>
-      <c r="G11" s="182"/>
-      <c r="H11" s="182"/>
+      <c r="B11" s="185"/>
+      <c r="C11" s="186"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="185"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="185"/>
     </row>
     <row r="12" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="182"/>
-      <c r="C12" s="183"/>
-      <c r="D12" s="182"/>
-      <c r="E12" s="182"/>
-      <c r="F12" s="182"/>
-      <c r="G12" s="182"/>
-      <c r="H12" s="182"/>
+      <c r="B12" s="185"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="185"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B13" s="160"/>
@@ -3661,13 +3539,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -3676,20 +3561,13 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3703,8 +3581,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Q195"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B74" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G2"/>
+    <sheetView showGridLines="0" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3721,26 +3599,26 @@
     <row r="1" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="17"/>
-      <c r="C1" s="237" t="s">
+      <c r="C1" s="211" t="s">
         <v>309</v>
       </c>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="239"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="213"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="240">
+      <c r="C2" s="214">
         <v>43049</v>
       </c>
-      <c r="D2" s="241"/>
-      <c r="E2" s="241"/>
-      <c r="F2" s="241"/>
-      <c r="G2" s="242"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="216"/>
     </row>
     <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
@@ -3754,14 +3632,14 @@
     </row>
     <row r="4" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
-      <c r="B4" s="243" t="s">
+      <c r="B4" s="217" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="244"/>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="245"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="218"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="219"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
@@ -3788,12 +3666,12 @@
         <v>49</v>
       </c>
       <c r="C7" s="25"/>
-      <c r="D7" s="246" t="s">
+      <c r="D7" s="220" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="247"/>
-      <c r="F7" s="247"/>
-      <c r="G7" s="248"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="222"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
@@ -3809,12 +3687,12 @@
         <v>29</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="222" t="s">
+      <c r="D9" s="247" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="222"/>
-      <c r="F9" s="222"/>
-      <c r="G9" s="222"/>
+      <c r="E9" s="247"/>
+      <c r="F9" s="247"/>
+      <c r="G9" s="247"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
@@ -3831,12 +3709,12 @@
         <v>29</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="222" t="s">
+      <c r="D11" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="222"/>
-      <c r="F11" s="222"/>
-      <c r="G11" s="222"/>
+      <c r="E11" s="247"/>
+      <c r="F11" s="247"/>
+      <c r="G11" s="247"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
@@ -3853,12 +3731,12 @@
         <v>29</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="222" t="s">
+      <c r="D13" s="247" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="222"/>
-      <c r="F13" s="222"/>
-      <c r="G13" s="222"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
@@ -3875,12 +3753,12 @@
         <v>29</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="222" t="s">
+      <c r="D15" s="247" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="222"/>
-      <c r="F15" s="222"/>
-      <c r="G15" s="222"/>
+      <c r="E15" s="247"/>
+      <c r="F15" s="247"/>
+      <c r="G15" s="247"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
@@ -3910,84 +3788,84 @@
       <c r="A19" s="4"/>
     </row>
     <row r="20" spans="1:17" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="192" t="s">
+      <c r="B20" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="193"/>
-      <c r="D20" s="193"/>
-      <c r="E20" s="193"/>
-      <c r="F20" s="193"/>
-      <c r="G20" s="194"/>
+      <c r="C20" s="206"/>
+      <c r="D20" s="206"/>
+      <c r="E20" s="206"/>
+      <c r="F20" s="206"/>
+      <c r="G20" s="207"/>
     </row>
     <row r="21" spans="1:17" s="28" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="195" t="s">
+      <c r="C21" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="196"/>
-      <c r="E21" s="196"/>
-      <c r="F21" s="196"/>
-      <c r="G21" s="197"/>
+      <c r="D21" s="209"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="209"/>
+      <c r="G21" s="210"/>
     </row>
     <row r="22" spans="1:17" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="224" t="s">
+      <c r="C22" s="249" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="225"/>
-      <c r="E22" s="225"/>
-      <c r="F22" s="225"/>
-      <c r="G22" s="226"/>
+      <c r="D22" s="250"/>
+      <c r="E22" s="250"/>
+      <c r="F22" s="250"/>
+      <c r="G22" s="251"/>
     </row>
     <row r="23" spans="1:17" s="28" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="256" t="s">
+      <c r="B23" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="189" t="s">
+      <c r="C23" s="228" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="190"/>
-      <c r="E23" s="190"/>
-      <c r="F23" s="190"/>
-      <c r="G23" s="191"/>
+      <c r="D23" s="229"/>
+      <c r="E23" s="229"/>
+      <c r="F23" s="229"/>
+      <c r="G23" s="230"/>
     </row>
     <row r="24" spans="1:17" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="257"/>
-      <c r="C24" s="189" t="s">
+      <c r="B24" s="239"/>
+      <c r="C24" s="228" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="190"/>
-      <c r="E24" s="190"/>
-      <c r="F24" s="190"/>
-      <c r="G24" s="191"/>
+      <c r="D24" s="229"/>
+      <c r="E24" s="229"/>
+      <c r="F24" s="229"/>
+      <c r="G24" s="230"/>
     </row>
     <row r="25" spans="1:17" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="189" t="s">
+      <c r="C25" s="228" t="s">
         <v>128</v>
       </c>
-      <c r="D25" s="190"/>
-      <c r="E25" s="190"/>
-      <c r="F25" s="190"/>
-      <c r="G25" s="191"/>
+      <c r="D25" s="229"/>
+      <c r="E25" s="229"/>
+      <c r="F25" s="229"/>
+      <c r="G25" s="230"/>
     </row>
     <row r="26" spans="1:17" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="126" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="189" t="s">
+      <c r="C26" s="228" t="s">
         <v>129</v>
       </c>
-      <c r="D26" s="190"/>
-      <c r="E26" s="190"/>
-      <c r="F26" s="190"/>
-      <c r="G26" s="191"/>
+      <c r="D26" s="229"/>
+      <c r="E26" s="229"/>
+      <c r="F26" s="229"/>
+      <c r="G26" s="230"/>
     </row>
     <row r="27" spans="1:17" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="127"/>
@@ -3998,14 +3876,14 @@
       <c r="G27" s="128"/>
     </row>
     <row r="28" spans="1:17" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="192" t="s">
+      <c r="B28" s="205" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="193"/>
-      <c r="D28" s="193"/>
-      <c r="E28" s="193"/>
-      <c r="F28" s="193"/>
-      <c r="G28" s="194"/>
+      <c r="C28" s="206"/>
+      <c r="D28" s="206"/>
+      <c r="E28" s="206"/>
+      <c r="F28" s="206"/>
+      <c r="G28" s="207"/>
       <c r="H28" s="7"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -4018,14 +3896,14 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" s="28" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="234" t="s">
+      <c r="B29" s="259" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="235"/>
-      <c r="D29" s="235"/>
-      <c r="E29" s="235"/>
-      <c r="F29" s="235"/>
-      <c r="G29" s="236"/>
+      <c r="C29" s="260"/>
+      <c r="D29" s="260"/>
+      <c r="E29" s="260"/>
+      <c r="F29" s="260"/>
+      <c r="G29" s="261"/>
       <c r="H29" s="7"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -4039,14 +3917,14 @@
     </row>
     <row r="30" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
-      <c r="B30" s="258" t="s">
+      <c r="B30" s="240" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="259"/>
-      <c r="D30" s="259"/>
-      <c r="E30" s="259"/>
-      <c r="F30" s="259"/>
-      <c r="G30" s="260"/>
+      <c r="C30" s="241"/>
+      <c r="D30" s="241"/>
+      <c r="E30" s="241"/>
+      <c r="F30" s="241"/>
+      <c r="G30" s="242"/>
       <c r="H30" s="1"/>
       <c r="I30" s="3"/>
       <c r="J30" s="1"/>
@@ -4063,21 +3941,21 @@
       <c r="B31" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="252" t="s">
+      <c r="C31" s="234" t="s">
         <v>113</v>
       </c>
-      <c r="D31" s="252"/>
-      <c r="E31" s="252"/>
-      <c r="F31" s="252"/>
-      <c r="G31" s="253"/>
+      <c r="D31" s="234"/>
+      <c r="E31" s="234"/>
+      <c r="F31" s="234"/>
+      <c r="G31" s="235"/>
       <c r="H31" s="57"/>
-      <c r="I31" s="223"/>
-      <c r="J31" s="223"/>
-      <c r="K31" s="223"/>
-      <c r="L31" s="223"/>
-      <c r="M31" s="223"/>
-      <c r="N31" s="223"/>
-      <c r="O31" s="223"/>
+      <c r="I31" s="248"/>
+      <c r="J31" s="248"/>
+      <c r="K31" s="248"/>
+      <c r="L31" s="248"/>
+      <c r="M31" s="248"/>
+      <c r="N31" s="248"/>
+      <c r="O31" s="248"/>
       <c r="P31" s="11"/>
       <c r="Q31" s="1"/>
     </row>
@@ -4105,13 +3983,13 @@
       <c r="B33" s="59">
         <v>1</v>
       </c>
-      <c r="C33" s="227" t="s">
+      <c r="C33" s="252" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="227"/>
-      <c r="E33" s="227"/>
-      <c r="F33" s="227"/>
-      <c r="G33" s="228"/>
+      <c r="D33" s="252"/>
+      <c r="E33" s="252"/>
+      <c r="F33" s="252"/>
+      <c r="G33" s="253"/>
       <c r="H33" s="57"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="1"/>
@@ -4131,13 +4009,13 @@
     <row r="35" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
       <c r="B35" s="60"/>
-      <c r="C35" s="216" t="s">
+      <c r="C35" s="198" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="216"/>
-      <c r="E35" s="216"/>
-      <c r="F35" s="216"/>
-      <c r="G35" s="217"/>
+      <c r="D35" s="198"/>
+      <c r="E35" s="198"/>
+      <c r="F35" s="198"/>
+      <c r="G35" s="199"/>
       <c r="H35" s="57"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="1"/>
@@ -4147,13 +4025,13 @@
       <c r="B36" s="59">
         <v>1</v>
       </c>
-      <c r="C36" s="227" t="s">
+      <c r="C36" s="252" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="227"/>
-      <c r="E36" s="227"/>
-      <c r="F36" s="227"/>
-      <c r="G36" s="228"/>
+      <c r="D36" s="252"/>
+      <c r="E36" s="252"/>
+      <c r="F36" s="252"/>
+      <c r="G36" s="253"/>
       <c r="H36" s="57"/>
       <c r="P36" s="11"/>
       <c r="Q36" s="1"/>
@@ -4163,13 +4041,13 @@
       <c r="B37" s="59">
         <v>2</v>
       </c>
-      <c r="C37" s="227" t="s">
+      <c r="C37" s="252" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="227"/>
-      <c r="E37" s="227"/>
-      <c r="F37" s="227"/>
-      <c r="G37" s="228"/>
+      <c r="D37" s="252"/>
+      <c r="E37" s="252"/>
+      <c r="F37" s="252"/>
+      <c r="G37" s="253"/>
       <c r="H37" s="57"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="1"/>
@@ -4179,13 +4057,13 @@
       <c r="B38" s="59">
         <v>3</v>
       </c>
-      <c r="C38" s="229" t="s">
+      <c r="C38" s="254" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="229"/>
-      <c r="E38" s="229"/>
-      <c r="F38" s="229"/>
-      <c r="G38" s="230"/>
+      <c r="D38" s="254"/>
+      <c r="E38" s="254"/>
+      <c r="F38" s="254"/>
+      <c r="G38" s="255"/>
       <c r="H38" s="11"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -4277,10 +4155,10 @@
     <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
       <c r="B45" s="105"/>
-      <c r="C45" s="233" t="s">
+      <c r="C45" s="258" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="233"/>
+      <c r="D45" s="258"/>
       <c r="E45" s="110"/>
       <c r="F45" s="110"/>
       <c r="G45" s="111"/>
@@ -4291,27 +4169,27 @@
     <row r="46" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" s="112"/>
-      <c r="C46" s="231" t="s">
+      <c r="C46" s="256" t="s">
         <v>108</v>
       </c>
-      <c r="D46" s="231"/>
-      <c r="E46" s="231"/>
-      <c r="F46" s="231"/>
-      <c r="G46" s="232"/>
+      <c r="D46" s="256"/>
+      <c r="E46" s="256"/>
+      <c r="F46" s="256"/>
+      <c r="G46" s="257"/>
       <c r="H46" s="11"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
     <row r="47" spans="1:17" ht="16" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
-      <c r="B47" s="218" t="s">
+      <c r="B47" s="243" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="219"/>
-      <c r="D47" s="219"/>
-      <c r="E47" s="219"/>
-      <c r="F47" s="219"/>
-      <c r="G47" s="220"/>
+      <c r="C47" s="244"/>
+      <c r="D47" s="244"/>
+      <c r="E47" s="244"/>
+      <c r="F47" s="244"/>
+      <c r="G47" s="245"/>
       <c r="H47" s="1"/>
       <c r="I47" s="3"/>
       <c r="J47" s="1"/>
@@ -4340,13 +4218,13 @@
       <c r="B49" s="59">
         <v>1</v>
       </c>
-      <c r="C49" s="254" t="s">
+      <c r="C49" s="236" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="254"/>
-      <c r="E49" s="254"/>
-      <c r="F49" s="254"/>
-      <c r="G49" s="255"/>
+      <c r="D49" s="236"/>
+      <c r="E49" s="236"/>
+      <c r="F49" s="236"/>
+      <c r="G49" s="237"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="9"/>
@@ -4478,8 +4356,8 @@
       <c r="F55" s="66"/>
       <c r="G55" s="67"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="221"/>
-      <c r="J55" s="221"/>
+      <c r="I55" s="246"/>
+      <c r="J55" s="246"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -4499,8 +4377,8 @@
       <c r="F56" s="115"/>
       <c r="G56" s="116"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="221"/>
-      <c r="J56" s="221"/>
+      <c r="I56" s="246"/>
+      <c r="J56" s="246"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -4520,8 +4398,8 @@
       <c r="F57" s="115"/>
       <c r="G57" s="116"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="221"/>
-      <c r="J57" s="221"/>
+      <c r="I57" s="246"/>
+      <c r="J57" s="246"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -4541,8 +4419,8 @@
       <c r="F58" s="115"/>
       <c r="G58" s="116"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="221"/>
-      <c r="J58" s="221"/>
+      <c r="I58" s="246"/>
+      <c r="J58" s="246"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -4562,8 +4440,8 @@
       <c r="F59" s="115"/>
       <c r="G59" s="116"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="221"/>
-      <c r="J59" s="221"/>
+      <c r="I59" s="246"/>
+      <c r="J59" s="246"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -4583,8 +4461,8 @@
       <c r="F60" s="83"/>
       <c r="G60" s="84"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="221"/>
-      <c r="J60" s="221"/>
+      <c r="I60" s="246"/>
+      <c r="J60" s="246"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -4606,8 +4484,8 @@
       <c r="F61" s="68"/>
       <c r="G61" s="69"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="221"/>
-      <c r="J61" s="221"/>
+      <c r="I61" s="246"/>
+      <c r="J61" s="246"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -4637,14 +4515,14 @@
     </row>
     <row r="63" spans="1:17" ht="16" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
-      <c r="B63" s="218" t="s">
+      <c r="B63" s="243" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="219"/>
-      <c r="D63" s="219"/>
-      <c r="E63" s="219"/>
-      <c r="F63" s="219"/>
-      <c r="G63" s="220"/>
+      <c r="C63" s="244"/>
+      <c r="D63" s="244"/>
+      <c r="E63" s="244"/>
+      <c r="F63" s="244"/>
+      <c r="G63" s="245"/>
       <c r="H63" s="1"/>
       <c r="I63" s="3"/>
       <c r="J63" s="1"/>
@@ -4680,13 +4558,13 @@
       <c r="B65" s="59">
         <v>1</v>
       </c>
-      <c r="C65" s="216" t="s">
+      <c r="C65" s="198" t="s">
         <v>121</v>
       </c>
-      <c r="D65" s="216"/>
-      <c r="E65" s="216"/>
-      <c r="F65" s="216"/>
-      <c r="G65" s="217"/>
+      <c r="D65" s="198"/>
+      <c r="E65" s="198"/>
+      <c r="F65" s="198"/>
+      <c r="G65" s="199"/>
       <c r="H65" s="7"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -4703,13 +4581,13 @@
       <c r="B66" s="59">
         <v>2</v>
       </c>
-      <c r="C66" s="216" t="s">
+      <c r="C66" s="198" t="s">
         <v>103</v>
       </c>
-      <c r="D66" s="216"/>
-      <c r="E66" s="216"/>
-      <c r="F66" s="216"/>
-      <c r="G66" s="217"/>
+      <c r="D66" s="198"/>
+      <c r="E66" s="198"/>
+      <c r="F66" s="198"/>
+      <c r="G66" s="199"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -4726,13 +4604,13 @@
       <c r="B67" s="59">
         <v>3</v>
       </c>
-      <c r="C67" s="216" t="s">
+      <c r="C67" s="198" t="s">
         <v>102</v>
       </c>
-      <c r="D67" s="216"/>
-      <c r="E67" s="216"/>
-      <c r="F67" s="216"/>
-      <c r="G67" s="217"/>
+      <c r="D67" s="198"/>
+      <c r="E67" s="198"/>
+      <c r="F67" s="198"/>
+      <c r="G67" s="199"/>
       <c r="J67" s="57"/>
       <c r="K67" s="57"/>
       <c r="L67" s="57"/>
@@ -4745,11 +4623,11 @@
     <row r="68" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="59"/>
-      <c r="C68" s="216"/>
-      <c r="D68" s="216"/>
-      <c r="E68" s="216"/>
-      <c r="F68" s="216"/>
-      <c r="G68" s="217"/>
+      <c r="C68" s="198"/>
+      <c r="D68" s="198"/>
+      <c r="E68" s="198"/>
+      <c r="F68" s="198"/>
+      <c r="G68" s="199"/>
       <c r="J68" s="57"/>
       <c r="K68" s="57"/>
       <c r="L68" s="57"/>
@@ -4781,39 +4659,39 @@
       <c r="B70" s="23"/>
     </row>
     <row r="71" spans="1:17" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="192" t="s">
+      <c r="B71" s="205" t="s">
         <v>109</v>
       </c>
-      <c r="C71" s="193"/>
-      <c r="D71" s="193"/>
-      <c r="E71" s="193"/>
-      <c r="F71" s="193"/>
-      <c r="G71" s="194"/>
+      <c r="C71" s="206"/>
+      <c r="D71" s="206"/>
+      <c r="E71" s="206"/>
+      <c r="F71" s="206"/>
+      <c r="G71" s="207"/>
     </row>
     <row r="72" spans="1:17" s="28" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C72" s="195" t="s">
+      <c r="C72" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="D72" s="196"/>
-      <c r="E72" s="196"/>
-      <c r="F72" s="196"/>
-      <c r="G72" s="197"/>
+      <c r="D72" s="209"/>
+      <c r="E72" s="209"/>
+      <c r="F72" s="209"/>
+      <c r="G72" s="210"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
       <c r="B73" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="C73" s="213" t="s">
+      <c r="C73" s="231" t="s">
         <v>69</v>
       </c>
-      <c r="D73" s="214"/>
-      <c r="E73" s="214"/>
-      <c r="F73" s="214"/>
-      <c r="G73" s="215"/>
+      <c r="D73" s="232"/>
+      <c r="E73" s="232"/>
+      <c r="F73" s="232"/>
+      <c r="G73" s="233"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
@@ -4853,56 +4731,56 @@
       <c r="B77" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="C77" s="210" t="s">
+      <c r="C77" s="202" t="s">
         <v>91</v>
       </c>
-      <c r="D77" s="211"/>
-      <c r="E77" s="211"/>
-      <c r="F77" s="211"/>
-      <c r="G77" s="212"/>
+      <c r="D77" s="203"/>
+      <c r="E77" s="203"/>
+      <c r="F77" s="203"/>
+      <c r="G77" s="204"/>
     </row>
     <row r="78" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
       <c r="B78" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="C78" s="210" t="s">
+      <c r="C78" s="202" t="s">
         <v>50</v>
       </c>
-      <c r="D78" s="211"/>
-      <c r="E78" s="211"/>
-      <c r="F78" s="211"/>
-      <c r="G78" s="212"/>
+      <c r="D78" s="203"/>
+      <c r="E78" s="203"/>
+      <c r="F78" s="203"/>
+      <c r="G78" s="204"/>
     </row>
     <row r="79" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
       <c r="B79" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="213" t="s">
+      <c r="C79" s="231" t="s">
         <v>51</v>
       </c>
-      <c r="D79" s="214"/>
-      <c r="E79" s="214"/>
-      <c r="F79" s="214"/>
-      <c r="G79" s="215"/>
+      <c r="D79" s="232"/>
+      <c r="E79" s="232"/>
+      <c r="F79" s="232"/>
+      <c r="G79" s="233"/>
     </row>
     <row r="80" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
-      <c r="B80" s="198" t="s">
+      <c r="B80" s="262" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="213" t="s">
+      <c r="C80" s="231" t="s">
         <v>25</v>
       </c>
-      <c r="D80" s="214"/>
-      <c r="E80" s="214"/>
-      <c r="F80" s="214"/>
-      <c r="G80" s="215"/>
+      <c r="D80" s="232"/>
+      <c r="E80" s="232"/>
+      <c r="F80" s="232"/>
+      <c r="G80" s="233"/>
     </row>
     <row r="81" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
-      <c r="B81" s="199"/>
+      <c r="B81" s="263"/>
       <c r="C81" s="89" t="s">
         <v>76</v>
       </c>
@@ -4915,7 +4793,7 @@
     </row>
     <row r="82" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
-      <c r="B82" s="199"/>
+      <c r="B82" s="263"/>
       <c r="C82" s="89" t="s">
         <v>64</v>
       </c>
@@ -4928,7 +4806,7 @@
     </row>
     <row r="83" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
-      <c r="B83" s="199"/>
+      <c r="B83" s="263"/>
       <c r="C83" s="89" t="s">
         <v>65</v>
       </c>
@@ -4941,7 +4819,7 @@
     </row>
     <row r="84" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
-      <c r="B84" s="199"/>
+      <c r="B84" s="263"/>
       <c r="C84" s="89" t="s">
         <v>34</v>
       </c>
@@ -4954,7 +4832,7 @@
     </row>
     <row r="85" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
-      <c r="B85" s="200"/>
+      <c r="B85" s="264"/>
       <c r="C85" s="91"/>
       <c r="D85" s="92"/>
       <c r="E85" s="50"/>
@@ -4966,182 +4844,182 @@
       <c r="B86" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="C86" s="205" t="s">
+      <c r="C86" s="267" t="s">
         <v>52</v>
       </c>
-      <c r="D86" s="201"/>
-      <c r="E86" s="201"/>
-      <c r="F86" s="201"/>
-      <c r="G86" s="202"/>
+      <c r="D86" s="265"/>
+      <c r="E86" s="265"/>
+      <c r="F86" s="265"/>
+      <c r="G86" s="266"/>
     </row>
     <row r="87" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
       <c r="B87" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="C87" s="206" t="s">
+      <c r="C87" s="268" t="s">
         <v>53</v>
       </c>
-      <c r="D87" s="203"/>
-      <c r="E87" s="203"/>
-      <c r="F87" s="203"/>
-      <c r="G87" s="204"/>
+      <c r="D87" s="226"/>
+      <c r="E87" s="226"/>
+      <c r="F87" s="226"/>
+      <c r="G87" s="227"/>
     </row>
     <row r="88" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
       <c r="B88" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="C88" s="207" t="s">
+      <c r="C88" s="269" t="s">
         <v>54</v>
       </c>
-      <c r="D88" s="208"/>
-      <c r="E88" s="208"/>
-      <c r="F88" s="208"/>
-      <c r="G88" s="209"/>
+      <c r="D88" s="270"/>
+      <c r="E88" s="270"/>
+      <c r="F88" s="270"/>
+      <c r="G88" s="271"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
       <c r="B89" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="C89" s="203" t="s">
+      <c r="C89" s="226" t="s">
         <v>97</v>
       </c>
-      <c r="D89" s="203"/>
-      <c r="E89" s="203"/>
-      <c r="F89" s="203"/>
-      <c r="G89" s="204"/>
+      <c r="D89" s="226"/>
+      <c r="E89" s="226"/>
+      <c r="F89" s="226"/>
+      <c r="G89" s="227"/>
     </row>
     <row r="90" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
       <c r="B90" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="C90" s="203" t="s">
+      <c r="C90" s="226" t="s">
         <v>95</v>
       </c>
-      <c r="D90" s="203"/>
-      <c r="E90" s="203"/>
-      <c r="F90" s="203"/>
-      <c r="G90" s="204"/>
+      <c r="D90" s="226"/>
+      <c r="E90" s="226"/>
+      <c r="F90" s="226"/>
+      <c r="G90" s="227"/>
     </row>
     <row r="91" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
       <c r="B91" s="118" t="s">
         <v>92</v>
       </c>
-      <c r="C91" s="201" t="s">
+      <c r="C91" s="265" t="s">
         <v>55</v>
       </c>
-      <c r="D91" s="201"/>
-      <c r="E91" s="201"/>
-      <c r="F91" s="201"/>
-      <c r="G91" s="202"/>
+      <c r="D91" s="265"/>
+      <c r="E91" s="265"/>
+      <c r="F91" s="265"/>
+      <c r="G91" s="266"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
       <c r="B92" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="C92" s="203" t="s">
+      <c r="C92" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="D92" s="203"/>
-      <c r="E92" s="203"/>
-      <c r="F92" s="203"/>
-      <c r="G92" s="204"/>
+      <c r="D92" s="226"/>
+      <c r="E92" s="226"/>
+      <c r="F92" s="226"/>
+      <c r="G92" s="227"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
       <c r="B93" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="C93" s="203" t="s">
+      <c r="C93" s="226" t="s">
         <v>94</v>
       </c>
-      <c r="D93" s="203"/>
-      <c r="E93" s="203"/>
-      <c r="F93" s="203"/>
-      <c r="G93" s="204"/>
+      <c r="D93" s="226"/>
+      <c r="E93" s="226"/>
+      <c r="F93" s="226"/>
+      <c r="G93" s="227"/>
     </row>
     <row r="94" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
       <c r="B94" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="C94" s="203" t="s">
+      <c r="C94" s="226" t="s">
         <v>56</v>
       </c>
-      <c r="D94" s="203"/>
-      <c r="E94" s="203"/>
-      <c r="F94" s="203"/>
-      <c r="G94" s="204"/>
+      <c r="D94" s="226"/>
+      <c r="E94" s="226"/>
+      <c r="F94" s="226"/>
+      <c r="G94" s="227"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
       <c r="B95" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="C95" s="203" t="s">
+      <c r="C95" s="226" t="s">
         <v>57</v>
       </c>
-      <c r="D95" s="203"/>
-      <c r="E95" s="203"/>
-      <c r="F95" s="203"/>
-      <c r="G95" s="204"/>
+      <c r="D95" s="226"/>
+      <c r="E95" s="226"/>
+      <c r="F95" s="226"/>
+      <c r="G95" s="227"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
       <c r="B96" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="C96" s="203" t="s">
+      <c r="C96" s="226" t="s">
         <v>99</v>
       </c>
-      <c r="D96" s="203"/>
-      <c r="E96" s="203"/>
-      <c r="F96" s="203"/>
-      <c r="G96" s="204"/>
+      <c r="D96" s="226"/>
+      <c r="E96" s="226"/>
+      <c r="F96" s="226"/>
+      <c r="G96" s="227"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
       <c r="B97" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="C97" s="203" t="s">
+      <c r="C97" s="226" t="s">
         <v>58</v>
       </c>
-      <c r="D97" s="203"/>
-      <c r="E97" s="203"/>
-      <c r="F97" s="203"/>
-      <c r="G97" s="204"/>
+      <c r="D97" s="226"/>
+      <c r="E97" s="226"/>
+      <c r="F97" s="226"/>
+      <c r="G97" s="227"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
       <c r="B98" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="C98" s="203" t="s">
+      <c r="C98" s="226" t="s">
         <v>59</v>
       </c>
-      <c r="D98" s="203"/>
-      <c r="E98" s="203"/>
-      <c r="F98" s="203"/>
-      <c r="G98" s="204"/>
+      <c r="D98" s="226"/>
+      <c r="E98" s="226"/>
+      <c r="F98" s="226"/>
+      <c r="G98" s="227"/>
     </row>
     <row r="99" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
       <c r="B99" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="C99" s="249" t="s">
+      <c r="C99" s="223" t="s">
         <v>106</v>
       </c>
-      <c r="D99" s="250"/>
-      <c r="E99" s="250"/>
-      <c r="F99" s="250"/>
-      <c r="G99" s="251"/>
+      <c r="D99" s="224"/>
+      <c r="E99" s="224"/>
+      <c r="F99" s="224"/>
+      <c r="G99" s="225"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
@@ -5184,62 +5062,62 @@
     </row>
     <row r="104" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
-      <c r="B104" s="192" t="s">
+      <c r="B104" s="205" t="s">
         <v>130</v>
       </c>
-      <c r="C104" s="193"/>
-      <c r="D104" s="193"/>
-      <c r="E104" s="193"/>
-      <c r="F104" s="193"/>
-      <c r="G104" s="194"/>
+      <c r="C104" s="206"/>
+      <c r="D104" s="206"/>
+      <c r="E104" s="206"/>
+      <c r="F104" s="206"/>
+      <c r="G104" s="207"/>
     </row>
     <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6"/>
       <c r="B105" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C105" s="195" t="s">
+      <c r="C105" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="D105" s="196"/>
-      <c r="E105" s="196"/>
-      <c r="F105" s="196"/>
-      <c r="G105" s="197"/>
+      <c r="D105" s="209"/>
+      <c r="E105" s="209"/>
+      <c r="F105" s="209"/>
+      <c r="G105" s="210"/>
     </row>
     <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="6"/>
       <c r="B106" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="C106" s="263" t="s">
+      <c r="C106" s="200" t="s">
         <v>134</v>
       </c>
-      <c r="D106" s="263"/>
-      <c r="E106" s="263"/>
-      <c r="F106" s="263"/>
-      <c r="G106" s="263"/>
+      <c r="D106" s="200"/>
+      <c r="E106" s="200"/>
+      <c r="F106" s="200"/>
+      <c r="G106" s="200"/>
     </row>
     <row r="107" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6"/>
       <c r="B107" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="C107" s="210" t="s">
+      <c r="C107" s="202" t="s">
         <v>135</v>
       </c>
-      <c r="D107" s="211"/>
-      <c r="E107" s="211"/>
-      <c r="F107" s="211"/>
-      <c r="G107" s="212"/>
+      <c r="D107" s="203"/>
+      <c r="E107" s="203"/>
+      <c r="F107" s="203"/>
+      <c r="G107" s="204"/>
     </row>
     <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="6"/>
       <c r="B108" s="98"/>
-      <c r="C108" s="210"/>
-      <c r="D108" s="211"/>
-      <c r="E108" s="211"/>
-      <c r="F108" s="211"/>
-      <c r="G108" s="212"/>
+      <c r="C108" s="202"/>
+      <c r="D108" s="203"/>
+      <c r="E108" s="203"/>
+      <c r="F108" s="203"/>
+      <c r="G108" s="204"/>
     </row>
     <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="6"/>
@@ -5252,62 +5130,62 @@
     </row>
     <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="6"/>
-      <c r="B110" s="192" t="s">
+      <c r="B110" s="205" t="s">
         <v>131</v>
       </c>
-      <c r="C110" s="193"/>
-      <c r="D110" s="193"/>
-      <c r="E110" s="193"/>
-      <c r="F110" s="193"/>
-      <c r="G110" s="194"/>
+      <c r="C110" s="206"/>
+      <c r="D110" s="206"/>
+      <c r="E110" s="206"/>
+      <c r="F110" s="206"/>
+      <c r="G110" s="207"/>
     </row>
     <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6"/>
       <c r="B111" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C111" s="195" t="s">
+      <c r="C111" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="D111" s="196"/>
-      <c r="E111" s="196"/>
-      <c r="F111" s="196"/>
-      <c r="G111" s="197"/>
+      <c r="D111" s="209"/>
+      <c r="E111" s="209"/>
+      <c r="F111" s="209"/>
+      <c r="G111" s="210"/>
     </row>
     <row r="112" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6"/>
       <c r="B112" s="129" t="s">
         <v>136</v>
       </c>
-      <c r="C112" s="263" t="s">
+      <c r="C112" s="200" t="s">
         <v>138</v>
       </c>
-      <c r="D112" s="263"/>
-      <c r="E112" s="263"/>
-      <c r="F112" s="263"/>
-      <c r="G112" s="263"/>
+      <c r="D112" s="200"/>
+      <c r="E112" s="200"/>
+      <c r="F112" s="200"/>
+      <c r="G112" s="200"/>
     </row>
     <row r="113" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6"/>
       <c r="B113" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="C113" s="210" t="s">
+      <c r="C113" s="202" t="s">
         <v>137</v>
       </c>
-      <c r="D113" s="211"/>
-      <c r="E113" s="211"/>
-      <c r="F113" s="211"/>
-      <c r="G113" s="212"/>
+      <c r="D113" s="203"/>
+      <c r="E113" s="203"/>
+      <c r="F113" s="203"/>
+      <c r="G113" s="204"/>
     </row>
     <row r="114" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6"/>
       <c r="B114" s="98"/>
-      <c r="C114" s="263"/>
-      <c r="D114" s="263"/>
-      <c r="E114" s="263"/>
-      <c r="F114" s="263"/>
-      <c r="G114" s="263"/>
+      <c r="C114" s="200"/>
+      <c r="D114" s="200"/>
+      <c r="E114" s="200"/>
+      <c r="F114" s="200"/>
+      <c r="G114" s="200"/>
     </row>
     <row r="115" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="6"/>
@@ -5545,12 +5423,12 @@
     </row>
     <row r="141" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="26"/>
-      <c r="B141" s="264"/>
-      <c r="C141" s="264"/>
-      <c r="D141" s="264"/>
-      <c r="E141" s="264"/>
-      <c r="F141" s="264"/>
-      <c r="G141" s="264"/>
+      <c r="B141" s="201"/>
+      <c r="C141" s="201"/>
+      <c r="D141" s="201"/>
+      <c r="E141" s="201"/>
+      <c r="F141" s="201"/>
+      <c r="G141" s="201"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A142" s="26"/>
@@ -5564,11 +5442,11 @@
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A143" s="26"/>
       <c r="B143" s="43"/>
-      <c r="C143" s="261"/>
-      <c r="D143" s="261"/>
-      <c r="E143" s="261"/>
-      <c r="F143" s="261"/>
-      <c r="G143" s="261"/>
+      <c r="C143" s="192"/>
+      <c r="D143" s="192"/>
+      <c r="E143" s="192"/>
+      <c r="F143" s="192"/>
+      <c r="G143" s="192"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A144" s="26"/>
@@ -5582,11 +5460,11 @@
     <row r="145" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="26"/>
       <c r="B145" s="45"/>
-      <c r="C145" s="262"/>
-      <c r="D145" s="262"/>
-      <c r="E145" s="262"/>
-      <c r="F145" s="262"/>
-      <c r="G145" s="262"/>
+      <c r="C145" s="196"/>
+      <c r="D145" s="196"/>
+      <c r="E145" s="196"/>
+      <c r="F145" s="196"/>
+      <c r="G145" s="196"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A146" s="26"/>
@@ -5600,11 +5478,11 @@
     <row r="147" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A147" s="26"/>
       <c r="B147" s="43"/>
-      <c r="C147" s="261"/>
-      <c r="D147" s="261"/>
-      <c r="E147" s="261"/>
-      <c r="F147" s="261"/>
-      <c r="G147" s="261"/>
+      <c r="C147" s="192"/>
+      <c r="D147" s="192"/>
+      <c r="E147" s="192"/>
+      <c r="F147" s="192"/>
+      <c r="G147" s="192"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A148" s="26"/>
@@ -5618,11 +5496,11 @@
     <row r="149" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="26"/>
       <c r="B149" s="45"/>
-      <c r="C149" s="262"/>
-      <c r="D149" s="262"/>
-      <c r="E149" s="262"/>
-      <c r="F149" s="262"/>
-      <c r="G149" s="262"/>
+      <c r="C149" s="196"/>
+      <c r="D149" s="196"/>
+      <c r="E149" s="196"/>
+      <c r="F149" s="196"/>
+      <c r="G149" s="196"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A150" s="26"/>
@@ -5645,11 +5523,11 @@
     <row r="152" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A152" s="26"/>
       <c r="B152" s="43"/>
-      <c r="C152" s="261"/>
-      <c r="D152" s="261"/>
-      <c r="E152" s="261"/>
-      <c r="F152" s="261"/>
-      <c r="G152" s="261"/>
+      <c r="C152" s="192"/>
+      <c r="D152" s="192"/>
+      <c r="E152" s="192"/>
+      <c r="F152" s="192"/>
+      <c r="G152" s="192"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A153" s="26"/>
@@ -5663,35 +5541,35 @@
     <row r="154" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="26"/>
       <c r="B154" s="45"/>
-      <c r="C154" s="262"/>
-      <c r="D154" s="262"/>
-      <c r="E154" s="262"/>
-      <c r="F154" s="262"/>
-      <c r="G154" s="262"/>
+      <c r="C154" s="196"/>
+      <c r="D154" s="196"/>
+      <c r="E154" s="196"/>
+      <c r="F154" s="196"/>
+      <c r="G154" s="196"/>
     </row>
     <row r="155" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="26"/>
       <c r="B155" s="45"/>
-      <c r="C155" s="262"/>
-      <c r="D155" s="262"/>
-      <c r="E155" s="262"/>
-      <c r="F155" s="262"/>
-      <c r="G155" s="262"/>
+      <c r="C155" s="196"/>
+      <c r="D155" s="196"/>
+      <c r="E155" s="196"/>
+      <c r="F155" s="196"/>
+      <c r="G155" s="196"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A156" s="26"/>
       <c r="B156" s="45"/>
-      <c r="C156" s="267"/>
-      <c r="D156" s="267"/>
-      <c r="E156" s="267"/>
-      <c r="F156" s="267"/>
-      <c r="G156" s="267"/>
+      <c r="C156" s="197"/>
+      <c r="D156" s="197"/>
+      <c r="E156" s="197"/>
+      <c r="F156" s="197"/>
+      <c r="G156" s="197"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A157" s="26"/>
       <c r="B157" s="47"/>
-      <c r="C157" s="266"/>
-      <c r="D157" s="266"/>
+      <c r="C157" s="193"/>
+      <c r="D157" s="193"/>
       <c r="E157" s="48"/>
       <c r="F157" s="48"/>
       <c r="G157" s="35"/>
@@ -5699,8 +5577,8 @@
     <row r="158" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A158" s="26"/>
       <c r="B158" s="47"/>
-      <c r="C158" s="266"/>
-      <c r="D158" s="266"/>
+      <c r="C158" s="193"/>
+      <c r="D158" s="193"/>
       <c r="E158" s="48"/>
       <c r="F158" s="48"/>
       <c r="G158" s="35"/>
@@ -5708,8 +5586,8 @@
     <row r="159" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A159" s="26"/>
       <c r="B159" s="47"/>
-      <c r="C159" s="266"/>
-      <c r="D159" s="266"/>
+      <c r="C159" s="193"/>
+      <c r="D159" s="193"/>
       <c r="E159" s="48"/>
       <c r="F159" s="48"/>
       <c r="G159" s="35"/>
@@ -5717,8 +5595,8 @@
     <row r="160" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A160" s="26"/>
       <c r="B160" s="47"/>
-      <c r="C160" s="266"/>
-      <c r="D160" s="266"/>
+      <c r="C160" s="193"/>
+      <c r="D160" s="193"/>
       <c r="E160" s="48"/>
       <c r="F160" s="48"/>
       <c r="G160" s="35"/>
@@ -5726,8 +5604,8 @@
     <row r="161" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A161" s="26"/>
       <c r="B161" s="47"/>
-      <c r="C161" s="266"/>
-      <c r="D161" s="266"/>
+      <c r="C161" s="193"/>
+      <c r="D161" s="193"/>
       <c r="E161" s="48"/>
       <c r="F161" s="48"/>
       <c r="G161" s="35"/>
@@ -5735,8 +5613,8 @@
     <row r="162" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A162" s="26"/>
       <c r="B162" s="47"/>
-      <c r="C162" s="266"/>
-      <c r="D162" s="266"/>
+      <c r="C162" s="193"/>
+      <c r="D162" s="193"/>
       <c r="E162" s="48"/>
       <c r="F162" s="48"/>
       <c r="G162" s="35"/>
@@ -5744,8 +5622,8 @@
     <row r="163" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A163" s="26"/>
       <c r="B163" s="47"/>
-      <c r="C163" s="266"/>
-      <c r="D163" s="266"/>
+      <c r="C163" s="193"/>
+      <c r="D163" s="193"/>
       <c r="E163" s="48"/>
       <c r="F163" s="48"/>
       <c r="G163" s="49"/>
@@ -5753,8 +5631,8 @@
     <row r="164" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A164" s="26"/>
       <c r="B164" s="47"/>
-      <c r="C164" s="266"/>
-      <c r="D164" s="266"/>
+      <c r="C164" s="193"/>
+      <c r="D164" s="193"/>
       <c r="E164" s="48"/>
       <c r="F164" s="48"/>
       <c r="G164" s="49"/>
@@ -5762,8 +5640,8 @@
     <row r="165" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A165" s="26"/>
       <c r="B165" s="47"/>
-      <c r="C165" s="266"/>
-      <c r="D165" s="266"/>
+      <c r="C165" s="193"/>
+      <c r="D165" s="193"/>
       <c r="E165" s="48"/>
       <c r="F165" s="48"/>
       <c r="G165" s="49"/>
@@ -5771,8 +5649,8 @@
     <row r="166" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A166" s="26"/>
       <c r="B166" s="47"/>
-      <c r="C166" s="266"/>
-      <c r="D166" s="266"/>
+      <c r="C166" s="193"/>
+      <c r="D166" s="193"/>
       <c r="E166" s="48"/>
       <c r="F166" s="48"/>
       <c r="G166" s="49"/>
@@ -5780,11 +5658,11 @@
     <row r="167" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="26"/>
       <c r="B167" s="47"/>
-      <c r="C167" s="265"/>
-      <c r="D167" s="265"/>
-      <c r="E167" s="265"/>
-      <c r="F167" s="265"/>
-      <c r="G167" s="265"/>
+      <c r="C167" s="195"/>
+      <c r="D167" s="195"/>
+      <c r="E167" s="195"/>
+      <c r="F167" s="195"/>
+      <c r="G167" s="195"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A168" s="26"/>
@@ -5842,8 +5720,8 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A174" s="26"/>
-      <c r="B174" s="266"/>
-      <c r="C174" s="266"/>
+      <c r="B174" s="193"/>
+      <c r="C174" s="193"/>
       <c r="D174" s="26"/>
       <c r="E174" s="26"/>
       <c r="F174" s="26"/>
@@ -5851,8 +5729,8 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A175" s="26"/>
-      <c r="B175" s="266"/>
-      <c r="C175" s="266"/>
+      <c r="B175" s="193"/>
+      <c r="C175" s="193"/>
       <c r="D175" s="26"/>
       <c r="E175" s="26"/>
       <c r="F175" s="26"/>
@@ -5860,8 +5738,8 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A176" s="26"/>
-      <c r="B176" s="266"/>
-      <c r="C176" s="266"/>
+      <c r="B176" s="193"/>
+      <c r="C176" s="193"/>
       <c r="D176" s="26"/>
       <c r="E176" s="26"/>
       <c r="F176" s="26"/>
@@ -5869,8 +5747,8 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A177" s="26"/>
-      <c r="B177" s="266"/>
-      <c r="C177" s="266"/>
+      <c r="B177" s="193"/>
+      <c r="C177" s="193"/>
       <c r="D177" s="26"/>
       <c r="E177" s="26"/>
       <c r="F177" s="26"/>
@@ -5878,8 +5756,8 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A178" s="26"/>
-      <c r="B178" s="266"/>
-      <c r="C178" s="266"/>
+      <c r="B178" s="193"/>
+      <c r="C178" s="193"/>
       <c r="D178" s="26"/>
       <c r="E178" s="26"/>
       <c r="F178" s="26"/>
@@ -5887,8 +5765,8 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A179" s="26"/>
-      <c r="B179" s="266"/>
-      <c r="C179" s="266"/>
+      <c r="B179" s="193"/>
+      <c r="C179" s="193"/>
       <c r="D179" s="26"/>
       <c r="E179" s="26"/>
       <c r="F179" s="26"/>
@@ -5896,8 +5774,8 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A180" s="26"/>
-      <c r="B180" s="266"/>
-      <c r="C180" s="266"/>
+      <c r="B180" s="193"/>
+      <c r="C180" s="193"/>
       <c r="D180" s="26"/>
       <c r="E180" s="26"/>
       <c r="F180" s="26"/>
@@ -5905,8 +5783,8 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A181" s="26"/>
-      <c r="B181" s="266"/>
-      <c r="C181" s="266"/>
+      <c r="B181" s="193"/>
+      <c r="C181" s="193"/>
       <c r="D181" s="26"/>
       <c r="E181" s="26"/>
       <c r="F181" s="26"/>
@@ -5914,8 +5792,8 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A182" s="26"/>
-      <c r="B182" s="266"/>
-      <c r="C182" s="266"/>
+      <c r="B182" s="193"/>
+      <c r="C182" s="193"/>
       <c r="D182" s="26"/>
       <c r="E182" s="26"/>
       <c r="F182" s="26"/>
@@ -5923,8 +5801,8 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A183" s="26"/>
-      <c r="B183" s="266"/>
-      <c r="C183" s="266"/>
+      <c r="B183" s="193"/>
+      <c r="C183" s="193"/>
       <c r="D183" s="26"/>
       <c r="E183" s="26"/>
       <c r="F183" s="26"/>
@@ -5932,8 +5810,8 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A184" s="26"/>
-      <c r="B184" s="266"/>
-      <c r="C184" s="266"/>
+      <c r="B184" s="193"/>
+      <c r="C184" s="193"/>
       <c r="D184" s="26"/>
       <c r="E184" s="26"/>
       <c r="F184" s="26"/>
@@ -5941,8 +5819,8 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A185" s="26"/>
-      <c r="B185" s="266"/>
-      <c r="C185" s="266"/>
+      <c r="B185" s="193"/>
+      <c r="C185" s="193"/>
       <c r="D185" s="26"/>
       <c r="E185" s="26"/>
       <c r="F185" s="26"/>
@@ -5959,21 +5837,21 @@
     </row>
     <row r="187" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="45"/>
-      <c r="B187" s="261"/>
-      <c r="C187" s="261"/>
-      <c r="D187" s="261"/>
-      <c r="E187" s="261"/>
-      <c r="F187" s="261"/>
-      <c r="G187" s="261"/>
+      <c r="B187" s="192"/>
+      <c r="C187" s="192"/>
+      <c r="D187" s="192"/>
+      <c r="E187" s="192"/>
+      <c r="F187" s="192"/>
+      <c r="G187" s="192"/>
     </row>
     <row r="188" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="45"/>
-      <c r="B188" s="261"/>
-      <c r="C188" s="261"/>
-      <c r="D188" s="261"/>
-      <c r="E188" s="261"/>
-      <c r="F188" s="261"/>
-      <c r="G188" s="261"/>
+      <c r="B188" s="192"/>
+      <c r="C188" s="192"/>
+      <c r="D188" s="192"/>
+      <c r="E188" s="192"/>
+      <c r="F188" s="192"/>
+      <c r="G188" s="192"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A189" s="26"/>
@@ -6004,89 +5882,83 @@
     </row>
     <row r="192" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="45"/>
-      <c r="B192" s="268"/>
-      <c r="C192" s="268"/>
-      <c r="D192" s="268"/>
-      <c r="E192" s="268"/>
-      <c r="F192" s="268"/>
-      <c r="G192" s="268"/>
+      <c r="B192" s="194"/>
+      <c r="C192" s="194"/>
+      <c r="D192" s="194"/>
+      <c r="E192" s="194"/>
+      <c r="F192" s="194"/>
+      <c r="G192" s="194"/>
     </row>
     <row r="193" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="45"/>
-      <c r="B193" s="268"/>
-      <c r="C193" s="268"/>
-      <c r="D193" s="268"/>
-      <c r="E193" s="268"/>
-      <c r="F193" s="268"/>
-      <c r="G193" s="268"/>
+      <c r="B193" s="194"/>
+      <c r="C193" s="194"/>
+      <c r="D193" s="194"/>
+      <c r="E193" s="194"/>
+      <c r="F193" s="194"/>
+      <c r="G193" s="194"/>
     </row>
     <row r="194" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="45"/>
-      <c r="B194" s="268"/>
-      <c r="C194" s="268"/>
-      <c r="D194" s="268"/>
-      <c r="E194" s="268"/>
-      <c r="F194" s="268"/>
-      <c r="G194" s="268"/>
+      <c r="B194" s="194"/>
+      <c r="C194" s="194"/>
+      <c r="D194" s="194"/>
+      <c r="E194" s="194"/>
+      <c r="F194" s="194"/>
+      <c r="G194" s="194"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A195" s="45"/>
-      <c r="B195" s="268"/>
-      <c r="C195" s="268"/>
-      <c r="D195" s="268"/>
-      <c r="E195" s="268"/>
-      <c r="F195" s="268"/>
-      <c r="G195" s="268"/>
+      <c r="B195" s="194"/>
+      <c r="C195" s="194"/>
+      <c r="D195" s="194"/>
+      <c r="E195" s="194"/>
+      <c r="F195" s="194"/>
+      <c r="G195" s="194"/>
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="B187:G187"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="B195:G195"/>
-    <mergeCell ref="B188:G188"/>
-    <mergeCell ref="B193:G193"/>
-    <mergeCell ref="B194:G194"/>
-    <mergeCell ref="B192:G192"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="C167:G167"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="C149:G149"/>
-    <mergeCell ref="C152:G152"/>
-    <mergeCell ref="C154:G154"/>
-    <mergeCell ref="C155:G155"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="C156:G156"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C143:G143"/>
-    <mergeCell ref="C145:G145"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C147:G147"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C112:G112"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C107:G107"/>
-    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="B80:B85"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="I31:O31"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="C26:G26"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="B4:G4"/>
@@ -6111,47 +5983,53 @@
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="B47:G47"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="I31:O31"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="C105:G105"/>
-    <mergeCell ref="B80:B85"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="C145:G145"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="C147:G147"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C167:G167"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="C149:G149"/>
+    <mergeCell ref="C152:G152"/>
+    <mergeCell ref="C154:G154"/>
+    <mergeCell ref="C155:G155"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C156:G156"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="B187:G187"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="B195:G195"/>
+    <mergeCell ref="B188:G188"/>
+    <mergeCell ref="B193:G193"/>
+    <mergeCell ref="B194:G194"/>
+    <mergeCell ref="B192:G192"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B185:C185"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -6170,8 +6048,8 @@
   <sheetPr codeName="Hoja3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:U148"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6633,7 +6511,9 @@
       <c r="O7" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="145"/>
+      <c r="P7" s="168" t="s">
+        <v>357</v>
+      </c>
       <c r="Q7" s="145" t="s">
         <v>168</v>
       </c>
@@ -6643,8 +6523,12 @@
       <c r="S7" s="168" t="s">
         <v>341</v>
       </c>
-      <c r="T7" s="145"/>
-      <c r="U7" s="146"/>
+      <c r="T7" s="145" t="s">
+        <v>169</v>
+      </c>
+      <c r="U7" s="146" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="8" spans="1:21" ht="40" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="138" t="s">
@@ -7588,13 +7472,13 @@
       <c r="J22" s="176" t="s">
         <v>241</v>
       </c>
-      <c r="K22" s="270" t="s">
+      <c r="K22" s="183" t="s">
         <v>336</v>
       </c>
       <c r="L22" s="165" t="s">
         <v>264</v>
       </c>
-      <c r="M22" s="270" t="s">
+      <c r="M22" s="183" t="s">
         <v>338</v>
       </c>
       <c r="N22" s="144" t="s">
@@ -7651,13 +7535,13 @@
       <c r="J23" s="176" t="s">
         <v>241</v>
       </c>
-      <c r="K23" s="271" t="s">
+      <c r="K23" s="184" t="s">
         <v>337</v>
       </c>
       <c r="L23" s="165" t="s">
         <v>264</v>
       </c>
-      <c r="M23" s="271" t="s">
+      <c r="M23" s="184" t="s">
         <v>339</v>
       </c>
       <c r="N23" s="144" t="s">
@@ -7762,7 +7646,7 @@
       <c r="D25" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="269" t="s">
+      <c r="E25" s="182" t="s">
         <v>34</v>
       </c>
       <c r="F25" s="162" t="s">
@@ -7827,7 +7711,7 @@
       <c r="D26" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="269" t="s">
+      <c r="E26" s="182" t="s">
         <v>34</v>
       </c>
       <c r="F26" s="162" t="s">
@@ -7892,7 +7776,7 @@
       <c r="D27" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="269" t="s">
+      <c r="E27" s="182" t="s">
         <v>65</v>
       </c>
       <c r="F27" s="162" t="s">
@@ -7905,7 +7789,9 @@
       <c r="I27" s="135" t="s">
         <v>218</v>
       </c>
-      <c r="J27" s="149"/>
+      <c r="J27" s="149" t="s">
+        <v>354</v>
+      </c>
       <c r="K27" s="178" t="s">
         <v>297</v>
       </c>
@@ -7954,7 +7840,7 @@
       <c r="D28" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="269" t="s">
+      <c r="E28" s="182" t="s">
         <v>65</v>
       </c>
       <c r="F28" s="177" t="s">
@@ -7968,7 +7854,9 @@
       <c r="I28" s="135" t="s">
         <v>218</v>
       </c>
-      <c r="J28" s="149"/>
+      <c r="J28" s="149" t="s">
+        <v>353</v>
+      </c>
       <c r="K28" s="165" t="s">
         <v>298</v>
       </c>
@@ -8017,7 +7905,7 @@
       <c r="D29" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="269" t="s">
+      <c r="E29" s="182" t="s">
         <v>65</v>
       </c>
       <c r="F29" s="177" t="s">
@@ -8031,7 +7919,9 @@
       <c r="I29" s="135" t="s">
         <v>218</v>
       </c>
-      <c r="J29" s="149"/>
+      <c r="J29" s="149" t="s">
+        <v>352</v>
+      </c>
       <c r="K29" s="166" t="s">
         <v>299</v>
       </c>
@@ -8080,7 +7970,7 @@
       <c r="D30" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="269" t="s">
+      <c r="E30" s="182" t="s">
         <v>65</v>
       </c>
       <c r="F30" s="177" t="s">
@@ -8094,7 +7984,9 @@
       <c r="I30" s="135" t="s">
         <v>218</v>
       </c>
-      <c r="J30" s="149"/>
+      <c r="J30" s="149" t="s">
+        <v>355</v>
+      </c>
       <c r="K30" s="180" t="s">
         <v>306</v>
       </c>
@@ -8150,7 +8042,9 @@
         <v>App STARADMIN</v>
       </c>
       <c r="H31" s="132"/>
-      <c r="I31" s="174"/>
+      <c r="I31" s="174" t="s">
+        <v>356</v>
+      </c>
       <c r="J31" s="149"/>
       <c r="K31" s="165" t="s">
         <v>301</v>
@@ -9085,105 +8979,105 @@
   <autoFilter ref="A1:U26"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="N23:Q23 Q2:S2 P5 U17 L6:L9 S3:S26 J2:J25 N22:O22 Q3:R4 N2:N22 N24:O24 N25:N26 Q17:R17 R16 Q21:R21 R18:R20 R5">
-    <cfRule type="expression" dxfId="49" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="25" stopIfTrue="1">
       <formula>$E2&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A26">
-    <cfRule type="cellIs" dxfId="48" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="26" stopIfTrue="1" operator="equal">
       <formula>"Vigente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" stopIfTrue="1" operator="equal">
       <formula>"No Vigente"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27 R27:S27">
-    <cfRule type="expression" dxfId="45" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="21" stopIfTrue="1">
       <formula>$E27&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" dxfId="44" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="22" stopIfTrue="1" operator="equal">
       <formula>"Vigente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="23" stopIfTrue="1" operator="equal">
       <formula>"No Vigente"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28 R28:S28">
-    <cfRule type="expression" dxfId="42" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="18" stopIfTrue="1">
       <formula>$E28&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="41" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="19" stopIfTrue="1" operator="equal">
       <formula>"Vigente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="20" stopIfTrue="1" operator="equal">
       <formula>"No Vigente"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29 R29:S29">
-    <cfRule type="expression" dxfId="39" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="15" stopIfTrue="1">
       <formula>$E29&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" dxfId="38" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="16" stopIfTrue="1" operator="equal">
       <formula>"Vigente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" stopIfTrue="1" operator="equal">
       <formula>"No Vigente"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30 R30:S30">
-    <cfRule type="expression" dxfId="36" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="12" stopIfTrue="1">
       <formula>$E30&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="35" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="13" stopIfTrue="1" operator="equal">
       <formula>"Vigente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="14" stopIfTrue="1" operator="equal">
       <formula>"No Vigente"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31 R31:S31">
-    <cfRule type="expression" dxfId="33" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="9" stopIfTrue="1">
       <formula>$E31&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="32" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Vigente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="11" stopIfTrue="1" operator="equal">
       <formula>"No Vigente"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="expression" dxfId="30" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
       <formula>$E28&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30">
-    <cfRule type="expression" dxfId="29" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
       <formula>$E30&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29">
-    <cfRule type="expression" dxfId="28" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
       <formula>$E29&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="15" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
       <formula>$E5&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6">
-    <cfRule type="expression" dxfId="8" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
       <formula>$E6&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9193,7 +9087,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>$E9&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13385,12 +13279,12 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:A5 A7:A286 B8:B293 I3:L300 D3:H285 B6 C6:C282">
-    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>A1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6 B7 D2:H2">
-    <cfRule type="cellIs" dxfId="26" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13415,8 +13309,8 @@
   <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:L281"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13918,7 +13812,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>294</v>
+        <v>354</v>
       </c>
       <c r="B23" s="172" t="s">
         <v>284</v>
@@ -13938,7 +13832,7 @@
     </row>
     <row r="24" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>295</v>
+        <v>353</v>
       </c>
       <c r="B24" s="172" t="s">
         <v>284</v>
@@ -13958,7 +13852,7 @@
     </row>
     <row r="25" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="177" t="s">
-        <v>305</v>
+        <v>352</v>
       </c>
       <c r="B25" s="172" t="s">
         <v>284</v>
@@ -13978,7 +13872,7 @@
     </row>
     <row r="26" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="177" t="s">
-        <v>296</v>
+        <v>355</v>
       </c>
       <c r="B26" s="172" t="s">
         <v>284</v>
@@ -13998,7 +13892,7 @@
     </row>
     <row r="27" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="177" t="s">
-        <v>300</v>
+        <v>356</v>
       </c>
       <c r="B27" s="172" t="s">
         <v>332</v>
@@ -17441,17 +17335,17 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E4:E5 E7:E9 A22 F22:L268 E22:E279 D22:D275 B28:B255 D10:D11 D13:D18 A3:A11 A13:A20 F3:L11 E11 E13:L20 A28:A274 C28:C281">
-    <cfRule type="cellIs" dxfId="25" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>A2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 E3 E2:L2">
-    <cfRule type="cellIs" dxfId="24" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="25" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 C9:D9 A21 E21:L21 A12 D12:L12">
-    <cfRule type="cellIs" dxfId="23" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="27" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Area de proceso CM/REGITCON_V1.0_2017.xlsx
+++ b/Area de proceso CM/REGITCON_V1.0_2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="17760" windowHeight="17440" tabRatio="518" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17760" windowHeight="17440" tabRatio="518" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="92" r:id="rId1"/>
@@ -726,9 +726,6 @@
     <t>Cuando se aprueba</t>
   </si>
   <si>
-    <t>01\03\2017</t>
-  </si>
-  <si>
     <t>Keyla Cusi</t>
   </si>
   <si>
@@ -1236,6 +1233,9 @@
   </si>
   <si>
     <t>ninguna vez</t>
+  </si>
+  <si>
+    <t>30\11\2017</t>
   </si>
 </sst>
 </file>
@@ -2093,10 +2093,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="4" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2286,245 +2282,249 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -3391,15 +3391,15 @@
       <c r="H1" s="85"/>
     </row>
     <row r="2" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
     </row>
     <row r="3" spans="2:8" ht="13" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="85"/>
@@ -3411,148 +3411,141 @@
       <c r="H3" s="85"/>
     </row>
     <row r="4" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="161" t="s">
+      <c r="C4" s="160" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="161" t="s">
+      <c r="D4" s="160" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="161" t="s">
+      <c r="E4" s="160" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="161" t="s">
+      <c r="F4" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="161" t="s">
+      <c r="G4" s="160" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="161" t="s">
+      <c r="H4" s="160" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="189">
+      <c r="B5" s="188">
         <v>1</v>
       </c>
-      <c r="C5" s="190">
+      <c r="C5" s="189">
         <v>1</v>
       </c>
-      <c r="D5" s="191">
+      <c r="D5" s="190">
         <v>43049</v>
       </c>
-      <c r="E5" s="189" t="s">
+      <c r="E5" s="188" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="188" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="188" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="188" t="s">
         <v>189</v>
       </c>
-      <c r="F5" s="189" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="189" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="189" t="s">
-        <v>190</v>
-      </c>
     </row>
     <row r="6" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="189"/>
-      <c r="C6" s="190"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
-      <c r="G6" s="189"/>
-      <c r="H6" s="189"/>
+      <c r="B6" s="188"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="188"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="188"/>
     </row>
     <row r="7" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="185"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="185"/>
-      <c r="F7" s="185"/>
-      <c r="G7" s="185"/>
-      <c r="H7" s="185"/>
+      <c r="B7" s="184"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="184"/>
     </row>
     <row r="8" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="185"/>
-      <c r="C8" s="186"/>
-      <c r="D8" s="185"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="185"/>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
+      <c r="B8" s="184"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="185"/>
-      <c r="C9" s="186"/>
-      <c r="D9" s="187"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="185"/>
-      <c r="H9" s="185"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="186"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="184"/>
     </row>
     <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="185"/>
-      <c r="C10" s="186"/>
-      <c r="D10" s="185"/>
-      <c r="E10" s="185"/>
-      <c r="F10" s="185"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="185"/>
+      <c r="B10" s="184"/>
+      <c r="C10" s="185"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="184"/>
+      <c r="F10" s="184"/>
+      <c r="G10" s="184"/>
+      <c r="H10" s="184"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="185"/>
-      <c r="C11" s="186"/>
-      <c r="D11" s="187"/>
-      <c r="E11" s="185"/>
-      <c r="F11" s="185"/>
-      <c r="G11" s="185"/>
-      <c r="H11" s="185"/>
+      <c r="B11" s="184"/>
+      <c r="C11" s="185"/>
+      <c r="D11" s="186"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="184"/>
     </row>
     <row r="12" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="185"/>
-      <c r="C12" s="186"/>
-      <c r="D12" s="185"/>
-      <c r="E12" s="185"/>
-      <c r="F12" s="185"/>
-      <c r="G12" s="185"/>
-      <c r="H12" s="185"/>
+      <c r="B12" s="184"/>
+      <c r="C12" s="185"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="184"/>
+      <c r="F12" s="184"/>
+      <c r="G12" s="184"/>
+      <c r="H12" s="184"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="160"/>
-      <c r="C13" s="160"/>
-      <c r="D13" s="160"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="160"/>
-      <c r="H13" s="160"/>
+      <c r="B13" s="159"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="159"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="160"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
+      <c r="B14" s="159"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -3561,13 +3554,20 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3581,7 +3581,7 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Q195"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C33" sqref="C33:G33"/>
     </sheetView>
   </sheetViews>
@@ -3599,26 +3599,26 @@
     <row r="1" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="17"/>
-      <c r="C1" s="211" t="s">
-        <v>309</v>
-      </c>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="213"/>
+      <c r="C1" s="239" t="s">
+        <v>308</v>
+      </c>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="241"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="214">
+      <c r="C2" s="242">
         <v>43049</v>
       </c>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="216"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
+      <c r="G2" s="244"/>
     </row>
     <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
@@ -3632,14 +3632,14 @@
     </row>
     <row r="4" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
-      <c r="B4" s="217" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="218"/>
-      <c r="D4" s="218"/>
-      <c r="E4" s="218"/>
-      <c r="F4" s="218"/>
-      <c r="G4" s="219"/>
+      <c r="B4" s="245" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="246"/>
+      <c r="D4" s="246"/>
+      <c r="E4" s="246"/>
+      <c r="F4" s="246"/>
+      <c r="G4" s="247"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
@@ -3666,12 +3666,12 @@
         <v>49</v>
       </c>
       <c r="C7" s="25"/>
-      <c r="D7" s="220" t="s">
+      <c r="D7" s="248" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="221"/>
-      <c r="F7" s="221"/>
-      <c r="G7" s="222"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="250"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
@@ -3687,12 +3687,12 @@
         <v>29</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="247" t="s">
+      <c r="D9" s="224" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="247"/>
-      <c r="F9" s="247"/>
-      <c r="G9" s="247"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
@@ -3709,12 +3709,12 @@
         <v>29</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="247" t="s">
+      <c r="D11" s="224" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="247"/>
-      <c r="F11" s="247"/>
-      <c r="G11" s="247"/>
+      <c r="E11" s="224"/>
+      <c r="F11" s="224"/>
+      <c r="G11" s="224"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
@@ -3731,12 +3731,12 @@
         <v>29</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="247" t="s">
+      <c r="D13" s="224" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="247"/>
-      <c r="F13" s="247"/>
-      <c r="G13" s="247"/>
+      <c r="E13" s="224"/>
+      <c r="F13" s="224"/>
+      <c r="G13" s="224"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
@@ -3753,12 +3753,12 @@
         <v>29</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="247" t="s">
+      <c r="D15" s="224" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="247"/>
-      <c r="F15" s="247"/>
-      <c r="G15" s="247"/>
+      <c r="E15" s="224"/>
+      <c r="F15" s="224"/>
+      <c r="G15" s="224"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
@@ -3788,84 +3788,84 @@
       <c r="A19" s="4"/>
     </row>
     <row r="20" spans="1:17" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="205" t="s">
+      <c r="B20" s="194" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="206"/>
-      <c r="D20" s="206"/>
-      <c r="E20" s="206"/>
-      <c r="F20" s="206"/>
-      <c r="G20" s="207"/>
+      <c r="C20" s="195"/>
+      <c r="D20" s="195"/>
+      <c r="E20" s="195"/>
+      <c r="F20" s="195"/>
+      <c r="G20" s="196"/>
     </row>
     <row r="21" spans="1:17" s="28" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="208" t="s">
+      <c r="C21" s="197" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="209"/>
-      <c r="E21" s="209"/>
-      <c r="F21" s="209"/>
-      <c r="G21" s="210"/>
+      <c r="D21" s="198"/>
+      <c r="E21" s="198"/>
+      <c r="F21" s="198"/>
+      <c r="G21" s="199"/>
     </row>
     <row r="22" spans="1:17" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="249" t="s">
+      <c r="C22" s="226" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="250"/>
-      <c r="E22" s="250"/>
-      <c r="F22" s="250"/>
-      <c r="G22" s="251"/>
+      <c r="D22" s="227"/>
+      <c r="E22" s="227"/>
+      <c r="F22" s="227"/>
+      <c r="G22" s="228"/>
     </row>
     <row r="23" spans="1:17" s="28" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="238" t="s">
+      <c r="B23" s="258" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="228" t="s">
+      <c r="C23" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="229"/>
-      <c r="E23" s="229"/>
-      <c r="F23" s="229"/>
-      <c r="G23" s="230"/>
+      <c r="D23" s="192"/>
+      <c r="E23" s="192"/>
+      <c r="F23" s="192"/>
+      <c r="G23" s="193"/>
     </row>
     <row r="24" spans="1:17" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="239"/>
-      <c r="C24" s="228" t="s">
+      <c r="B24" s="259"/>
+      <c r="C24" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="229"/>
-      <c r="E24" s="229"/>
-      <c r="F24" s="229"/>
-      <c r="G24" s="230"/>
+      <c r="D24" s="192"/>
+      <c r="E24" s="192"/>
+      <c r="F24" s="192"/>
+      <c r="G24" s="193"/>
     </row>
     <row r="25" spans="1:17" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="228" t="s">
+      <c r="C25" s="191" t="s">
         <v>128</v>
       </c>
-      <c r="D25" s="229"/>
-      <c r="E25" s="229"/>
-      <c r="F25" s="229"/>
-      <c r="G25" s="230"/>
+      <c r="D25" s="192"/>
+      <c r="E25" s="192"/>
+      <c r="F25" s="192"/>
+      <c r="G25" s="193"/>
     </row>
     <row r="26" spans="1:17" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="126" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="228" t="s">
+      <c r="C26" s="191" t="s">
         <v>129</v>
       </c>
-      <c r="D26" s="229"/>
-      <c r="E26" s="229"/>
-      <c r="F26" s="229"/>
-      <c r="G26" s="230"/>
+      <c r="D26" s="192"/>
+      <c r="E26" s="192"/>
+      <c r="F26" s="192"/>
+      <c r="G26" s="193"/>
     </row>
     <row r="27" spans="1:17" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="127"/>
@@ -3876,14 +3876,14 @@
       <c r="G27" s="128"/>
     </row>
     <row r="28" spans="1:17" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="205" t="s">
+      <c r="B28" s="194" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="206"/>
-      <c r="D28" s="206"/>
-      <c r="E28" s="206"/>
-      <c r="F28" s="206"/>
-      <c r="G28" s="207"/>
+      <c r="C28" s="195"/>
+      <c r="D28" s="195"/>
+      <c r="E28" s="195"/>
+      <c r="F28" s="195"/>
+      <c r="G28" s="196"/>
       <c r="H28" s="7"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -3896,14 +3896,14 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" s="28" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="259" t="s">
+      <c r="B29" s="236" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="260"/>
-      <c r="D29" s="260"/>
-      <c r="E29" s="260"/>
-      <c r="F29" s="260"/>
-      <c r="G29" s="261"/>
+      <c r="C29" s="237"/>
+      <c r="D29" s="237"/>
+      <c r="E29" s="237"/>
+      <c r="F29" s="237"/>
+      <c r="G29" s="238"/>
       <c r="H29" s="7"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -3917,14 +3917,14 @@
     </row>
     <row r="30" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
-      <c r="B30" s="240" t="s">
+      <c r="B30" s="260" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="241"/>
-      <c r="D30" s="241"/>
-      <c r="E30" s="241"/>
-      <c r="F30" s="241"/>
-      <c r="G30" s="242"/>
+      <c r="C30" s="261"/>
+      <c r="D30" s="261"/>
+      <c r="E30" s="261"/>
+      <c r="F30" s="261"/>
+      <c r="G30" s="262"/>
       <c r="H30" s="1"/>
       <c r="I30" s="3"/>
       <c r="J30" s="1"/>
@@ -3941,21 +3941,21 @@
       <c r="B31" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="234" t="s">
+      <c r="C31" s="254" t="s">
         <v>113</v>
       </c>
-      <c r="D31" s="234"/>
-      <c r="E31" s="234"/>
-      <c r="F31" s="234"/>
-      <c r="G31" s="235"/>
+      <c r="D31" s="254"/>
+      <c r="E31" s="254"/>
+      <c r="F31" s="254"/>
+      <c r="G31" s="255"/>
       <c r="H31" s="57"/>
-      <c r="I31" s="248"/>
-      <c r="J31" s="248"/>
-      <c r="K31" s="248"/>
-      <c r="L31" s="248"/>
-      <c r="M31" s="248"/>
-      <c r="N31" s="248"/>
-      <c r="O31" s="248"/>
+      <c r="I31" s="225"/>
+      <c r="J31" s="225"/>
+      <c r="K31" s="225"/>
+      <c r="L31" s="225"/>
+      <c r="M31" s="225"/>
+      <c r="N31" s="225"/>
+      <c r="O31" s="225"/>
       <c r="P31" s="11"/>
       <c r="Q31" s="1"/>
     </row>
@@ -3983,13 +3983,13 @@
       <c r="B33" s="59">
         <v>1</v>
       </c>
-      <c r="C33" s="252" t="s">
+      <c r="C33" s="229" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="252"/>
-      <c r="E33" s="252"/>
-      <c r="F33" s="252"/>
-      <c r="G33" s="253"/>
+      <c r="D33" s="229"/>
+      <c r="E33" s="229"/>
+      <c r="F33" s="229"/>
+      <c r="G33" s="230"/>
       <c r="H33" s="57"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="1"/>
@@ -4009,13 +4009,13 @@
     <row r="35" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
       <c r="B35" s="60"/>
-      <c r="C35" s="198" t="s">
+      <c r="C35" s="218" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="198"/>
-      <c r="E35" s="198"/>
-      <c r="F35" s="198"/>
-      <c r="G35" s="199"/>
+      <c r="D35" s="218"/>
+      <c r="E35" s="218"/>
+      <c r="F35" s="218"/>
+      <c r="G35" s="219"/>
       <c r="H35" s="57"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="1"/>
@@ -4025,13 +4025,13 @@
       <c r="B36" s="59">
         <v>1</v>
       </c>
-      <c r="C36" s="252" t="s">
+      <c r="C36" s="229" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="252"/>
-      <c r="E36" s="252"/>
-      <c r="F36" s="252"/>
-      <c r="G36" s="253"/>
+      <c r="D36" s="229"/>
+      <c r="E36" s="229"/>
+      <c r="F36" s="229"/>
+      <c r="G36" s="230"/>
       <c r="H36" s="57"/>
       <c r="P36" s="11"/>
       <c r="Q36" s="1"/>
@@ -4041,13 +4041,13 @@
       <c r="B37" s="59">
         <v>2</v>
       </c>
-      <c r="C37" s="252" t="s">
+      <c r="C37" s="229" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="252"/>
-      <c r="E37" s="252"/>
-      <c r="F37" s="252"/>
-      <c r="G37" s="253"/>
+      <c r="D37" s="229"/>
+      <c r="E37" s="229"/>
+      <c r="F37" s="229"/>
+      <c r="G37" s="230"/>
       <c r="H37" s="57"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="1"/>
@@ -4057,13 +4057,13 @@
       <c r="B38" s="59">
         <v>3</v>
       </c>
-      <c r="C38" s="254" t="s">
+      <c r="C38" s="231" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="254"/>
-      <c r="E38" s="254"/>
-      <c r="F38" s="254"/>
-      <c r="G38" s="255"/>
+      <c r="D38" s="231"/>
+      <c r="E38" s="231"/>
+      <c r="F38" s="231"/>
+      <c r="G38" s="232"/>
       <c r="H38" s="11"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -4155,10 +4155,10 @@
     <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
       <c r="B45" s="105"/>
-      <c r="C45" s="258" t="s">
+      <c r="C45" s="235" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="258"/>
+      <c r="D45" s="235"/>
       <c r="E45" s="110"/>
       <c r="F45" s="110"/>
       <c r="G45" s="111"/>
@@ -4169,27 +4169,27 @@
     <row r="46" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" s="112"/>
-      <c r="C46" s="256" t="s">
+      <c r="C46" s="233" t="s">
         <v>108</v>
       </c>
-      <c r="D46" s="256"/>
-      <c r="E46" s="256"/>
-      <c r="F46" s="256"/>
-      <c r="G46" s="257"/>
+      <c r="D46" s="233"/>
+      <c r="E46" s="233"/>
+      <c r="F46" s="233"/>
+      <c r="G46" s="234"/>
       <c r="H46" s="11"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
     <row r="47" spans="1:17" ht="16" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
-      <c r="B47" s="243" t="s">
+      <c r="B47" s="220" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="244"/>
-      <c r="D47" s="244"/>
-      <c r="E47" s="244"/>
-      <c r="F47" s="244"/>
-      <c r="G47" s="245"/>
+      <c r="C47" s="221"/>
+      <c r="D47" s="221"/>
+      <c r="E47" s="221"/>
+      <c r="F47" s="221"/>
+      <c r="G47" s="222"/>
       <c r="H47" s="1"/>
       <c r="I47" s="3"/>
       <c r="J47" s="1"/>
@@ -4218,13 +4218,13 @@
       <c r="B49" s="59">
         <v>1</v>
       </c>
-      <c r="C49" s="236" t="s">
+      <c r="C49" s="256" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="236"/>
-      <c r="E49" s="236"/>
-      <c r="F49" s="236"/>
-      <c r="G49" s="237"/>
+      <c r="D49" s="256"/>
+      <c r="E49" s="256"/>
+      <c r="F49" s="256"/>
+      <c r="G49" s="257"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="9"/>
@@ -4356,8 +4356,8 @@
       <c r="F55" s="66"/>
       <c r="G55" s="67"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="246"/>
-      <c r="J55" s="246"/>
+      <c r="I55" s="223"/>
+      <c r="J55" s="223"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -4377,8 +4377,8 @@
       <c r="F56" s="115"/>
       <c r="G56" s="116"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="246"/>
-      <c r="J56" s="246"/>
+      <c r="I56" s="223"/>
+      <c r="J56" s="223"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -4398,8 +4398,8 @@
       <c r="F57" s="115"/>
       <c r="G57" s="116"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="246"/>
-      <c r="J57" s="246"/>
+      <c r="I57" s="223"/>
+      <c r="J57" s="223"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -4419,8 +4419,8 @@
       <c r="F58" s="115"/>
       <c r="G58" s="116"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="246"/>
-      <c r="J58" s="246"/>
+      <c r="I58" s="223"/>
+      <c r="J58" s="223"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -4440,8 +4440,8 @@
       <c r="F59" s="115"/>
       <c r="G59" s="116"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="246"/>
-      <c r="J59" s="246"/>
+      <c r="I59" s="223"/>
+      <c r="J59" s="223"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -4461,8 +4461,8 @@
       <c r="F60" s="83"/>
       <c r="G60" s="84"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="246"/>
-      <c r="J60" s="246"/>
+      <c r="I60" s="223"/>
+      <c r="J60" s="223"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -4484,8 +4484,8 @@
       <c r="F61" s="68"/>
       <c r="G61" s="69"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="246"/>
-      <c r="J61" s="246"/>
+      <c r="I61" s="223"/>
+      <c r="J61" s="223"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -4515,14 +4515,14 @@
     </row>
     <row r="63" spans="1:17" ht="16" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
-      <c r="B63" s="243" t="s">
+      <c r="B63" s="220" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="244"/>
-      <c r="D63" s="244"/>
-      <c r="E63" s="244"/>
-      <c r="F63" s="244"/>
-      <c r="G63" s="245"/>
+      <c r="C63" s="221"/>
+      <c r="D63" s="221"/>
+      <c r="E63" s="221"/>
+      <c r="F63" s="221"/>
+      <c r="G63" s="222"/>
       <c r="H63" s="1"/>
       <c r="I63" s="3"/>
       <c r="J63" s="1"/>
@@ -4558,13 +4558,13 @@
       <c r="B65" s="59">
         <v>1</v>
       </c>
-      <c r="C65" s="198" t="s">
+      <c r="C65" s="218" t="s">
         <v>121</v>
       </c>
-      <c r="D65" s="198"/>
-      <c r="E65" s="198"/>
-      <c r="F65" s="198"/>
-      <c r="G65" s="199"/>
+      <c r="D65" s="218"/>
+      <c r="E65" s="218"/>
+      <c r="F65" s="218"/>
+      <c r="G65" s="219"/>
       <c r="H65" s="7"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -4581,13 +4581,13 @@
       <c r="B66" s="59">
         <v>2</v>
       </c>
-      <c r="C66" s="198" t="s">
+      <c r="C66" s="218" t="s">
         <v>103</v>
       </c>
-      <c r="D66" s="198"/>
-      <c r="E66" s="198"/>
-      <c r="F66" s="198"/>
-      <c r="G66" s="199"/>
+      <c r="D66" s="218"/>
+      <c r="E66" s="218"/>
+      <c r="F66" s="218"/>
+      <c r="G66" s="219"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -4604,13 +4604,13 @@
       <c r="B67" s="59">
         <v>3</v>
       </c>
-      <c r="C67" s="198" t="s">
+      <c r="C67" s="218" t="s">
         <v>102</v>
       </c>
-      <c r="D67" s="198"/>
-      <c r="E67" s="198"/>
-      <c r="F67" s="198"/>
-      <c r="G67" s="199"/>
+      <c r="D67" s="218"/>
+      <c r="E67" s="218"/>
+      <c r="F67" s="218"/>
+      <c r="G67" s="219"/>
       <c r="J67" s="57"/>
       <c r="K67" s="57"/>
       <c r="L67" s="57"/>
@@ -4623,11 +4623,11 @@
     <row r="68" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="59"/>
-      <c r="C68" s="198"/>
-      <c r="D68" s="198"/>
-      <c r="E68" s="198"/>
-      <c r="F68" s="198"/>
-      <c r="G68" s="199"/>
+      <c r="C68" s="218"/>
+      <c r="D68" s="218"/>
+      <c r="E68" s="218"/>
+      <c r="F68" s="218"/>
+      <c r="G68" s="219"/>
       <c r="J68" s="57"/>
       <c r="K68" s="57"/>
       <c r="L68" s="57"/>
@@ -4659,39 +4659,39 @@
       <c r="B70" s="23"/>
     </row>
     <row r="71" spans="1:17" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="205" t="s">
+      <c r="B71" s="194" t="s">
         <v>109</v>
       </c>
-      <c r="C71" s="206"/>
-      <c r="D71" s="206"/>
-      <c r="E71" s="206"/>
-      <c r="F71" s="206"/>
-      <c r="G71" s="207"/>
+      <c r="C71" s="195"/>
+      <c r="D71" s="195"/>
+      <c r="E71" s="195"/>
+      <c r="F71" s="195"/>
+      <c r="G71" s="196"/>
     </row>
     <row r="72" spans="1:17" s="28" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C72" s="208" t="s">
+      <c r="C72" s="197" t="s">
         <v>28</v>
       </c>
-      <c r="D72" s="209"/>
-      <c r="E72" s="209"/>
-      <c r="F72" s="209"/>
-      <c r="G72" s="210"/>
+      <c r="D72" s="198"/>
+      <c r="E72" s="198"/>
+      <c r="F72" s="198"/>
+      <c r="G72" s="199"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
       <c r="B73" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="C73" s="231" t="s">
+      <c r="C73" s="215" t="s">
         <v>69</v>
       </c>
-      <c r="D73" s="232"/>
-      <c r="E73" s="232"/>
-      <c r="F73" s="232"/>
-      <c r="G73" s="233"/>
+      <c r="D73" s="216"/>
+      <c r="E73" s="216"/>
+      <c r="F73" s="216"/>
+      <c r="G73" s="217"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
@@ -4731,56 +4731,56 @@
       <c r="B77" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="C77" s="202" t="s">
+      <c r="C77" s="212" t="s">
         <v>91</v>
       </c>
-      <c r="D77" s="203"/>
-      <c r="E77" s="203"/>
-      <c r="F77" s="203"/>
-      <c r="G77" s="204"/>
+      <c r="D77" s="213"/>
+      <c r="E77" s="213"/>
+      <c r="F77" s="213"/>
+      <c r="G77" s="214"/>
     </row>
     <row r="78" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
       <c r="B78" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="C78" s="202" t="s">
+      <c r="C78" s="212" t="s">
         <v>50</v>
       </c>
-      <c r="D78" s="203"/>
-      <c r="E78" s="203"/>
-      <c r="F78" s="203"/>
-      <c r="G78" s="204"/>
+      <c r="D78" s="213"/>
+      <c r="E78" s="213"/>
+      <c r="F78" s="213"/>
+      <c r="G78" s="214"/>
     </row>
     <row r="79" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
       <c r="B79" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="231" t="s">
+      <c r="C79" s="215" t="s">
         <v>51</v>
       </c>
-      <c r="D79" s="232"/>
-      <c r="E79" s="232"/>
-      <c r="F79" s="232"/>
-      <c r="G79" s="233"/>
+      <c r="D79" s="216"/>
+      <c r="E79" s="216"/>
+      <c r="F79" s="216"/>
+      <c r="G79" s="217"/>
     </row>
     <row r="80" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
-      <c r="B80" s="262" t="s">
+      <c r="B80" s="200" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="231" t="s">
+      <c r="C80" s="215" t="s">
         <v>25</v>
       </c>
-      <c r="D80" s="232"/>
-      <c r="E80" s="232"/>
-      <c r="F80" s="232"/>
-      <c r="G80" s="233"/>
+      <c r="D80" s="216"/>
+      <c r="E80" s="216"/>
+      <c r="F80" s="216"/>
+      <c r="G80" s="217"/>
     </row>
     <row r="81" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
-      <c r="B81" s="263"/>
+      <c r="B81" s="201"/>
       <c r="C81" s="89" t="s">
         <v>76</v>
       </c>
@@ -4793,7 +4793,7 @@
     </row>
     <row r="82" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
-      <c r="B82" s="263"/>
+      <c r="B82" s="201"/>
       <c r="C82" s="89" t="s">
         <v>64</v>
       </c>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="83" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
-      <c r="B83" s="263"/>
+      <c r="B83" s="201"/>
       <c r="C83" s="89" t="s">
         <v>65</v>
       </c>
@@ -4819,7 +4819,7 @@
     </row>
     <row r="84" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
-      <c r="B84" s="263"/>
+      <c r="B84" s="201"/>
       <c r="C84" s="89" t="s">
         <v>34</v>
       </c>
@@ -4832,7 +4832,7 @@
     </row>
     <row r="85" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
-      <c r="B85" s="264"/>
+      <c r="B85" s="202"/>
       <c r="C85" s="91"/>
       <c r="D85" s="92"/>
       <c r="E85" s="50"/>
@@ -4844,182 +4844,182 @@
       <c r="B86" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="C86" s="267" t="s">
+      <c r="C86" s="207" t="s">
         <v>52</v>
       </c>
-      <c r="D86" s="265"/>
-      <c r="E86" s="265"/>
-      <c r="F86" s="265"/>
-      <c r="G86" s="266"/>
+      <c r="D86" s="203"/>
+      <c r="E86" s="203"/>
+      <c r="F86" s="203"/>
+      <c r="G86" s="204"/>
     </row>
     <row r="87" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
       <c r="B87" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="C87" s="268" t="s">
+      <c r="C87" s="208" t="s">
         <v>53</v>
       </c>
-      <c r="D87" s="226"/>
-      <c r="E87" s="226"/>
-      <c r="F87" s="226"/>
-      <c r="G87" s="227"/>
+      <c r="D87" s="205"/>
+      <c r="E87" s="205"/>
+      <c r="F87" s="205"/>
+      <c r="G87" s="206"/>
     </row>
     <row r="88" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
       <c r="B88" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="C88" s="269" t="s">
+      <c r="C88" s="209" t="s">
         <v>54</v>
       </c>
-      <c r="D88" s="270"/>
-      <c r="E88" s="270"/>
-      <c r="F88" s="270"/>
-      <c r="G88" s="271"/>
+      <c r="D88" s="210"/>
+      <c r="E88" s="210"/>
+      <c r="F88" s="210"/>
+      <c r="G88" s="211"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
       <c r="B89" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="C89" s="226" t="s">
+      <c r="C89" s="205" t="s">
         <v>97</v>
       </c>
-      <c r="D89" s="226"/>
-      <c r="E89" s="226"/>
-      <c r="F89" s="226"/>
-      <c r="G89" s="227"/>
+      <c r="D89" s="205"/>
+      <c r="E89" s="205"/>
+      <c r="F89" s="205"/>
+      <c r="G89" s="206"/>
     </row>
     <row r="90" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
       <c r="B90" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="C90" s="226" t="s">
+      <c r="C90" s="205" t="s">
         <v>95</v>
       </c>
-      <c r="D90" s="226"/>
-      <c r="E90" s="226"/>
-      <c r="F90" s="226"/>
-      <c r="G90" s="227"/>
+      <c r="D90" s="205"/>
+      <c r="E90" s="205"/>
+      <c r="F90" s="205"/>
+      <c r="G90" s="206"/>
     </row>
     <row r="91" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
       <c r="B91" s="118" t="s">
         <v>92</v>
       </c>
-      <c r="C91" s="265" t="s">
+      <c r="C91" s="203" t="s">
         <v>55</v>
       </c>
-      <c r="D91" s="265"/>
-      <c r="E91" s="265"/>
-      <c r="F91" s="265"/>
-      <c r="G91" s="266"/>
+      <c r="D91" s="203"/>
+      <c r="E91" s="203"/>
+      <c r="F91" s="203"/>
+      <c r="G91" s="204"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
       <c r="B92" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="C92" s="226" t="s">
+      <c r="C92" s="205" t="s">
         <v>17</v>
       </c>
-      <c r="D92" s="226"/>
-      <c r="E92" s="226"/>
-      <c r="F92" s="226"/>
-      <c r="G92" s="227"/>
+      <c r="D92" s="205"/>
+      <c r="E92" s="205"/>
+      <c r="F92" s="205"/>
+      <c r="G92" s="206"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
       <c r="B93" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="C93" s="226" t="s">
+      <c r="C93" s="205" t="s">
         <v>94</v>
       </c>
-      <c r="D93" s="226"/>
-      <c r="E93" s="226"/>
-      <c r="F93" s="226"/>
-      <c r="G93" s="227"/>
+      <c r="D93" s="205"/>
+      <c r="E93" s="205"/>
+      <c r="F93" s="205"/>
+      <c r="G93" s="206"/>
     </row>
     <row r="94" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
       <c r="B94" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="C94" s="226" t="s">
+      <c r="C94" s="205" t="s">
         <v>56</v>
       </c>
-      <c r="D94" s="226"/>
-      <c r="E94" s="226"/>
-      <c r="F94" s="226"/>
-      <c r="G94" s="227"/>
+      <c r="D94" s="205"/>
+      <c r="E94" s="205"/>
+      <c r="F94" s="205"/>
+      <c r="G94" s="206"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
       <c r="B95" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="C95" s="226" t="s">
+      <c r="C95" s="205" t="s">
         <v>57</v>
       </c>
-      <c r="D95" s="226"/>
-      <c r="E95" s="226"/>
-      <c r="F95" s="226"/>
-      <c r="G95" s="227"/>
+      <c r="D95" s="205"/>
+      <c r="E95" s="205"/>
+      <c r="F95" s="205"/>
+      <c r="G95" s="206"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
       <c r="B96" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="C96" s="226" t="s">
+      <c r="C96" s="205" t="s">
         <v>99</v>
       </c>
-      <c r="D96" s="226"/>
-      <c r="E96" s="226"/>
-      <c r="F96" s="226"/>
-      <c r="G96" s="227"/>
+      <c r="D96" s="205"/>
+      <c r="E96" s="205"/>
+      <c r="F96" s="205"/>
+      <c r="G96" s="206"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
       <c r="B97" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="C97" s="226" t="s">
+      <c r="C97" s="205" t="s">
         <v>58</v>
       </c>
-      <c r="D97" s="226"/>
-      <c r="E97" s="226"/>
-      <c r="F97" s="226"/>
-      <c r="G97" s="227"/>
+      <c r="D97" s="205"/>
+      <c r="E97" s="205"/>
+      <c r="F97" s="205"/>
+      <c r="G97" s="206"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
       <c r="B98" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="C98" s="226" t="s">
+      <c r="C98" s="205" t="s">
         <v>59</v>
       </c>
-      <c r="D98" s="226"/>
-      <c r="E98" s="226"/>
-      <c r="F98" s="226"/>
-      <c r="G98" s="227"/>
+      <c r="D98" s="205"/>
+      <c r="E98" s="205"/>
+      <c r="F98" s="205"/>
+      <c r="G98" s="206"/>
     </row>
     <row r="99" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
       <c r="B99" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="C99" s="223" t="s">
+      <c r="C99" s="251" t="s">
         <v>106</v>
       </c>
-      <c r="D99" s="224"/>
-      <c r="E99" s="224"/>
-      <c r="F99" s="224"/>
-      <c r="G99" s="225"/>
+      <c r="D99" s="252"/>
+      <c r="E99" s="252"/>
+      <c r="F99" s="252"/>
+      <c r="G99" s="253"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
@@ -5062,62 +5062,62 @@
     </row>
     <row r="104" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
-      <c r="B104" s="205" t="s">
+      <c r="B104" s="194" t="s">
         <v>130</v>
       </c>
-      <c r="C104" s="206"/>
-      <c r="D104" s="206"/>
-      <c r="E104" s="206"/>
-      <c r="F104" s="206"/>
-      <c r="G104" s="207"/>
+      <c r="C104" s="195"/>
+      <c r="D104" s="195"/>
+      <c r="E104" s="195"/>
+      <c r="F104" s="195"/>
+      <c r="G104" s="196"/>
     </row>
     <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6"/>
       <c r="B105" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C105" s="208" t="s">
+      <c r="C105" s="197" t="s">
         <v>28</v>
       </c>
-      <c r="D105" s="209"/>
-      <c r="E105" s="209"/>
-      <c r="F105" s="209"/>
-      <c r="G105" s="210"/>
+      <c r="D105" s="198"/>
+      <c r="E105" s="198"/>
+      <c r="F105" s="198"/>
+      <c r="G105" s="199"/>
     </row>
     <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="6"/>
       <c r="B106" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="C106" s="200" t="s">
+      <c r="C106" s="265" t="s">
         <v>134</v>
       </c>
-      <c r="D106" s="200"/>
-      <c r="E106" s="200"/>
-      <c r="F106" s="200"/>
-      <c r="G106" s="200"/>
+      <c r="D106" s="265"/>
+      <c r="E106" s="265"/>
+      <c r="F106" s="265"/>
+      <c r="G106" s="265"/>
     </row>
     <row r="107" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6"/>
       <c r="B107" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="C107" s="202" t="s">
+      <c r="C107" s="212" t="s">
         <v>135</v>
       </c>
-      <c r="D107" s="203"/>
-      <c r="E107" s="203"/>
-      <c r="F107" s="203"/>
-      <c r="G107" s="204"/>
+      <c r="D107" s="213"/>
+      <c r="E107" s="213"/>
+      <c r="F107" s="213"/>
+      <c r="G107" s="214"/>
     </row>
     <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="6"/>
       <c r="B108" s="98"/>
-      <c r="C108" s="202"/>
-      <c r="D108" s="203"/>
-      <c r="E108" s="203"/>
-      <c r="F108" s="203"/>
-      <c r="G108" s="204"/>
+      <c r="C108" s="212"/>
+      <c r="D108" s="213"/>
+      <c r="E108" s="213"/>
+      <c r="F108" s="213"/>
+      <c r="G108" s="214"/>
     </row>
     <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="6"/>
@@ -5130,62 +5130,62 @@
     </row>
     <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="6"/>
-      <c r="B110" s="205" t="s">
+      <c r="B110" s="194" t="s">
         <v>131</v>
       </c>
-      <c r="C110" s="206"/>
-      <c r="D110" s="206"/>
-      <c r="E110" s="206"/>
-      <c r="F110" s="206"/>
-      <c r="G110" s="207"/>
+      <c r="C110" s="195"/>
+      <c r="D110" s="195"/>
+      <c r="E110" s="195"/>
+      <c r="F110" s="195"/>
+      <c r="G110" s="196"/>
     </row>
     <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6"/>
       <c r="B111" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C111" s="208" t="s">
+      <c r="C111" s="197" t="s">
         <v>28</v>
       </c>
-      <c r="D111" s="209"/>
-      <c r="E111" s="209"/>
-      <c r="F111" s="209"/>
-      <c r="G111" s="210"/>
+      <c r="D111" s="198"/>
+      <c r="E111" s="198"/>
+      <c r="F111" s="198"/>
+      <c r="G111" s="199"/>
     </row>
     <row r="112" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6"/>
       <c r="B112" s="129" t="s">
         <v>136</v>
       </c>
-      <c r="C112" s="200" t="s">
+      <c r="C112" s="265" t="s">
         <v>138</v>
       </c>
-      <c r="D112" s="200"/>
-      <c r="E112" s="200"/>
-      <c r="F112" s="200"/>
-      <c r="G112" s="200"/>
+      <c r="D112" s="265"/>
+      <c r="E112" s="265"/>
+      <c r="F112" s="265"/>
+      <c r="G112" s="265"/>
     </row>
     <row r="113" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6"/>
       <c r="B113" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="C113" s="202" t="s">
+      <c r="C113" s="212" t="s">
         <v>137</v>
       </c>
-      <c r="D113" s="203"/>
-      <c r="E113" s="203"/>
-      <c r="F113" s="203"/>
-      <c r="G113" s="204"/>
+      <c r="D113" s="213"/>
+      <c r="E113" s="213"/>
+      <c r="F113" s="213"/>
+      <c r="G113" s="214"/>
     </row>
     <row r="114" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6"/>
       <c r="B114" s="98"/>
-      <c r="C114" s="200"/>
-      <c r="D114" s="200"/>
-      <c r="E114" s="200"/>
-      <c r="F114" s="200"/>
-      <c r="G114" s="200"/>
+      <c r="C114" s="265"/>
+      <c r="D114" s="265"/>
+      <c r="E114" s="265"/>
+      <c r="F114" s="265"/>
+      <c r="G114" s="265"/>
     </row>
     <row r="115" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="6"/>
@@ -5423,12 +5423,12 @@
     </row>
     <row r="141" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="26"/>
-      <c r="B141" s="201"/>
-      <c r="C141" s="201"/>
-      <c r="D141" s="201"/>
-      <c r="E141" s="201"/>
-      <c r="F141" s="201"/>
-      <c r="G141" s="201"/>
+      <c r="B141" s="266"/>
+      <c r="C141" s="266"/>
+      <c r="D141" s="266"/>
+      <c r="E141" s="266"/>
+      <c r="F141" s="266"/>
+      <c r="G141" s="266"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A142" s="26"/>
@@ -5442,11 +5442,11 @@
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A143" s="26"/>
       <c r="B143" s="43"/>
-      <c r="C143" s="192"/>
-      <c r="D143" s="192"/>
-      <c r="E143" s="192"/>
-      <c r="F143" s="192"/>
-      <c r="G143" s="192"/>
+      <c r="C143" s="263"/>
+      <c r="D143" s="263"/>
+      <c r="E143" s="263"/>
+      <c r="F143" s="263"/>
+      <c r="G143" s="263"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A144" s="26"/>
@@ -5460,11 +5460,11 @@
     <row r="145" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="26"/>
       <c r="B145" s="45"/>
-      <c r="C145" s="196"/>
-      <c r="D145" s="196"/>
-      <c r="E145" s="196"/>
-      <c r="F145" s="196"/>
-      <c r="G145" s="196"/>
+      <c r="C145" s="264"/>
+      <c r="D145" s="264"/>
+      <c r="E145" s="264"/>
+      <c r="F145" s="264"/>
+      <c r="G145" s="264"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A146" s="26"/>
@@ -5478,11 +5478,11 @@
     <row r="147" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A147" s="26"/>
       <c r="B147" s="43"/>
-      <c r="C147" s="192"/>
-      <c r="D147" s="192"/>
-      <c r="E147" s="192"/>
-      <c r="F147" s="192"/>
-      <c r="G147" s="192"/>
+      <c r="C147" s="263"/>
+      <c r="D147" s="263"/>
+      <c r="E147" s="263"/>
+      <c r="F147" s="263"/>
+      <c r="G147" s="263"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A148" s="26"/>
@@ -5496,11 +5496,11 @@
     <row r="149" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="26"/>
       <c r="B149" s="45"/>
-      <c r="C149" s="196"/>
-      <c r="D149" s="196"/>
-      <c r="E149" s="196"/>
-      <c r="F149" s="196"/>
-      <c r="G149" s="196"/>
+      <c r="C149" s="264"/>
+      <c r="D149" s="264"/>
+      <c r="E149" s="264"/>
+      <c r="F149" s="264"/>
+      <c r="G149" s="264"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A150" s="26"/>
@@ -5523,11 +5523,11 @@
     <row r="152" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A152" s="26"/>
       <c r="B152" s="43"/>
-      <c r="C152" s="192"/>
-      <c r="D152" s="192"/>
-      <c r="E152" s="192"/>
-      <c r="F152" s="192"/>
-      <c r="G152" s="192"/>
+      <c r="C152" s="263"/>
+      <c r="D152" s="263"/>
+      <c r="E152" s="263"/>
+      <c r="F152" s="263"/>
+      <c r="G152" s="263"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A153" s="26"/>
@@ -5541,35 +5541,35 @@
     <row r="154" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="26"/>
       <c r="B154" s="45"/>
-      <c r="C154" s="196"/>
-      <c r="D154" s="196"/>
-      <c r="E154" s="196"/>
-      <c r="F154" s="196"/>
-      <c r="G154" s="196"/>
+      <c r="C154" s="264"/>
+      <c r="D154" s="264"/>
+      <c r="E154" s="264"/>
+      <c r="F154" s="264"/>
+      <c r="G154" s="264"/>
     </row>
     <row r="155" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="26"/>
       <c r="B155" s="45"/>
-      <c r="C155" s="196"/>
-      <c r="D155" s="196"/>
-      <c r="E155" s="196"/>
-      <c r="F155" s="196"/>
-      <c r="G155" s="196"/>
+      <c r="C155" s="264"/>
+      <c r="D155" s="264"/>
+      <c r="E155" s="264"/>
+      <c r="F155" s="264"/>
+      <c r="G155" s="264"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A156" s="26"/>
       <c r="B156" s="45"/>
-      <c r="C156" s="197"/>
-      <c r="D156" s="197"/>
-      <c r="E156" s="197"/>
-      <c r="F156" s="197"/>
-      <c r="G156" s="197"/>
+      <c r="C156" s="269"/>
+      <c r="D156" s="269"/>
+      <c r="E156" s="269"/>
+      <c r="F156" s="269"/>
+      <c r="G156" s="269"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A157" s="26"/>
       <c r="B157" s="47"/>
-      <c r="C157" s="193"/>
-      <c r="D157" s="193"/>
+      <c r="C157" s="268"/>
+      <c r="D157" s="268"/>
       <c r="E157" s="48"/>
       <c r="F157" s="48"/>
       <c r="G157" s="35"/>
@@ -5577,8 +5577,8 @@
     <row r="158" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A158" s="26"/>
       <c r="B158" s="47"/>
-      <c r="C158" s="193"/>
-      <c r="D158" s="193"/>
+      <c r="C158" s="268"/>
+      <c r="D158" s="268"/>
       <c r="E158" s="48"/>
       <c r="F158" s="48"/>
       <c r="G158" s="35"/>
@@ -5586,8 +5586,8 @@
     <row r="159" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A159" s="26"/>
       <c r="B159" s="47"/>
-      <c r="C159" s="193"/>
-      <c r="D159" s="193"/>
+      <c r="C159" s="268"/>
+      <c r="D159" s="268"/>
       <c r="E159" s="48"/>
       <c r="F159" s="48"/>
       <c r="G159" s="35"/>
@@ -5595,8 +5595,8 @@
     <row r="160" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A160" s="26"/>
       <c r="B160" s="47"/>
-      <c r="C160" s="193"/>
-      <c r="D160" s="193"/>
+      <c r="C160" s="268"/>
+      <c r="D160" s="268"/>
       <c r="E160" s="48"/>
       <c r="F160" s="48"/>
       <c r="G160" s="35"/>
@@ -5604,8 +5604,8 @@
     <row r="161" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A161" s="26"/>
       <c r="B161" s="47"/>
-      <c r="C161" s="193"/>
-      <c r="D161" s="193"/>
+      <c r="C161" s="268"/>
+      <c r="D161" s="268"/>
       <c r="E161" s="48"/>
       <c r="F161" s="48"/>
       <c r="G161" s="35"/>
@@ -5613,8 +5613,8 @@
     <row r="162" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A162" s="26"/>
       <c r="B162" s="47"/>
-      <c r="C162" s="193"/>
-      <c r="D162" s="193"/>
+      <c r="C162" s="268"/>
+      <c r="D162" s="268"/>
       <c r="E162" s="48"/>
       <c r="F162" s="48"/>
       <c r="G162" s="35"/>
@@ -5622,8 +5622,8 @@
     <row r="163" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A163" s="26"/>
       <c r="B163" s="47"/>
-      <c r="C163" s="193"/>
-      <c r="D163" s="193"/>
+      <c r="C163" s="268"/>
+      <c r="D163" s="268"/>
       <c r="E163" s="48"/>
       <c r="F163" s="48"/>
       <c r="G163" s="49"/>
@@ -5631,8 +5631,8 @@
     <row r="164" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A164" s="26"/>
       <c r="B164" s="47"/>
-      <c r="C164" s="193"/>
-      <c r="D164" s="193"/>
+      <c r="C164" s="268"/>
+      <c r="D164" s="268"/>
       <c r="E164" s="48"/>
       <c r="F164" s="48"/>
       <c r="G164" s="49"/>
@@ -5640,8 +5640,8 @@
     <row r="165" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A165" s="26"/>
       <c r="B165" s="47"/>
-      <c r="C165" s="193"/>
-      <c r="D165" s="193"/>
+      <c r="C165" s="268"/>
+      <c r="D165" s="268"/>
       <c r="E165" s="48"/>
       <c r="F165" s="48"/>
       <c r="G165" s="49"/>
@@ -5649,8 +5649,8 @@
     <row r="166" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A166" s="26"/>
       <c r="B166" s="47"/>
-      <c r="C166" s="193"/>
-      <c r="D166" s="193"/>
+      <c r="C166" s="268"/>
+      <c r="D166" s="268"/>
       <c r="E166" s="48"/>
       <c r="F166" s="48"/>
       <c r="G166" s="49"/>
@@ -5658,11 +5658,11 @@
     <row r="167" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="26"/>
       <c r="B167" s="47"/>
-      <c r="C167" s="195"/>
-      <c r="D167" s="195"/>
-      <c r="E167" s="195"/>
-      <c r="F167" s="195"/>
-      <c r="G167" s="195"/>
+      <c r="C167" s="267"/>
+      <c r="D167" s="267"/>
+      <c r="E167" s="267"/>
+      <c r="F167" s="267"/>
+      <c r="G167" s="267"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A168" s="26"/>
@@ -5720,8 +5720,8 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A174" s="26"/>
-      <c r="B174" s="193"/>
-      <c r="C174" s="193"/>
+      <c r="B174" s="268"/>
+      <c r="C174" s="268"/>
       <c r="D174" s="26"/>
       <c r="E174" s="26"/>
       <c r="F174" s="26"/>
@@ -5729,8 +5729,8 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A175" s="26"/>
-      <c r="B175" s="193"/>
-      <c r="C175" s="193"/>
+      <c r="B175" s="268"/>
+      <c r="C175" s="268"/>
       <c r="D175" s="26"/>
       <c r="E175" s="26"/>
       <c r="F175" s="26"/>
@@ -5738,8 +5738,8 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A176" s="26"/>
-      <c r="B176" s="193"/>
-      <c r="C176" s="193"/>
+      <c r="B176" s="268"/>
+      <c r="C176" s="268"/>
       <c r="D176" s="26"/>
       <c r="E176" s="26"/>
       <c r="F176" s="26"/>
@@ -5747,8 +5747,8 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A177" s="26"/>
-      <c r="B177" s="193"/>
-      <c r="C177" s="193"/>
+      <c r="B177" s="268"/>
+      <c r="C177" s="268"/>
       <c r="D177" s="26"/>
       <c r="E177" s="26"/>
       <c r="F177" s="26"/>
@@ -5756,8 +5756,8 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A178" s="26"/>
-      <c r="B178" s="193"/>
-      <c r="C178" s="193"/>
+      <c r="B178" s="268"/>
+      <c r="C178" s="268"/>
       <c r="D178" s="26"/>
       <c r="E178" s="26"/>
       <c r="F178" s="26"/>
@@ -5765,8 +5765,8 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A179" s="26"/>
-      <c r="B179" s="193"/>
-      <c r="C179" s="193"/>
+      <c r="B179" s="268"/>
+      <c r="C179" s="268"/>
       <c r="D179" s="26"/>
       <c r="E179" s="26"/>
       <c r="F179" s="26"/>
@@ -5774,8 +5774,8 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A180" s="26"/>
-      <c r="B180" s="193"/>
-      <c r="C180" s="193"/>
+      <c r="B180" s="268"/>
+      <c r="C180" s="268"/>
       <c r="D180" s="26"/>
       <c r="E180" s="26"/>
       <c r="F180" s="26"/>
@@ -5783,8 +5783,8 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A181" s="26"/>
-      <c r="B181" s="193"/>
-      <c r="C181" s="193"/>
+      <c r="B181" s="268"/>
+      <c r="C181" s="268"/>
       <c r="D181" s="26"/>
       <c r="E181" s="26"/>
       <c r="F181" s="26"/>
@@ -5792,8 +5792,8 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A182" s="26"/>
-      <c r="B182" s="193"/>
-      <c r="C182" s="193"/>
+      <c r="B182" s="268"/>
+      <c r="C182" s="268"/>
       <c r="D182" s="26"/>
       <c r="E182" s="26"/>
       <c r="F182" s="26"/>
@@ -5801,8 +5801,8 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A183" s="26"/>
-      <c r="B183" s="193"/>
-      <c r="C183" s="193"/>
+      <c r="B183" s="268"/>
+      <c r="C183" s="268"/>
       <c r="D183" s="26"/>
       <c r="E183" s="26"/>
       <c r="F183" s="26"/>
@@ -5810,8 +5810,8 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A184" s="26"/>
-      <c r="B184" s="193"/>
-      <c r="C184" s="193"/>
+      <c r="B184" s="268"/>
+      <c r="C184" s="268"/>
       <c r="D184" s="26"/>
       <c r="E184" s="26"/>
       <c r="F184" s="26"/>
@@ -5819,8 +5819,8 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A185" s="26"/>
-      <c r="B185" s="193"/>
-      <c r="C185" s="193"/>
+      <c r="B185" s="268"/>
+      <c r="C185" s="268"/>
       <c r="D185" s="26"/>
       <c r="E185" s="26"/>
       <c r="F185" s="26"/>
@@ -5837,21 +5837,21 @@
     </row>
     <row r="187" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="45"/>
-      <c r="B187" s="192"/>
-      <c r="C187" s="192"/>
-      <c r="D187" s="192"/>
-      <c r="E187" s="192"/>
-      <c r="F187" s="192"/>
-      <c r="G187" s="192"/>
+      <c r="B187" s="263"/>
+      <c r="C187" s="263"/>
+      <c r="D187" s="263"/>
+      <c r="E187" s="263"/>
+      <c r="F187" s="263"/>
+      <c r="G187" s="263"/>
     </row>
     <row r="188" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="45"/>
-      <c r="B188" s="192"/>
-      <c r="C188" s="192"/>
-      <c r="D188" s="192"/>
-      <c r="E188" s="192"/>
-      <c r="F188" s="192"/>
-      <c r="G188" s="192"/>
+      <c r="B188" s="263"/>
+      <c r="C188" s="263"/>
+      <c r="D188" s="263"/>
+      <c r="E188" s="263"/>
+      <c r="F188" s="263"/>
+      <c r="G188" s="263"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A189" s="26"/>
@@ -5882,59 +5882,113 @@
     </row>
     <row r="192" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="45"/>
-      <c r="B192" s="194"/>
-      <c r="C192" s="194"/>
-      <c r="D192" s="194"/>
-      <c r="E192" s="194"/>
-      <c r="F192" s="194"/>
-      <c r="G192" s="194"/>
+      <c r="B192" s="270"/>
+      <c r="C192" s="270"/>
+      <c r="D192" s="270"/>
+      <c r="E192" s="270"/>
+      <c r="F192" s="270"/>
+      <c r="G192" s="270"/>
     </row>
     <row r="193" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="45"/>
-      <c r="B193" s="194"/>
-      <c r="C193" s="194"/>
-      <c r="D193" s="194"/>
-      <c r="E193" s="194"/>
-      <c r="F193" s="194"/>
-      <c r="G193" s="194"/>
+      <c r="B193" s="270"/>
+      <c r="C193" s="270"/>
+      <c r="D193" s="270"/>
+      <c r="E193" s="270"/>
+      <c r="F193" s="270"/>
+      <c r="G193" s="270"/>
     </row>
     <row r="194" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="45"/>
-      <c r="B194" s="194"/>
-      <c r="C194" s="194"/>
-      <c r="D194" s="194"/>
-      <c r="E194" s="194"/>
-      <c r="F194" s="194"/>
-      <c r="G194" s="194"/>
+      <c r="B194" s="270"/>
+      <c r="C194" s="270"/>
+      <c r="D194" s="270"/>
+      <c r="E194" s="270"/>
+      <c r="F194" s="270"/>
+      <c r="G194" s="270"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A195" s="45"/>
-      <c r="B195" s="194"/>
-      <c r="C195" s="194"/>
-      <c r="D195" s="194"/>
-      <c r="E195" s="194"/>
-      <c r="F195" s="194"/>
-      <c r="G195" s="194"/>
+      <c r="B195" s="270"/>
+      <c r="C195" s="270"/>
+      <c r="D195" s="270"/>
+      <c r="E195" s="270"/>
+      <c r="F195" s="270"/>
+      <c r="G195" s="270"/>
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="C105:G105"/>
-    <mergeCell ref="B80:B85"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="B187:G187"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="B195:G195"/>
+    <mergeCell ref="B188:G188"/>
+    <mergeCell ref="B193:G193"/>
+    <mergeCell ref="B194:G194"/>
+    <mergeCell ref="B192:G192"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="C167:G167"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="C149:G149"/>
+    <mergeCell ref="C152:G152"/>
+    <mergeCell ref="C154:G154"/>
+    <mergeCell ref="C155:G155"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C156:G156"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="C145:G145"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="C147:G147"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B47:G47"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="D11:G11"/>
@@ -5959,77 +6013,23 @@
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C143:G143"/>
-    <mergeCell ref="C145:G145"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C147:G147"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C112:G112"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C107:G107"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C167:G167"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="C149:G149"/>
-    <mergeCell ref="C152:G152"/>
-    <mergeCell ref="C154:G154"/>
-    <mergeCell ref="C155:G155"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="C156:G156"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="B187:G187"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="B195:G195"/>
-    <mergeCell ref="B188:G188"/>
-    <mergeCell ref="B193:G193"/>
-    <mergeCell ref="B194:G194"/>
-    <mergeCell ref="B192:G192"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="B80:B85"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C66:G66"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -6048,33 +6048,33 @@
   <sheetPr codeName="Hoja3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:U148"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="152" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="152" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" style="153" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="154" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="154" customWidth="1"/>
-    <col min="6" max="6" width="48.83203125" style="152" customWidth="1"/>
-    <col min="7" max="7" width="61.1640625" style="152" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" style="155" customWidth="1"/>
-    <col min="9" max="9" width="36.5" style="156" customWidth="1"/>
-    <col min="10" max="10" width="37" style="152" customWidth="1"/>
-    <col min="11" max="11" width="53.5" style="155" customWidth="1"/>
-    <col min="12" max="12" width="49" style="155" customWidth="1"/>
-    <col min="13" max="13" width="56.5" style="155" customWidth="1"/>
-    <col min="14" max="14" width="25.5" style="155" customWidth="1"/>
-    <col min="15" max="15" width="25.1640625" style="157" customWidth="1"/>
-    <col min="16" max="16" width="24.6640625" style="157" customWidth="1"/>
-    <col min="17" max="17" width="26.1640625" style="157" customWidth="1"/>
-    <col min="18" max="18" width="15.5" style="157" customWidth="1"/>
-    <col min="19" max="19" width="14.83203125" style="157" customWidth="1"/>
-    <col min="20" max="20" width="13.5" style="158" customWidth="1"/>
-    <col min="21" max="21" width="15.5" style="158" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="151" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="151" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" style="152" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="153" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="153" customWidth="1"/>
+    <col min="6" max="6" width="48.83203125" style="151" customWidth="1"/>
+    <col min="7" max="7" width="61.1640625" style="151" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" style="154" customWidth="1"/>
+    <col min="9" max="9" width="36.5" style="155" customWidth="1"/>
+    <col min="10" max="10" width="37" style="151" customWidth="1"/>
+    <col min="11" max="11" width="53.5" style="154" customWidth="1"/>
+    <col min="12" max="12" width="49" style="154" customWidth="1"/>
+    <col min="13" max="13" width="56.5" style="154" customWidth="1"/>
+    <col min="14" max="14" width="25.5" style="154" customWidth="1"/>
+    <col min="15" max="15" width="25.1640625" style="156" customWidth="1"/>
+    <col min="16" max="16" width="24.6640625" style="156" customWidth="1"/>
+    <col min="17" max="17" width="26.1640625" style="156" customWidth="1"/>
+    <col min="18" max="18" width="15.5" style="156" customWidth="1"/>
+    <col min="19" max="19" width="14.83203125" style="156" customWidth="1"/>
+    <col min="20" max="20" width="13.5" style="157" customWidth="1"/>
+    <col min="21" max="21" width="15.5" style="157" customWidth="1"/>
     <col min="22" max="16384" width="10.83203125" style="133"/>
   </cols>
   <sheetData>
@@ -6147,63 +6147,63 @@
       <c r="A2" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="140" t="str">
+      <c r="B2" s="271" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" s="139" t="str">
         <f>IF(F2=0," ",IF(ISERROR(MID(F2,1,FIND(" ",F2))),MID(F2,1,FIND(".",F2)),MID(F2,1,FIND(" ",F2))))</f>
         <v xml:space="preserve">Plan </v>
       </c>
-      <c r="D2" s="141" t="s">
+      <c r="D2" s="140" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="141" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="161" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" s="142" t="s">
         <v>215</v>
       </c>
-      <c r="E2" s="142" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="162" t="s">
-        <v>192</v>
-      </c>
-      <c r="G2" s="143" t="s">
+      <c r="H2" s="142"/>
+      <c r="I2" s="135" t="s">
         <v>216</v>
       </c>
-      <c r="H2" s="143"/>
-      <c r="I2" s="135" t="s">
-        <v>217</v>
-      </c>
-      <c r="J2" s="144" t="s">
-        <v>223</v>
-      </c>
-      <c r="K2" s="165" t="s">
-        <v>244</v>
-      </c>
-      <c r="L2" s="165" t="s">
+      <c r="J2" s="143" t="s">
+        <v>222</v>
+      </c>
+      <c r="K2" s="164" t="s">
+        <v>243</v>
+      </c>
+      <c r="L2" s="164" t="s">
+        <v>263</v>
+      </c>
+      <c r="M2" s="164" t="s">
         <v>264</v>
       </c>
-      <c r="M2" s="165" t="s">
-        <v>265</v>
-      </c>
-      <c r="N2" s="144" t="s">
+      <c r="N2" s="143" t="s">
         <v>161</v>
       </c>
-      <c r="O2" s="145" t="s">
+      <c r="O2" s="144" t="s">
         <v>186</v>
       </c>
-      <c r="P2" s="145" t="s">
+      <c r="P2" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="Q2" s="168" t="s">
-        <v>342</v>
-      </c>
-      <c r="R2" s="168" t="s">
+      <c r="Q2" s="167" t="s">
+        <v>341</v>
+      </c>
+      <c r="R2" s="167" t="s">
         <v>147</v>
       </c>
-      <c r="S2" s="168" t="s">
+      <c r="S2" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="T2" s="163" t="s">
+      <c r="T2" s="162" t="s">
         <v>167</v>
       </c>
-      <c r="U2" s="146" t="s">
+      <c r="U2" s="145" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6211,63 +6211,63 @@
       <c r="A3" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="140" t="str">
+      <c r="B3" s="271" t="s">
+        <v>357</v>
+      </c>
+      <c r="C3" s="139" t="str">
         <f t="shared" ref="C3:C5" si="0">IF(F3=0," ",IF(ISERROR(MID(F3,1,FIND(" ",F3))),MID(F3,1,FIND(".",F3)),MID(F3,1,FIND(" ",F3))))</f>
         <v xml:space="preserve">Cronograma </v>
       </c>
-      <c r="D3" s="141" t="s">
-        <v>215</v>
-      </c>
-      <c r="E3" s="142" t="s">
+      <c r="D3" s="140" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="162" t="s">
-        <v>193</v>
-      </c>
-      <c r="G3" s="143" t="s">
-        <v>193</v>
-      </c>
-      <c r="H3" s="147"/>
+      <c r="F3" s="161" t="s">
+        <v>192</v>
+      </c>
+      <c r="G3" s="142" t="s">
+        <v>192</v>
+      </c>
+      <c r="H3" s="146"/>
       <c r="I3" s="135" t="s">
-        <v>217</v>
-      </c>
-      <c r="J3" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="K3" s="165" t="s">
-        <v>245</v>
-      </c>
-      <c r="L3" s="165" t="s">
-        <v>264</v>
-      </c>
-      <c r="M3" s="165" t="s">
-        <v>266</v>
-      </c>
-      <c r="N3" s="144" t="s">
+        <v>216</v>
+      </c>
+      <c r="J3" s="143" t="s">
+        <v>223</v>
+      </c>
+      <c r="K3" s="164" t="s">
+        <v>244</v>
+      </c>
+      <c r="L3" s="164" t="s">
+        <v>263</v>
+      </c>
+      <c r="M3" s="164" t="s">
+        <v>265</v>
+      </c>
+      <c r="N3" s="143" t="s">
         <v>161</v>
       </c>
-      <c r="O3" s="145" t="s">
+      <c r="O3" s="144" t="s">
         <v>186</v>
       </c>
-      <c r="P3" s="145" t="s">
+      <c r="P3" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="Q3" s="168" t="s">
-        <v>342</v>
-      </c>
-      <c r="R3" s="168" t="s">
+      <c r="Q3" s="167" t="s">
+        <v>341</v>
+      </c>
+      <c r="R3" s="167" t="s">
         <v>147</v>
       </c>
-      <c r="S3" s="168" t="s">
+      <c r="S3" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="T3" s="163" t="s">
+      <c r="T3" s="162" t="s">
         <v>167</v>
       </c>
-      <c r="U3" s="146" t="s">
+      <c r="U3" s="145" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6275,64 +6275,64 @@
       <c r="A4" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="140" t="str">
+      <c r="B4" s="271" t="s">
+        <v>357</v>
+      </c>
+      <c r="C4" s="139" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Proceso </v>
       </c>
-      <c r="D4" s="141" t="s">
-        <v>215</v>
-      </c>
-      <c r="E4" s="142" t="s">
+      <c r="D4" s="140" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="141" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="162" t="s">
-        <v>194</v>
-      </c>
-      <c r="G4" s="143" t="str">
+      <c r="F4" s="161" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" s="142" t="str">
         <f>F4</f>
         <v>Proceso Gestión de Proyectos</v>
       </c>
-      <c r="H4" s="147"/>
+      <c r="H4" s="146"/>
       <c r="I4" s="135" t="s">
-        <v>217</v>
-      </c>
-      <c r="J4" s="144" t="s">
-        <v>225</v>
-      </c>
-      <c r="K4" s="165" t="s">
+        <v>216</v>
+      </c>
+      <c r="J4" s="143" t="s">
+        <v>224</v>
+      </c>
+      <c r="K4" s="164" t="s">
+        <v>342</v>
+      </c>
+      <c r="L4" s="164" t="s">
+        <v>263</v>
+      </c>
+      <c r="M4" s="164" t="s">
         <v>343</v>
       </c>
-      <c r="L4" s="165" t="s">
-        <v>264</v>
-      </c>
-      <c r="M4" s="165" t="s">
-        <v>344</v>
-      </c>
-      <c r="N4" s="144" t="s">
+      <c r="N4" s="143" t="s">
         <v>161</v>
       </c>
-      <c r="O4" s="145" t="s">
+      <c r="O4" s="144" t="s">
         <v>186</v>
       </c>
-      <c r="P4" s="145" t="s">
+      <c r="P4" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="Q4" s="168" t="s">
-        <v>342</v>
-      </c>
-      <c r="R4" s="168" t="s">
+      <c r="Q4" s="167" t="s">
+        <v>341</v>
+      </c>
+      <c r="R4" s="167" t="s">
         <v>147</v>
       </c>
-      <c r="S4" s="168" t="s">
+      <c r="S4" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="T4" s="163" t="s">
+      <c r="T4" s="162" t="s">
         <v>167</v>
       </c>
-      <c r="U4" s="146" t="s">
+      <c r="U4" s="145" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6340,65 +6340,65 @@
       <c r="A5" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="140" t="str">
+      <c r="B5" s="271" t="s">
+        <v>357</v>
+      </c>
+      <c r="C5" s="139" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Acta </v>
       </c>
-      <c r="D5" s="141" t="s">
-        <v>215</v>
-      </c>
-      <c r="E5" s="148" t="s">
+      <c r="D5" s="140" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="162" t="s">
-        <v>195</v>
-      </c>
-      <c r="G5" s="143" t="str">
+      <c r="F5" s="161" t="s">
+        <v>194</v>
+      </c>
+      <c r="G5" s="142" t="str">
         <f t="shared" ref="G5" si="1">F5</f>
         <v>Acta de Reunión Interna</v>
       </c>
       <c r="H5" s="132"/>
       <c r="I5" s="135" t="s">
-        <v>217</v>
-      </c>
-      <c r="J5" s="149" t="s">
-        <v>226</v>
-      </c>
-      <c r="K5" s="165" t="s">
-        <v>246</v>
-      </c>
-      <c r="L5" s="167" t="s">
-        <v>263</v>
-      </c>
-      <c r="M5" s="165" t="s">
-        <v>267</v>
-      </c>
-      <c r="N5" s="144" t="s">
+        <v>216</v>
+      </c>
+      <c r="J5" s="148" t="s">
+        <v>225</v>
+      </c>
+      <c r="K5" s="164" t="s">
+        <v>245</v>
+      </c>
+      <c r="L5" s="166" t="s">
+        <v>262</v>
+      </c>
+      <c r="M5" s="164" t="s">
+        <v>266</v>
+      </c>
+      <c r="N5" s="143" t="s">
         <v>161</v>
       </c>
-      <c r="O5" s="145" t="s">
+      <c r="O5" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="P5" s="145" t="str">
+      <c r="P5" s="144" t="str">
         <f>O5</f>
         <v>Cada mes</v>
       </c>
-      <c r="Q5" s="145" t="s">
+      <c r="Q5" s="144" t="s">
         <v>168</v>
       </c>
-      <c r="R5" s="168" t="s">
+      <c r="R5" s="167" t="s">
         <v>147</v>
       </c>
-      <c r="S5" s="168" t="s">
+      <c r="S5" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="T5" s="145" t="s">
+      <c r="T5" s="144" t="s">
         <v>169</v>
       </c>
-      <c r="U5" s="146" t="s">
+      <c r="U5" s="145" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6406,65 +6406,65 @@
       <c r="A6" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="140" t="str">
+      <c r="B6" s="271" t="s">
+        <v>357</v>
+      </c>
+      <c r="C6" s="139" t="str">
         <f t="shared" ref="C6:C31" si="2">IF(F6=0," ",IF(ISERROR(MID(F6,1,FIND(" ",F6))),MID(F6,1,FIND(".",F6)),MID(F6,1,FIND(" ",F6))))</f>
         <v xml:space="preserve">Acta </v>
       </c>
-      <c r="D6" s="141" t="s">
-        <v>215</v>
-      </c>
-      <c r="E6" s="142" t="s">
+      <c r="D6" s="140" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="162" t="s">
-        <v>196</v>
-      </c>
-      <c r="G6" s="143" t="str">
+      <c r="F6" s="161" t="s">
+        <v>195</v>
+      </c>
+      <c r="G6" s="142" t="str">
         <f>F6</f>
         <v>Acta de Reunión Externa</v>
       </c>
       <c r="H6" s="132"/>
       <c r="I6" s="135" t="s">
-        <v>217</v>
-      </c>
-      <c r="J6" s="144" t="s">
-        <v>318</v>
-      </c>
-      <c r="K6" s="166" t="s">
-        <v>247</v>
-      </c>
-      <c r="L6" s="167" t="s">
-        <v>263</v>
-      </c>
-      <c r="M6" s="166" t="s">
-        <v>268</v>
-      </c>
-      <c r="N6" s="144" t="s">
+        <v>216</v>
+      </c>
+      <c r="J6" s="143" t="s">
+        <v>317</v>
+      </c>
+      <c r="K6" s="165" t="s">
+        <v>246</v>
+      </c>
+      <c r="L6" s="166" t="s">
+        <v>262</v>
+      </c>
+      <c r="M6" s="165" t="s">
+        <v>267</v>
+      </c>
+      <c r="N6" s="143" t="s">
         <v>185</v>
       </c>
-      <c r="O6" s="145" t="s">
+      <c r="O6" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="P6" s="145" t="str">
+      <c r="P6" s="144" t="str">
         <f>O6</f>
         <v>Cada mes</v>
       </c>
-      <c r="Q6" s="145" t="s">
+      <c r="Q6" s="144" t="s">
         <v>186</v>
       </c>
-      <c r="R6" s="168" t="s">
+      <c r="R6" s="167" t="s">
         <v>147</v>
       </c>
-      <c r="S6" s="168" t="s">
+      <c r="S6" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="T6" s="145" t="s">
+      <c r="T6" s="144" t="s">
         <v>169</v>
       </c>
-      <c r="U6" s="146" t="s">
+      <c r="U6" s="145" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6472,61 +6472,61 @@
       <c r="A7" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="140" t="str">
+      <c r="B7" s="271" t="s">
+        <v>357</v>
+      </c>
+      <c r="C7" s="139" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Acta </v>
       </c>
-      <c r="D7" s="173" t="s">
-        <v>215</v>
-      </c>
-      <c r="E7" s="142" t="s">
+      <c r="D7" s="172" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="162" t="s">
-        <v>292</v>
-      </c>
-      <c r="G7" s="162" t="s">
-        <v>292</v>
+      <c r="F7" s="161" t="s">
+        <v>291</v>
+      </c>
+      <c r="G7" s="161" t="s">
+        <v>291</v>
       </c>
       <c r="H7" s="132"/>
       <c r="I7" s="135" t="s">
-        <v>217</v>
-      </c>
-      <c r="J7" s="144"/>
-      <c r="K7" s="166" t="s">
+        <v>216</v>
+      </c>
+      <c r="J7" s="143"/>
+      <c r="K7" s="165" t="s">
+        <v>289</v>
+      </c>
+      <c r="L7" s="166" t="s">
+        <v>262</v>
+      </c>
+      <c r="M7" s="165" t="s">
         <v>290</v>
       </c>
-      <c r="L7" s="167" t="s">
-        <v>263</v>
-      </c>
-      <c r="M7" s="166" t="s">
-        <v>291</v>
-      </c>
-      <c r="N7" s="144" t="s">
+      <c r="N7" s="143" t="s">
         <v>161</v>
       </c>
-      <c r="O7" s="145" t="s">
+      <c r="O7" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="168" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q7" s="145" t="s">
+      <c r="P7" s="167" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q7" s="144" t="s">
         <v>168</v>
       </c>
-      <c r="R7" s="168" t="s">
+      <c r="R7" s="167" t="s">
         <v>147</v>
       </c>
-      <c r="S7" s="168" t="s">
-        <v>341</v>
-      </c>
-      <c r="T7" s="145" t="s">
+      <c r="S7" s="167" t="s">
+        <v>340</v>
+      </c>
+      <c r="T7" s="144" t="s">
         <v>169</v>
       </c>
-      <c r="U7" s="146" t="s">
+      <c r="U7" s="145" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6534,65 +6534,65 @@
       <c r="A8" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="C8" s="140" t="str">
+      <c r="B8" s="271" t="s">
+        <v>357</v>
+      </c>
+      <c r="C8" s="139" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Informe </v>
       </c>
-      <c r="D8" s="141" t="s">
-        <v>215</v>
-      </c>
-      <c r="E8" s="142" t="s">
+      <c r="D8" s="140" t="s">
+        <v>214</v>
+      </c>
+      <c r="E8" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="162" t="s">
-        <v>293</v>
-      </c>
-      <c r="G8" s="143" t="str">
+      <c r="F8" s="161" t="s">
+        <v>292</v>
+      </c>
+      <c r="G8" s="142" t="str">
         <f t="shared" ref="G8:G25" si="3">F8</f>
         <v>Informe Avance Mensual</v>
       </c>
       <c r="H8" s="132"/>
-      <c r="I8" s="181" t="s">
-        <v>217</v>
-      </c>
-      <c r="J8" s="175" t="s">
-        <v>227</v>
-      </c>
-      <c r="K8" s="165" t="s">
-        <v>248</v>
-      </c>
-      <c r="L8" s="167" t="s">
-        <v>263</v>
-      </c>
-      <c r="M8" s="165" t="s">
-        <v>269</v>
-      </c>
-      <c r="N8" s="144" t="s">
+      <c r="I8" s="180" t="s">
+        <v>216</v>
+      </c>
+      <c r="J8" s="174" t="s">
+        <v>226</v>
+      </c>
+      <c r="K8" s="164" t="s">
+        <v>247</v>
+      </c>
+      <c r="L8" s="166" t="s">
+        <v>262</v>
+      </c>
+      <c r="M8" s="164" t="s">
+        <v>268</v>
+      </c>
+      <c r="N8" s="143" t="s">
         <v>185</v>
       </c>
-      <c r="O8" s="168" t="s">
+      <c r="O8" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="145" t="str">
+      <c r="P8" s="144" t="str">
         <f t="shared" ref="P8:P10" si="4">O8</f>
         <v>Cada semana</v>
       </c>
-      <c r="Q8" s="145" t="s">
+      <c r="Q8" s="144" t="s">
         <v>168</v>
       </c>
-      <c r="R8" s="168" t="s">
-        <v>345</v>
-      </c>
-      <c r="S8" s="168" t="s">
+      <c r="R8" s="167" t="s">
+        <v>344</v>
+      </c>
+      <c r="S8" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="T8" s="145" t="s">
+      <c r="T8" s="144" t="s">
         <v>169</v>
       </c>
-      <c r="U8" s="146" t="s">
+      <c r="U8" s="145" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6600,65 +6600,65 @@
       <c r="A9" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="C9" s="140" t="str">
+      <c r="B9" s="271" t="s">
+        <v>357</v>
+      </c>
+      <c r="C9" s="139" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Aceptación </v>
       </c>
-      <c r="D9" s="141" t="s">
-        <v>215</v>
-      </c>
-      <c r="E9" s="148" t="s">
+      <c r="D9" s="140" t="s">
+        <v>214</v>
+      </c>
+      <c r="E9" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="162" t="s">
-        <v>197</v>
-      </c>
-      <c r="G9" s="143" t="str">
+      <c r="F9" s="161" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="142" t="str">
         <f t="shared" si="3"/>
         <v>Aceptación de Entregables</v>
       </c>
       <c r="H9" s="132"/>
       <c r="I9" s="135" t="s">
-        <v>217</v>
-      </c>
-      <c r="J9" s="144" t="s">
-        <v>228</v>
-      </c>
-      <c r="K9" s="165" t="s">
-        <v>249</v>
-      </c>
-      <c r="L9" s="167" t="s">
-        <v>263</v>
-      </c>
-      <c r="M9" s="165" t="s">
-        <v>270</v>
-      </c>
-      <c r="N9" s="144" t="s">
+        <v>216</v>
+      </c>
+      <c r="J9" s="143" t="s">
+        <v>227</v>
+      </c>
+      <c r="K9" s="164" t="s">
+        <v>248</v>
+      </c>
+      <c r="L9" s="166" t="s">
+        <v>262</v>
+      </c>
+      <c r="M9" s="164" t="s">
+        <v>269</v>
+      </c>
+      <c r="N9" s="143" t="s">
         <v>185</v>
       </c>
-      <c r="O9" s="145" t="s">
+      <c r="O9" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="P9" s="145" t="str">
+      <c r="P9" s="144" t="str">
         <f t="shared" si="4"/>
         <v>Cada mes</v>
       </c>
-      <c r="Q9" s="145" t="s">
+      <c r="Q9" s="144" t="s">
         <v>168</v>
       </c>
-      <c r="R9" s="168" t="s">
+      <c r="R9" s="167" t="s">
         <v>147</v>
       </c>
-      <c r="S9" s="168" t="s">
+      <c r="S9" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="T9" s="145" t="s">
+      <c r="T9" s="144" t="s">
         <v>169</v>
       </c>
-      <c r="U9" s="146" t="s">
+      <c r="U9" s="145" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6666,65 +6666,65 @@
       <c r="A10" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="140" t="str">
+      <c r="B10" s="271" t="s">
+        <v>357</v>
+      </c>
+      <c r="C10" s="139" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Registro </v>
       </c>
-      <c r="D10" s="141" t="s">
-        <v>215</v>
-      </c>
-      <c r="E10" s="148" t="s">
+      <c r="D10" s="140" t="s">
+        <v>214</v>
+      </c>
+      <c r="E10" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="162" t="s">
-        <v>198</v>
-      </c>
-      <c r="G10" s="143" t="str">
+      <c r="F10" s="161" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="142" t="str">
         <f t="shared" si="3"/>
         <v>Registro de Riesgos</v>
       </c>
       <c r="H10" s="132"/>
       <c r="I10" s="135" t="s">
-        <v>217</v>
-      </c>
-      <c r="J10" s="144" t="s">
-        <v>229</v>
-      </c>
-      <c r="K10" s="165" t="s">
-        <v>250</v>
-      </c>
-      <c r="L10" s="165" t="s">
-        <v>264</v>
-      </c>
-      <c r="M10" s="165" t="s">
-        <v>271</v>
-      </c>
-      <c r="N10" s="144" t="s">
+        <v>216</v>
+      </c>
+      <c r="J10" s="143" t="s">
+        <v>228</v>
+      </c>
+      <c r="K10" s="164" t="s">
+        <v>249</v>
+      </c>
+      <c r="L10" s="164" t="s">
+        <v>263</v>
+      </c>
+      <c r="M10" s="164" t="s">
+        <v>270</v>
+      </c>
+      <c r="N10" s="143" t="s">
         <v>185</v>
       </c>
-      <c r="O10" s="145" t="s">
+      <c r="O10" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="P10" s="145" t="str">
+      <c r="P10" s="144" t="str">
         <f t="shared" si="4"/>
         <v>Cada vez que se requiera</v>
       </c>
-      <c r="Q10" s="145" t="s">
+      <c r="Q10" s="144" t="s">
         <v>168</v>
       </c>
-      <c r="R10" s="168" t="s">
-        <v>346</v>
-      </c>
-      <c r="S10" s="168" t="s">
+      <c r="R10" s="167" t="s">
+        <v>345</v>
+      </c>
+      <c r="S10" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="T10" s="163" t="s">
+      <c r="T10" s="162" t="s">
         <v>167</v>
       </c>
-      <c r="U10" s="146" t="s">
+      <c r="U10" s="145" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6732,64 +6732,64 @@
       <c r="A11" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" s="140" t="str">
+      <c r="B11" s="271" t="s">
+        <v>357</v>
+      </c>
+      <c r="C11" s="139" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Lista </v>
       </c>
-      <c r="D11" s="141" t="s">
+      <c r="D11" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="148" t="s">
+      <c r="E11" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="162" t="s">
-        <v>199</v>
-      </c>
-      <c r="G11" s="143" t="str">
+      <c r="F11" s="161" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="142" t="str">
         <f t="shared" si="3"/>
         <v>Lista Maestra de Requerimientos</v>
       </c>
       <c r="H11" s="132"/>
       <c r="I11" s="135" t="s">
-        <v>218</v>
-      </c>
-      <c r="J11" s="149" t="s">
-        <v>230</v>
-      </c>
-      <c r="K11" s="165" t="s">
-        <v>251</v>
-      </c>
-      <c r="L11" s="165" t="s">
-        <v>264</v>
-      </c>
-      <c r="M11" s="165" t="s">
-        <v>272</v>
-      </c>
-      <c r="N11" s="144" t="s">
+        <v>217</v>
+      </c>
+      <c r="J11" s="148" t="s">
+        <v>229</v>
+      </c>
+      <c r="K11" s="164" t="s">
+        <v>250</v>
+      </c>
+      <c r="L11" s="164" t="s">
+        <v>263</v>
+      </c>
+      <c r="M11" s="164" t="s">
+        <v>271</v>
+      </c>
+      <c r="N11" s="143" t="s">
         <v>185</v>
       </c>
-      <c r="O11" s="145" t="s">
+      <c r="O11" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="P11" s="145" t="s">
+      <c r="P11" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="Q11" s="145" t="s">
+      <c r="Q11" s="144" t="s">
         <v>186</v>
       </c>
-      <c r="R11" s="168" t="s">
-        <v>347</v>
-      </c>
-      <c r="S11" s="168" t="s">
+      <c r="R11" s="167" t="s">
+        <v>346</v>
+      </c>
+      <c r="S11" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="T11" s="163" t="s">
+      <c r="T11" s="162" t="s">
         <v>167</v>
       </c>
-      <c r="U11" s="146" t="s">
+      <c r="U11" s="145" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6797,64 +6797,64 @@
       <c r="A12" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12" s="140" t="str">
+      <c r="B12" s="271" t="s">
+        <v>357</v>
+      </c>
+      <c r="C12" s="139" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Matriz </v>
       </c>
-      <c r="D12" s="141" t="s">
+      <c r="D12" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="148" t="s">
+      <c r="E12" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="162" t="s">
-        <v>200</v>
-      </c>
-      <c r="G12" s="143" t="str">
+      <c r="F12" s="161" t="s">
+        <v>199</v>
+      </c>
+      <c r="G12" s="142" t="str">
         <f t="shared" si="3"/>
         <v>Matriz de Trazabilidad de Requerimientos</v>
       </c>
       <c r="H12" s="132"/>
       <c r="I12" s="135" t="s">
-        <v>218</v>
-      </c>
-      <c r="J12" s="144" t="s">
-        <v>231</v>
-      </c>
-      <c r="K12" s="165" t="s">
-        <v>252</v>
-      </c>
-      <c r="L12" s="165" t="s">
-        <v>264</v>
-      </c>
-      <c r="M12" s="165" t="s">
-        <v>273</v>
-      </c>
-      <c r="N12" s="144" t="s">
+        <v>217</v>
+      </c>
+      <c r="J12" s="143" t="s">
+        <v>230</v>
+      </c>
+      <c r="K12" s="164" t="s">
+        <v>251</v>
+      </c>
+      <c r="L12" s="164" t="s">
+        <v>263</v>
+      </c>
+      <c r="M12" s="164" t="s">
+        <v>272</v>
+      </c>
+      <c r="N12" s="143" t="s">
         <v>185</v>
       </c>
-      <c r="O12" s="145" t="s">
+      <c r="O12" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="P12" s="145" t="s">
+      <c r="P12" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="Q12" s="145" t="s">
+      <c r="Q12" s="144" t="s">
         <v>168</v>
       </c>
-      <c r="R12" s="168" t="s">
-        <v>347</v>
-      </c>
-      <c r="S12" s="168" t="s">
+      <c r="R12" s="167" t="s">
+        <v>346</v>
+      </c>
+      <c r="S12" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="T12" s="163" t="s">
+      <c r="T12" s="162" t="s">
         <v>167</v>
       </c>
-      <c r="U12" s="146" t="s">
+      <c r="U12" s="145" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6862,64 +6862,64 @@
       <c r="A13" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="C13" s="140" t="str">
+      <c r="B13" s="271" t="s">
+        <v>357</v>
+      </c>
+      <c r="C13" s="139" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Proceso </v>
       </c>
-      <c r="D13" s="141" t="s">
+      <c r="D13" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="148" t="s">
+      <c r="E13" s="147" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="162" t="s">
-        <v>201</v>
-      </c>
-      <c r="G13" s="143" t="str">
+      <c r="F13" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="G13" s="142" t="str">
         <f t="shared" si="3"/>
         <v>Proceso Gestión Requerimientos</v>
       </c>
       <c r="H13" s="132"/>
       <c r="I13" s="135" t="s">
-        <v>218</v>
-      </c>
-      <c r="J13" s="144" t="s">
-        <v>232</v>
-      </c>
-      <c r="K13" s="165" t="s">
-        <v>253</v>
-      </c>
-      <c r="L13" s="165" t="s">
-        <v>264</v>
-      </c>
-      <c r="M13" s="165" t="s">
-        <v>274</v>
-      </c>
-      <c r="N13" s="144" t="s">
+        <v>217</v>
+      </c>
+      <c r="J13" s="143" t="s">
+        <v>231</v>
+      </c>
+      <c r="K13" s="164" t="s">
+        <v>252</v>
+      </c>
+      <c r="L13" s="164" t="s">
+        <v>263</v>
+      </c>
+      <c r="M13" s="164" t="s">
+        <v>273</v>
+      </c>
+      <c r="N13" s="143" t="s">
         <v>185</v>
       </c>
-      <c r="O13" s="145" t="s">
+      <c r="O13" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="P13" s="145" t="s">
+      <c r="P13" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="Q13" s="145" t="s">
+      <c r="Q13" s="144" t="s">
         <v>168</v>
       </c>
-      <c r="R13" s="168" t="s">
-        <v>347</v>
-      </c>
-      <c r="S13" s="168" t="s">
+      <c r="R13" s="167" t="s">
+        <v>346</v>
+      </c>
+      <c r="S13" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="T13" s="163" t="s">
+      <c r="T13" s="162" t="s">
         <v>167</v>
       </c>
-      <c r="U13" s="146" t="s">
+      <c r="U13" s="145" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6927,64 +6927,64 @@
       <c r="A14" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="C14" s="140" t="str">
+      <c r="B14" s="271" t="s">
+        <v>357</v>
+      </c>
+      <c r="C14" s="139" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Registro </v>
       </c>
-      <c r="D14" s="141" t="s">
+      <c r="D14" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="148" t="s">
+      <c r="E14" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="162" t="s">
-        <v>202</v>
-      </c>
-      <c r="G14" s="143" t="str">
+      <c r="F14" s="161" t="s">
+        <v>201</v>
+      </c>
+      <c r="G14" s="142" t="str">
         <f t="shared" si="3"/>
         <v>Registro de Cambios a Requerimientos</v>
       </c>
       <c r="H14" s="132"/>
       <c r="I14" s="135" t="s">
-        <v>218</v>
-      </c>
-      <c r="J14" s="144" t="s">
-        <v>233</v>
-      </c>
-      <c r="K14" s="165" t="s">
-        <v>254</v>
-      </c>
-      <c r="L14" s="165" t="s">
-        <v>264</v>
-      </c>
-      <c r="M14" s="165" t="s">
-        <v>275</v>
-      </c>
-      <c r="N14" s="144" t="s">
+        <v>217</v>
+      </c>
+      <c r="J14" s="143" t="s">
+        <v>232</v>
+      </c>
+      <c r="K14" s="164" t="s">
+        <v>253</v>
+      </c>
+      <c r="L14" s="164" t="s">
+        <v>263</v>
+      </c>
+      <c r="M14" s="164" t="s">
+        <v>274</v>
+      </c>
+      <c r="N14" s="143" t="s">
         <v>185</v>
       </c>
-      <c r="O14" s="145" t="s">
+      <c r="O14" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="P14" s="145" t="s">
+      <c r="P14" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="Q14" s="145" t="s">
+      <c r="Q14" s="144" t="s">
         <v>168</v>
       </c>
-      <c r="R14" s="168" t="s">
-        <v>347</v>
-      </c>
-      <c r="S14" s="168" t="s">
+      <c r="R14" s="167" t="s">
+        <v>346</v>
+      </c>
+      <c r="S14" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="T14" s="163" t="s">
+      <c r="T14" s="162" t="s">
         <v>167</v>
       </c>
-      <c r="U14" s="146" t="s">
+      <c r="U14" s="145" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6992,64 +6992,64 @@
       <c r="A15" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="C15" s="140" t="str">
+      <c r="B15" s="271" t="s">
+        <v>357</v>
+      </c>
+      <c r="C15" s="139" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Solicitud </v>
       </c>
-      <c r="D15" s="141" t="s">
+      <c r="D15" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="148" t="s">
+      <c r="E15" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="162" t="s">
-        <v>203</v>
-      </c>
-      <c r="G15" s="143" t="str">
+      <c r="F15" s="161" t="s">
+        <v>202</v>
+      </c>
+      <c r="G15" s="142" t="str">
         <f t="shared" si="3"/>
         <v>Solicitud de Cambios a Requerimientos</v>
       </c>
       <c r="H15" s="132"/>
       <c r="I15" s="135" t="s">
-        <v>218</v>
-      </c>
-      <c r="J15" s="144" t="s">
-        <v>234</v>
-      </c>
-      <c r="K15" s="165" t="s">
-        <v>255</v>
-      </c>
-      <c r="L15" s="165" t="s">
-        <v>264</v>
-      </c>
-      <c r="M15" s="165" t="s">
-        <v>276</v>
-      </c>
-      <c r="N15" s="144" t="s">
+        <v>217</v>
+      </c>
+      <c r="J15" s="143" t="s">
+        <v>233</v>
+      </c>
+      <c r="K15" s="164" t="s">
+        <v>254</v>
+      </c>
+      <c r="L15" s="164" t="s">
+        <v>263</v>
+      </c>
+      <c r="M15" s="164" t="s">
+        <v>275</v>
+      </c>
+      <c r="N15" s="143" t="s">
         <v>185</v>
       </c>
-      <c r="O15" s="145" t="s">
+      <c r="O15" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="P15" s="145" t="s">
+      <c r="P15" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="Q15" s="145" t="s">
+      <c r="Q15" s="144" t="s">
         <v>168</v>
       </c>
-      <c r="R15" s="168" t="s">
-        <v>347</v>
-      </c>
-      <c r="S15" s="168" t="s">
+      <c r="R15" s="167" t="s">
+        <v>346</v>
+      </c>
+      <c r="S15" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="T15" s="163" t="s">
+      <c r="T15" s="162" t="s">
         <v>167</v>
       </c>
-      <c r="U15" s="146" t="s">
+      <c r="U15" s="145" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7057,64 +7057,64 @@
       <c r="A16" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" s="140" t="str">
+      <c r="B16" s="271" t="s">
+        <v>357</v>
+      </c>
+      <c r="C16" s="139" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">CheckList </v>
       </c>
-      <c r="D16" s="159" t="s">
+      <c r="D16" s="158" t="s">
         <v>152</v>
       </c>
-      <c r="E16" s="151" t="s">
+      <c r="E16" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="G16" s="143" t="str">
+      <c r="F16" s="161" t="s">
+        <v>203</v>
+      </c>
+      <c r="G16" s="142" t="str">
         <f t="shared" si="3"/>
         <v>CheckList de Aseguramiento de Calidad</v>
       </c>
       <c r="H16" s="132"/>
-      <c r="I16" s="164" t="s">
-        <v>219</v>
-      </c>
-      <c r="J16" s="144" t="s">
-        <v>235</v>
-      </c>
-      <c r="K16" s="165" t="s">
-        <v>256</v>
-      </c>
-      <c r="L16" s="165" t="s">
-        <v>264</v>
-      </c>
-      <c r="M16" s="165" t="s">
-        <v>277</v>
-      </c>
-      <c r="N16" s="144" t="s">
+      <c r="I16" s="163" t="s">
+        <v>218</v>
+      </c>
+      <c r="J16" s="143" t="s">
+        <v>234</v>
+      </c>
+      <c r="K16" s="164" t="s">
+        <v>255</v>
+      </c>
+      <c r="L16" s="164" t="s">
+        <v>263</v>
+      </c>
+      <c r="M16" s="164" t="s">
+        <v>276</v>
+      </c>
+      <c r="N16" s="143" t="s">
         <v>161</v>
       </c>
-      <c r="O16" s="145" t="s">
+      <c r="O16" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="P16" s="145" t="s">
+      <c r="P16" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="Q16" s="145" t="s">
+      <c r="Q16" s="144" t="s">
         <v>168</v>
       </c>
-      <c r="R16" s="168" t="s">
-        <v>348</v>
-      </c>
-      <c r="S16" s="168" t="s">
+      <c r="R16" s="167" t="s">
+        <v>347</v>
+      </c>
+      <c r="S16" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="T16" s="163" t="s">
+      <c r="T16" s="162" t="s">
         <v>167</v>
       </c>
-      <c r="U16" s="146" t="s">
+      <c r="U16" s="145" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7122,62 +7122,62 @@
       <c r="A17" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" s="140" t="str">
+      <c r="B17" s="271" t="s">
+        <v>357</v>
+      </c>
+      <c r="C17" s="139" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Herramienta </v>
       </c>
-      <c r="D17" s="148" t="s">
+      <c r="D17" s="147" t="s">
         <v>152</v>
       </c>
-      <c r="E17" s="148" t="s">
+      <c r="E17" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="162" t="s">
-        <v>205</v>
-      </c>
-      <c r="G17" s="143" t="str">
+      <c r="F17" s="161" t="s">
+        <v>204</v>
+      </c>
+      <c r="G17" s="142" t="str">
         <f t="shared" si="3"/>
         <v>Herramienta Gestión de Aseguramiento de Calidad</v>
       </c>
       <c r="H17" s="132"/>
       <c r="I17" s="135" t="s">
-        <v>219</v>
-      </c>
-      <c r="J17" s="149" t="s">
-        <v>236</v>
-      </c>
-      <c r="K17" s="165" t="s">
-        <v>257</v>
-      </c>
-      <c r="L17" s="165" t="s">
-        <v>264</v>
-      </c>
-      <c r="M17" s="165" t="s">
-        <v>278</v>
-      </c>
-      <c r="N17" s="144" t="s">
+        <v>218</v>
+      </c>
+      <c r="J17" s="148" t="s">
+        <v>235</v>
+      </c>
+      <c r="K17" s="164" t="s">
+        <v>256</v>
+      </c>
+      <c r="L17" s="164" t="s">
+        <v>263</v>
+      </c>
+      <c r="M17" s="164" t="s">
+        <v>277</v>
+      </c>
+      <c r="N17" s="143" t="s">
         <v>161</v>
       </c>
-      <c r="O17" s="145" t="s">
+      <c r="O17" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="P17" s="145" t="s">
+      <c r="P17" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="Q17" s="145"/>
-      <c r="R17" s="168" t="s">
-        <v>348</v>
-      </c>
-      <c r="S17" s="168" t="s">
+      <c r="Q17" s="144"/>
+      <c r="R17" s="167" t="s">
+        <v>347</v>
+      </c>
+      <c r="S17" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="T17" s="163" t="s">
+      <c r="T17" s="162" t="s">
         <v>167</v>
       </c>
-      <c r="U17" s="170" t="s">
+      <c r="U17" s="169" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7185,64 +7185,64 @@
       <c r="A18" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="C18" s="140" t="str">
+      <c r="B18" s="271" t="s">
+        <v>357</v>
+      </c>
+      <c r="C18" s="139" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Proceso </v>
       </c>
-      <c r="D18" s="148" t="s">
+      <c r="D18" s="147" t="s">
         <v>152</v>
       </c>
-      <c r="E18" s="148" t="s">
+      <c r="E18" s="147" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="162" t="s">
-        <v>206</v>
-      </c>
-      <c r="G18" s="143" t="str">
+      <c r="F18" s="161" t="s">
+        <v>205</v>
+      </c>
+      <c r="G18" s="142" t="str">
         <f t="shared" si="3"/>
         <v>Proceso Aseguramiento Calidad</v>
       </c>
       <c r="H18" s="132"/>
       <c r="I18" s="135" t="s">
-        <v>219</v>
-      </c>
-      <c r="J18" s="149" t="s">
-        <v>237</v>
-      </c>
-      <c r="K18" s="165" t="s">
-        <v>258</v>
-      </c>
-      <c r="L18" s="165" t="s">
-        <v>264</v>
-      </c>
-      <c r="M18" s="165" t="s">
-        <v>279</v>
-      </c>
-      <c r="N18" s="144" t="s">
+        <v>218</v>
+      </c>
+      <c r="J18" s="148" t="s">
+        <v>236</v>
+      </c>
+      <c r="K18" s="164" t="s">
+        <v>257</v>
+      </c>
+      <c r="L18" s="164" t="s">
+        <v>263</v>
+      </c>
+      <c r="M18" s="164" t="s">
+        <v>278</v>
+      </c>
+      <c r="N18" s="143" t="s">
         <v>161</v>
       </c>
-      <c r="O18" s="145" t="s">
+      <c r="O18" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="P18" s="145" t="s">
+      <c r="P18" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="Q18" s="145" t="s">
+      <c r="Q18" s="144" t="s">
         <v>168</v>
       </c>
-      <c r="R18" s="168" t="s">
-        <v>348</v>
-      </c>
-      <c r="S18" s="168" t="s">
+      <c r="R18" s="167" t="s">
+        <v>347</v>
+      </c>
+      <c r="S18" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="T18" s="163" t="s">
+      <c r="T18" s="162" t="s">
         <v>167</v>
       </c>
-      <c r="U18" s="171" t="s">
+      <c r="U18" s="170" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7250,64 +7250,64 @@
       <c r="A19" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="C19" s="140" t="str">
+      <c r="B19" s="271" t="s">
+        <v>357</v>
+      </c>
+      <c r="C19" s="139" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Ficha </v>
       </c>
-      <c r="D19" s="148" t="s">
+      <c r="D19" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="148" t="s">
+      <c r="E19" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="162" t="s">
-        <v>207</v>
-      </c>
-      <c r="G19" s="143" t="str">
+      <c r="F19" s="161" t="s">
+        <v>206</v>
+      </c>
+      <c r="G19" s="142" t="str">
         <f t="shared" si="3"/>
         <v>Ficha de Métricas de  Numero de No conformidades QA del Producto</v>
       </c>
       <c r="H19" s="132"/>
       <c r="I19" s="135" t="s">
-        <v>220</v>
-      </c>
-      <c r="J19" s="149" t="s">
-        <v>238</v>
-      </c>
-      <c r="K19" s="165" t="s">
-        <v>259</v>
-      </c>
-      <c r="L19" s="165" t="s">
-        <v>264</v>
-      </c>
-      <c r="M19" s="165" t="s">
-        <v>280</v>
-      </c>
-      <c r="N19" s="144" t="s">
+        <v>219</v>
+      </c>
+      <c r="J19" s="148" t="s">
+        <v>237</v>
+      </c>
+      <c r="K19" s="164" t="s">
+        <v>258</v>
+      </c>
+      <c r="L19" s="164" t="s">
+        <v>263</v>
+      </c>
+      <c r="M19" s="164" t="s">
+        <v>279</v>
+      </c>
+      <c r="N19" s="143" t="s">
         <v>161</v>
       </c>
-      <c r="O19" s="145" t="s">
+      <c r="O19" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="P19" s="145" t="s">
+      <c r="P19" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="Q19" s="145" t="s">
+      <c r="Q19" s="144" t="s">
         <v>168</v>
       </c>
-      <c r="R19" s="168" t="s">
-        <v>348</v>
-      </c>
-      <c r="S19" s="168" t="s">
+      <c r="R19" s="167" t="s">
+        <v>347</v>
+      </c>
+      <c r="S19" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="T19" s="163" t="s">
+      <c r="T19" s="162" t="s">
         <v>167</v>
       </c>
-      <c r="U19" s="171" t="s">
+      <c r="U19" s="170" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7315,64 +7315,64 @@
       <c r="A20" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="C20" s="140" t="str">
+      <c r="B20" s="271" t="s">
+        <v>357</v>
+      </c>
+      <c r="C20" s="139" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Ficha </v>
       </c>
-      <c r="D20" s="148" t="s">
+      <c r="D20" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="148" t="s">
+      <c r="E20" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="162" t="s">
-        <v>208</v>
-      </c>
-      <c r="G20" s="143" t="str">
+      <c r="F20" s="161" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" s="142" t="str">
         <f t="shared" si="3"/>
         <v>Ficha de Métricas de Exposición al Riesgo</v>
       </c>
       <c r="H20" s="132"/>
       <c r="I20" s="135" t="s">
-        <v>220</v>
-      </c>
-      <c r="J20" s="149" t="s">
-        <v>239</v>
-      </c>
-      <c r="K20" s="166" t="s">
-        <v>260</v>
-      </c>
-      <c r="L20" s="165" t="s">
-        <v>264</v>
-      </c>
-      <c r="M20" s="166" t="s">
-        <v>281</v>
-      </c>
-      <c r="N20" s="144" t="s">
+        <v>219</v>
+      </c>
+      <c r="J20" s="148" t="s">
+        <v>238</v>
+      </c>
+      <c r="K20" s="165" t="s">
+        <v>259</v>
+      </c>
+      <c r="L20" s="164" t="s">
+        <v>263</v>
+      </c>
+      <c r="M20" s="165" t="s">
+        <v>280</v>
+      </c>
+      <c r="N20" s="143" t="s">
         <v>185</v>
       </c>
-      <c r="O20" s="145" t="s">
+      <c r="O20" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="P20" s="145" t="s">
+      <c r="P20" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="Q20" s="145" t="s">
+      <c r="Q20" s="144" t="s">
         <v>168</v>
       </c>
-      <c r="R20" s="168" t="s">
-        <v>349</v>
-      </c>
-      <c r="S20" s="168" t="s">
+      <c r="R20" s="167" t="s">
+        <v>348</v>
+      </c>
+      <c r="S20" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="T20" s="163" t="s">
+      <c r="T20" s="162" t="s">
         <v>167</v>
       </c>
-      <c r="U20" s="171" t="s">
+      <c r="U20" s="170" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7380,64 +7380,64 @@
       <c r="A21" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21" s="140" t="str">
+      <c r="B21" s="271" t="s">
+        <v>357</v>
+      </c>
+      <c r="C21" s="139" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Ficha </v>
       </c>
-      <c r="D21" s="148" t="s">
+      <c r="D21" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="148" t="s">
+      <c r="E21" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="162" t="s">
-        <v>209</v>
-      </c>
-      <c r="G21" s="143" t="str">
+      <c r="F21" s="161" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" s="142" t="str">
         <f t="shared" si="3"/>
         <v>Ficha de Métricas de Volatilidad de requerimientos</v>
       </c>
       <c r="H21" s="132"/>
       <c r="I21" s="135" t="s">
-        <v>220</v>
-      </c>
-      <c r="J21" s="149" t="s">
-        <v>240</v>
-      </c>
-      <c r="K21" s="166" t="s">
-        <v>261</v>
-      </c>
-      <c r="L21" s="165" t="s">
-        <v>264</v>
-      </c>
-      <c r="M21" s="166" t="s">
-        <v>282</v>
-      </c>
-      <c r="N21" s="144" t="s">
+        <v>219</v>
+      </c>
+      <c r="J21" s="148" t="s">
+        <v>239</v>
+      </c>
+      <c r="K21" s="165" t="s">
+        <v>260</v>
+      </c>
+      <c r="L21" s="164" t="s">
+        <v>263</v>
+      </c>
+      <c r="M21" s="165" t="s">
+        <v>281</v>
+      </c>
+      <c r="N21" s="143" t="s">
         <v>185</v>
       </c>
-      <c r="O21" s="145" t="s">
+      <c r="O21" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="P21" s="145" t="s">
+      <c r="P21" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="Q21" s="145" t="s">
+      <c r="Q21" s="144" t="s">
         <v>187</v>
       </c>
-      <c r="R21" s="168" t="s">
-        <v>348</v>
-      </c>
-      <c r="S21" s="168" t="s">
+      <c r="R21" s="167" t="s">
+        <v>347</v>
+      </c>
+      <c r="S21" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="T21" s="163" t="s">
+      <c r="T21" s="162" t="s">
         <v>167</v>
       </c>
-      <c r="U21" s="171" t="s">
+      <c r="U21" s="170" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7445,190 +7445,190 @@
       <c r="A22" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="C22" s="140" t="str">
+      <c r="B22" s="271" t="s">
+        <v>357</v>
+      </c>
+      <c r="C22" s="139" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Proceso </v>
       </c>
-      <c r="D22" s="170" t="s">
-        <v>221</v>
-      </c>
-      <c r="E22" s="151" t="s">
+      <c r="D22" s="169" t="s">
+        <v>220</v>
+      </c>
+      <c r="E22" s="150" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="162" t="s">
-        <v>210</v>
-      </c>
-      <c r="G22" s="143" t="str">
+      <c r="F22" s="161" t="s">
+        <v>209</v>
+      </c>
+      <c r="G22" s="142" t="str">
         <f t="shared" si="3"/>
         <v>Proceso de Gestión de la Configuración</v>
       </c>
       <c r="H22" s="132"/>
       <c r="I22" s="135" t="s">
-        <v>222</v>
-      </c>
-      <c r="J22" s="176" t="s">
-        <v>241</v>
-      </c>
-      <c r="K22" s="183" t="s">
-        <v>336</v>
-      </c>
-      <c r="L22" s="165" t="s">
-        <v>264</v>
-      </c>
-      <c r="M22" s="183" t="s">
-        <v>338</v>
-      </c>
-      <c r="N22" s="144" t="s">
+        <v>221</v>
+      </c>
+      <c r="J22" s="175" t="s">
+        <v>240</v>
+      </c>
+      <c r="K22" s="182" t="s">
+        <v>335</v>
+      </c>
+      <c r="L22" s="164" t="s">
+        <v>263</v>
+      </c>
+      <c r="M22" s="182" t="s">
+        <v>337</v>
+      </c>
+      <c r="N22" s="143" t="s">
         <v>161</v>
       </c>
-      <c r="O22" s="145"/>
-      <c r="P22" s="145" t="s">
+      <c r="O22" s="144"/>
+      <c r="P22" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="Q22" s="145" t="s">
+      <c r="Q22" s="144" t="s">
         <v>168</v>
       </c>
-      <c r="R22" s="145" t="s">
+      <c r="R22" s="144" t="s">
         <v>173</v>
       </c>
-      <c r="S22" s="168" t="s">
+      <c r="S22" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="T22" s="163" t="s">
+      <c r="T22" s="162" t="s">
         <v>167</v>
       </c>
-      <c r="U22" s="171" t="s">
+      <c r="U22" s="170" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="53" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="150" t="s">
+      <c r="A23" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" s="140" t="str">
+      <c r="B23" s="271" t="s">
+        <v>357</v>
+      </c>
+      <c r="C23" s="139" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Registro </v>
       </c>
-      <c r="D23" s="170" t="s">
-        <v>221</v>
-      </c>
-      <c r="E23" s="151" t="s">
+      <c r="D23" s="169" t="s">
+        <v>220</v>
+      </c>
+      <c r="E23" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="162" t="s">
-        <v>211</v>
-      </c>
-      <c r="G23" s="143" t="str">
+      <c r="F23" s="161" t="s">
+        <v>210</v>
+      </c>
+      <c r="G23" s="142" t="str">
         <f t="shared" si="3"/>
         <v>Registro de Ítems de Configuración</v>
       </c>
       <c r="H23" s="132"/>
       <c r="I23" s="135" t="s">
-        <v>222</v>
-      </c>
-      <c r="J23" s="176" t="s">
-        <v>241</v>
-      </c>
-      <c r="K23" s="184" t="s">
-        <v>337</v>
-      </c>
-      <c r="L23" s="165" t="s">
-        <v>264</v>
-      </c>
-      <c r="M23" s="184" t="s">
-        <v>339</v>
-      </c>
-      <c r="N23" s="144" t="s">
+        <v>221</v>
+      </c>
+      <c r="J23" s="175" t="s">
+        <v>240</v>
+      </c>
+      <c r="K23" s="183" t="s">
+        <v>336</v>
+      </c>
+      <c r="L23" s="164" t="s">
+        <v>263</v>
+      </c>
+      <c r="M23" s="183" t="s">
+        <v>338</v>
+      </c>
+      <c r="N23" s="143" t="s">
         <v>159</v>
       </c>
-      <c r="O23" s="145" t="s">
+      <c r="O23" s="144" t="s">
         <v>145</v>
       </c>
-      <c r="P23" s="145" t="s">
+      <c r="P23" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="Q23" s="145" t="s">
+      <c r="Q23" s="144" t="s">
         <v>144</v>
       </c>
-      <c r="R23" s="145" t="s">
+      <c r="R23" s="144" t="s">
         <v>173</v>
       </c>
-      <c r="S23" s="168" t="s">
+      <c r="S23" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="T23" s="163" t="s">
+      <c r="T23" s="162" t="s">
         <v>167</v>
       </c>
-      <c r="U23" s="171" t="s">
+      <c r="U23" s="170" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="66" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="150" t="s">
+      <c r="A24" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="C24" s="140" t="str">
+      <c r="B24" s="271" t="s">
+        <v>357</v>
+      </c>
+      <c r="C24" s="139" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Solicitud </v>
       </c>
-      <c r="D24" s="170" t="s">
-        <v>221</v>
-      </c>
-      <c r="E24" s="151" t="s">
+      <c r="D24" s="169" t="s">
+        <v>220</v>
+      </c>
+      <c r="E24" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="162" t="s">
-        <v>212</v>
-      </c>
-      <c r="G24" s="143" t="str">
+      <c r="F24" s="161" t="s">
+        <v>211</v>
+      </c>
+      <c r="G24" s="142" t="str">
         <f t="shared" si="3"/>
         <v>Solicitud de Acceso</v>
       </c>
       <c r="H24" s="132"/>
       <c r="I24" s="135" t="s">
-        <v>222</v>
-      </c>
-      <c r="J24" s="176" t="s">
-        <v>242</v>
-      </c>
-      <c r="K24" s="180" t="s">
-        <v>335</v>
-      </c>
-      <c r="L24" s="165" t="s">
-        <v>264</v>
-      </c>
-      <c r="M24" s="180" t="s">
-        <v>340</v>
-      </c>
-      <c r="N24" s="144" t="s">
+        <v>221</v>
+      </c>
+      <c r="J24" s="175" t="s">
+        <v>241</v>
+      </c>
+      <c r="K24" s="179" t="s">
+        <v>334</v>
+      </c>
+      <c r="L24" s="164" t="s">
+        <v>263</v>
+      </c>
+      <c r="M24" s="179" t="s">
+        <v>339</v>
+      </c>
+      <c r="N24" s="143" t="s">
         <v>161</v>
       </c>
-      <c r="O24" s="145"/>
-      <c r="P24" s="145" t="s">
+      <c r="O24" s="144"/>
+      <c r="P24" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="Q24" s="145" t="s">
+      <c r="Q24" s="144" t="s">
         <v>168</v>
       </c>
-      <c r="R24" s="145" t="s">
+      <c r="R24" s="144" t="s">
         <v>173</v>
       </c>
-      <c r="S24" s="168" t="s">
+      <c r="S24" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="T24" s="163" t="s">
+      <c r="T24" s="162" t="s">
         <v>167</v>
       </c>
-      <c r="U24" s="171" t="s">
+      <c r="U24" s="170" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7636,64 +7636,64 @@
       <c r="A25" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="C25" s="140" t="str">
+      <c r="B25" s="271" t="s">
+        <v>357</v>
+      </c>
+      <c r="C25" s="139" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Ficha </v>
       </c>
-      <c r="D25" s="170" t="s">
+      <c r="D25" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="182" t="s">
+      <c r="E25" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="162" t="s">
-        <v>213</v>
-      </c>
-      <c r="G25" s="143" t="str">
+      <c r="F25" s="161" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25" s="142" t="str">
         <f t="shared" si="3"/>
         <v>Ficha de Métricas de Índice de Cambios en Ítems de Configuración</v>
       </c>
       <c r="H25" s="132"/>
       <c r="I25" s="135" t="s">
-        <v>220</v>
-      </c>
-      <c r="J25" s="176" t="s">
-        <v>324</v>
-      </c>
-      <c r="K25" s="165" t="s">
+        <v>219</v>
+      </c>
+      <c r="J25" s="175" t="s">
+        <v>323</v>
+      </c>
+      <c r="K25" s="164" t="s">
+        <v>332</v>
+      </c>
+      <c r="L25" s="164" t="s">
+        <v>263</v>
+      </c>
+      <c r="M25" s="164" t="s">
         <v>333</v>
       </c>
-      <c r="L25" s="165" t="s">
-        <v>264</v>
-      </c>
-      <c r="M25" s="165" t="s">
-        <v>334</v>
-      </c>
-      <c r="N25" s="144" t="s">
+      <c r="N25" s="143" t="s">
         <v>161</v>
       </c>
-      <c r="O25" s="169" t="s">
+      <c r="O25" s="168" t="s">
         <v>170</v>
       </c>
-      <c r="P25" s="169" t="s">
+      <c r="P25" s="168" t="s">
         <v>170</v>
       </c>
-      <c r="Q25" s="145" t="s">
+      <c r="Q25" s="144" t="s">
         <v>161</v>
       </c>
-      <c r="R25" s="145" t="s">
+      <c r="R25" s="144" t="s">
         <v>173</v>
       </c>
-      <c r="S25" s="168" t="s">
+      <c r="S25" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="T25" s="163" t="s">
+      <c r="T25" s="162" t="s">
         <v>167</v>
       </c>
-      <c r="U25" s="171" t="s">
+      <c r="U25" s="170" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7701,64 +7701,64 @@
       <c r="A26" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="C26" s="140" t="str">
+      <c r="B26" s="271" t="s">
+        <v>357</v>
+      </c>
+      <c r="C26" s="139" t="str">
         <f>IF(F26=0," ",IF(ISERROR(MID(F26,1,FIND(" ",F26))),MID(F26,1,FIND(".",F26)),MID(F26,1,FIND(" ",F26))))</f>
         <v xml:space="preserve">Tablero </v>
       </c>
-      <c r="D26" s="146" t="s">
+      <c r="D26" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="182" t="s">
+      <c r="E26" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="162" t="s">
-        <v>214</v>
-      </c>
-      <c r="G26" s="143" t="str">
+      <c r="F26" s="161" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" s="142" t="str">
         <f>F26</f>
         <v>Tablero Métricas</v>
       </c>
       <c r="H26" s="132"/>
       <c r="I26" s="135" t="s">
-        <v>220</v>
-      </c>
-      <c r="J26" s="149" t="s">
-        <v>243</v>
-      </c>
-      <c r="K26" s="165" t="s">
-        <v>262</v>
-      </c>
-      <c r="L26" s="165" t="s">
-        <v>264</v>
-      </c>
-      <c r="M26" s="165" t="s">
-        <v>283</v>
-      </c>
-      <c r="N26" s="144" t="s">
+        <v>219</v>
+      </c>
+      <c r="J26" s="148" t="s">
+        <v>242</v>
+      </c>
+      <c r="K26" s="164" t="s">
+        <v>261</v>
+      </c>
+      <c r="L26" s="164" t="s">
+        <v>263</v>
+      </c>
+      <c r="M26" s="164" t="s">
+        <v>282</v>
+      </c>
+      <c r="N26" s="143" t="s">
         <v>160</v>
       </c>
-      <c r="O26" s="169" t="s">
+      <c r="O26" s="168" t="s">
         <v>170</v>
       </c>
-      <c r="P26" s="169" t="s">
+      <c r="P26" s="168" t="s">
         <v>170</v>
       </c>
-      <c r="Q26" s="145" t="s">
+      <c r="Q26" s="144" t="s">
         <v>161</v>
       </c>
-      <c r="R26" s="145" t="s">
+      <c r="R26" s="144" t="s">
         <v>173</v>
       </c>
-      <c r="S26" s="168" t="s">
+      <c r="S26" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="T26" s="163" t="s">
+      <c r="T26" s="162" t="s">
         <v>167</v>
       </c>
-      <c r="U26" s="171" t="s">
+      <c r="U26" s="170" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7766,63 +7766,63 @@
       <c r="A27" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="C27" s="140" t="str">
+      <c r="B27" s="271" t="s">
+        <v>357</v>
+      </c>
+      <c r="C27" s="139" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Documento </v>
       </c>
-      <c r="D27" s="170" t="s">
+      <c r="D27" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="182" t="s">
+      <c r="E27" s="181" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="162" t="s">
-        <v>294</v>
-      </c>
-      <c r="G27" s="177" t="s">
-        <v>294</v>
+      <c r="F27" s="161" t="s">
+        <v>293</v>
+      </c>
+      <c r="G27" s="176" t="s">
+        <v>293</v>
       </c>
       <c r="H27" s="132"/>
       <c r="I27" s="135" t="s">
-        <v>218</v>
-      </c>
-      <c r="J27" s="149" t="s">
-        <v>354</v>
-      </c>
-      <c r="K27" s="178" t="s">
-        <v>297</v>
-      </c>
-      <c r="L27" s="165" t="s">
-        <v>264</v>
-      </c>
-      <c r="M27" s="178" t="s">
-        <v>303</v>
-      </c>
-      <c r="N27" s="144" t="s">
+        <v>217</v>
+      </c>
+      <c r="J27" s="148" t="s">
+        <v>353</v>
+      </c>
+      <c r="K27" s="177" t="s">
+        <v>296</v>
+      </c>
+      <c r="L27" s="164" t="s">
+        <v>263</v>
+      </c>
+      <c r="M27" s="177" t="s">
+        <v>302</v>
+      </c>
+      <c r="N27" s="143" t="s">
         <v>160</v>
       </c>
-      <c r="O27" s="169" t="s">
+      <c r="O27" s="168" t="s">
         <v>170</v>
       </c>
-      <c r="P27" s="145" t="s">
+      <c r="P27" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="Q27" s="145" t="s">
+      <c r="Q27" s="144" t="s">
         <v>161</v>
       </c>
-      <c r="R27" s="168" t="s">
-        <v>349</v>
-      </c>
-      <c r="S27" s="168" t="s">
+      <c r="R27" s="167" t="s">
+        <v>348</v>
+      </c>
+      <c r="S27" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="T27" s="163" t="s">
+      <c r="T27" s="162" t="s">
         <v>167</v>
       </c>
-      <c r="U27" s="171" t="s">
+      <c r="U27" s="170" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7830,64 +7830,64 @@
       <c r="A28" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="C28" s="140" t="str">
+      <c r="B28" s="271" t="s">
+        <v>357</v>
+      </c>
+      <c r="C28" s="139" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Informe </v>
       </c>
-      <c r="D28" s="170" t="s">
+      <c r="D28" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="182" t="s">
+      <c r="E28" s="181" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="177" t="s">
-        <v>295</v>
-      </c>
-      <c r="G28" s="143" t="str">
+      <c r="F28" s="176" t="s">
+        <v>294</v>
+      </c>
+      <c r="G28" s="142" t="str">
         <f>F28</f>
         <v>Informe de Pruebas Externas</v>
       </c>
       <c r="H28" s="132"/>
       <c r="I28" s="135" t="s">
-        <v>218</v>
-      </c>
-      <c r="J28" s="149" t="s">
-        <v>353</v>
-      </c>
-      <c r="K28" s="165" t="s">
-        <v>298</v>
-      </c>
-      <c r="L28" s="167" t="s">
-        <v>263</v>
-      </c>
-      <c r="M28" s="165" t="s">
-        <v>304</v>
-      </c>
-      <c r="N28" s="144" t="s">
+        <v>217</v>
+      </c>
+      <c r="J28" s="148" t="s">
+        <v>352</v>
+      </c>
+      <c r="K28" s="164" t="s">
+        <v>297</v>
+      </c>
+      <c r="L28" s="166" t="s">
+        <v>262</v>
+      </c>
+      <c r="M28" s="164" t="s">
+        <v>303</v>
+      </c>
+      <c r="N28" s="143" t="s">
         <v>160</v>
       </c>
-      <c r="O28" s="169" t="s">
+      <c r="O28" s="168" t="s">
         <v>170</v>
       </c>
-      <c r="P28" s="145" t="s">
+      <c r="P28" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="Q28" s="145" t="s">
+      <c r="Q28" s="144" t="s">
         <v>161</v>
       </c>
-      <c r="R28" s="168" t="s">
-        <v>349</v>
-      </c>
-      <c r="S28" s="168" t="s">
+      <c r="R28" s="167" t="s">
+        <v>348</v>
+      </c>
+      <c r="S28" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="T28" s="163" t="s">
+      <c r="T28" s="162" t="s">
         <v>167</v>
       </c>
-      <c r="U28" s="171" t="s">
+      <c r="U28" s="170" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7895,64 +7895,64 @@
       <c r="A29" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="C29" s="140" t="str">
+      <c r="B29" s="271" t="s">
+        <v>357</v>
+      </c>
+      <c r="C29" s="139" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Informe </v>
       </c>
-      <c r="D29" s="170" t="s">
+      <c r="D29" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="182" t="s">
+      <c r="E29" s="181" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="177" t="s">
-        <v>305</v>
-      </c>
-      <c r="G29" s="143" t="str">
+      <c r="F29" s="176" t="s">
+        <v>304</v>
+      </c>
+      <c r="G29" s="142" t="str">
         <f>F29</f>
         <v>Informe de Pruebas Internas</v>
       </c>
       <c r="H29" s="132"/>
       <c r="I29" s="135" t="s">
-        <v>218</v>
-      </c>
-      <c r="J29" s="149" t="s">
-        <v>352</v>
-      </c>
-      <c r="K29" s="166" t="s">
-        <v>299</v>
-      </c>
-      <c r="L29" s="167" t="s">
-        <v>263</v>
-      </c>
-      <c r="M29" s="165" t="s">
-        <v>304</v>
-      </c>
-      <c r="N29" s="144" t="s">
+        <v>217</v>
+      </c>
+      <c r="J29" s="148" t="s">
+        <v>351</v>
+      </c>
+      <c r="K29" s="165" t="s">
+        <v>298</v>
+      </c>
+      <c r="L29" s="166" t="s">
+        <v>262</v>
+      </c>
+      <c r="M29" s="164" t="s">
+        <v>303</v>
+      </c>
+      <c r="N29" s="143" t="s">
         <v>160</v>
       </c>
-      <c r="O29" s="169" t="s">
+      <c r="O29" s="168" t="s">
         <v>170</v>
       </c>
-      <c r="P29" s="145" t="s">
+      <c r="P29" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="Q29" s="145" t="s">
+      <c r="Q29" s="144" t="s">
         <v>161</v>
       </c>
-      <c r="R29" s="168" t="s">
-        <v>349</v>
-      </c>
-      <c r="S29" s="168" t="s">
+      <c r="R29" s="167" t="s">
+        <v>348</v>
+      </c>
+      <c r="S29" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="T29" s="163" t="s">
+      <c r="T29" s="162" t="s">
         <v>167</v>
       </c>
-      <c r="U29" s="171" t="s">
+      <c r="U29" s="170" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7960,64 +7960,64 @@
       <c r="A30" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="C30" s="140" t="str">
+      <c r="B30" s="271" t="s">
+        <v>357</v>
+      </c>
+      <c r="C30" s="139" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Manual </v>
       </c>
-      <c r="D30" s="170" t="s">
+      <c r="D30" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="182" t="s">
+      <c r="E30" s="181" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="177" t="s">
-        <v>296</v>
-      </c>
-      <c r="G30" s="143" t="str">
+      <c r="F30" s="176" t="s">
+        <v>295</v>
+      </c>
+      <c r="G30" s="142" t="str">
         <f>F30</f>
         <v>Manual de Usuario</v>
       </c>
       <c r="H30" s="132"/>
       <c r="I30" s="135" t="s">
-        <v>218</v>
-      </c>
-      <c r="J30" s="149" t="s">
-        <v>355</v>
-      </c>
-      <c r="K30" s="180" t="s">
+        <v>217</v>
+      </c>
+      <c r="J30" s="148" t="s">
+        <v>354</v>
+      </c>
+      <c r="K30" s="179" t="s">
+        <v>305</v>
+      </c>
+      <c r="L30" s="166" t="s">
+        <v>262</v>
+      </c>
+      <c r="M30" s="179" t="s">
         <v>306</v>
       </c>
-      <c r="L30" s="167" t="s">
-        <v>263</v>
-      </c>
-      <c r="M30" s="180" t="s">
-        <v>307</v>
-      </c>
-      <c r="N30" s="144" t="s">
+      <c r="N30" s="143" t="s">
         <v>160</v>
       </c>
-      <c r="O30" s="169" t="s">
+      <c r="O30" s="168" t="s">
         <v>170</v>
       </c>
-      <c r="P30" s="145" t="s">
+      <c r="P30" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="Q30" s="145" t="s">
+      <c r="Q30" s="144" t="s">
         <v>161</v>
       </c>
-      <c r="R30" s="168" t="s">
-        <v>350</v>
-      </c>
-      <c r="S30" s="168" t="s">
+      <c r="R30" s="167" t="s">
+        <v>349</v>
+      </c>
+      <c r="S30" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="T30" s="163" t="s">
+      <c r="T30" s="162" t="s">
         <v>167</v>
       </c>
-      <c r="U30" s="171" t="s">
+      <c r="U30" s="170" t="s">
         <v>79</v>
       </c>
     </row>
@@ -8025,955 +8025,955 @@
       <c r="A31" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="C31" s="140" t="str">
+      <c r="B31" s="271" t="s">
+        <v>357</v>
+      </c>
+      <c r="C31" s="139" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">App </v>
       </c>
-      <c r="D31" s="146"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="179" t="s">
-        <v>300</v>
-      </c>
-      <c r="G31" s="143" t="str">
+      <c r="D31" s="145"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="178" t="s">
+        <v>299</v>
+      </c>
+      <c r="G31" s="142" t="str">
         <f>F31</f>
         <v>App STARADMIN</v>
       </c>
       <c r="H31" s="132"/>
-      <c r="I31" s="174" t="s">
-        <v>356</v>
-      </c>
-      <c r="J31" s="149"/>
-      <c r="K31" s="165" t="s">
+      <c r="I31" s="173" t="s">
+        <v>355</v>
+      </c>
+      <c r="J31" s="148"/>
+      <c r="K31" s="164" t="s">
+        <v>300</v>
+      </c>
+      <c r="L31" s="164" t="s">
         <v>301</v>
       </c>
-      <c r="L31" s="165" t="s">
-        <v>302</v>
-      </c>
-      <c r="M31" s="165" t="s">
-        <v>301</v>
-      </c>
-      <c r="N31" s="144" t="s">
+      <c r="M31" s="164" t="s">
+        <v>300</v>
+      </c>
+      <c r="N31" s="143" t="s">
         <v>160</v>
       </c>
-      <c r="O31" s="169" t="s">
+      <c r="O31" s="168" t="s">
         <v>170</v>
       </c>
-      <c r="P31" s="145" t="s">
+      <c r="P31" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="Q31" s="145" t="s">
+      <c r="Q31" s="144" t="s">
         <v>161</v>
       </c>
-      <c r="R31" s="168" t="s">
-        <v>351</v>
-      </c>
-      <c r="S31" s="168"/>
-      <c r="T31" s="163" t="s">
+      <c r="R31" s="167" t="s">
+        <v>350</v>
+      </c>
+      <c r="S31" s="167"/>
+      <c r="T31" s="162" t="s">
         <v>167</v>
       </c>
-      <c r="U31" s="171" t="s">
+      <c r="U31" s="170" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:21" s="131" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="152"/>
-      <c r="B44" s="152"/>
-      <c r="C44" s="153"/>
-      <c r="D44" s="154"/>
-      <c r="E44" s="154"/>
-      <c r="F44" s="152"/>
-      <c r="G44" s="152"/>
-      <c r="H44" s="155"/>
-      <c r="I44" s="156"/>
-      <c r="J44" s="152"/>
-      <c r="K44" s="155"/>
-      <c r="L44" s="155"/>
-      <c r="M44" s="155"/>
-      <c r="N44" s="155"/>
-      <c r="O44" s="157"/>
-      <c r="P44" s="157"/>
-      <c r="Q44" s="157"/>
-      <c r="R44" s="157"/>
-      <c r="S44" s="157"/>
-      <c r="T44" s="158"/>
-      <c r="U44" s="158"/>
+      <c r="A44" s="151"/>
+      <c r="B44" s="151"/>
+      <c r="C44" s="152"/>
+      <c r="D44" s="153"/>
+      <c r="E44" s="153"/>
+      <c r="F44" s="151"/>
+      <c r="G44" s="151"/>
+      <c r="H44" s="154"/>
+      <c r="I44" s="155"/>
+      <c r="J44" s="151"/>
+      <c r="K44" s="154"/>
+      <c r="L44" s="154"/>
+      <c r="M44" s="154"/>
+      <c r="N44" s="154"/>
+      <c r="O44" s="156"/>
+      <c r="P44" s="156"/>
+      <c r="Q44" s="156"/>
+      <c r="R44" s="156"/>
+      <c r="S44" s="156"/>
+      <c r="T44" s="157"/>
+      <c r="U44" s="157"/>
     </row>
     <row r="65" spans="1:21" s="131" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="152"/>
-      <c r="B65" s="152"/>
-      <c r="C65" s="153"/>
-      <c r="D65" s="154"/>
-      <c r="E65" s="154"/>
-      <c r="F65" s="152"/>
-      <c r="G65" s="152"/>
-      <c r="H65" s="155"/>
-      <c r="I65" s="156"/>
-      <c r="J65" s="152"/>
-      <c r="K65" s="155"/>
-      <c r="L65" s="155"/>
-      <c r="M65" s="155"/>
-      <c r="N65" s="155"/>
-      <c r="O65" s="157"/>
-      <c r="P65" s="157"/>
-      <c r="Q65" s="157"/>
-      <c r="R65" s="157"/>
-      <c r="S65" s="157"/>
-      <c r="T65" s="158"/>
-      <c r="U65" s="158"/>
+      <c r="A65" s="151"/>
+      <c r="B65" s="151"/>
+      <c r="C65" s="152"/>
+      <c r="D65" s="153"/>
+      <c r="E65" s="153"/>
+      <c r="F65" s="151"/>
+      <c r="G65" s="151"/>
+      <c r="H65" s="154"/>
+      <c r="I65" s="155"/>
+      <c r="J65" s="151"/>
+      <c r="K65" s="154"/>
+      <c r="L65" s="154"/>
+      <c r="M65" s="154"/>
+      <c r="N65" s="154"/>
+      <c r="O65" s="156"/>
+      <c r="P65" s="156"/>
+      <c r="Q65" s="156"/>
+      <c r="R65" s="156"/>
+      <c r="S65" s="156"/>
+      <c r="T65" s="157"/>
+      <c r="U65" s="157"/>
     </row>
     <row r="66" spans="1:21" s="131" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="152"/>
-      <c r="B66" s="152"/>
-      <c r="C66" s="153"/>
-      <c r="D66" s="154"/>
-      <c r="E66" s="154"/>
-      <c r="F66" s="152"/>
-      <c r="G66" s="152"/>
-      <c r="H66" s="155"/>
-      <c r="I66" s="156"/>
-      <c r="J66" s="152"/>
-      <c r="K66" s="155"/>
-      <c r="L66" s="155"/>
-      <c r="M66" s="155"/>
-      <c r="N66" s="155"/>
-      <c r="O66" s="157"/>
-      <c r="P66" s="157"/>
-      <c r="Q66" s="157"/>
-      <c r="R66" s="157"/>
-      <c r="S66" s="157"/>
-      <c r="T66" s="158"/>
-      <c r="U66" s="158"/>
+      <c r="A66" s="151"/>
+      <c r="B66" s="151"/>
+      <c r="C66" s="152"/>
+      <c r="D66" s="153"/>
+      <c r="E66" s="153"/>
+      <c r="F66" s="151"/>
+      <c r="G66" s="151"/>
+      <c r="H66" s="154"/>
+      <c r="I66" s="155"/>
+      <c r="J66" s="151"/>
+      <c r="K66" s="154"/>
+      <c r="L66" s="154"/>
+      <c r="M66" s="154"/>
+      <c r="N66" s="154"/>
+      <c r="O66" s="156"/>
+      <c r="P66" s="156"/>
+      <c r="Q66" s="156"/>
+      <c r="R66" s="156"/>
+      <c r="S66" s="156"/>
+      <c r="T66" s="157"/>
+      <c r="U66" s="157"/>
     </row>
     <row r="67" spans="1:21" s="131" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="152"/>
-      <c r="B67" s="152"/>
-      <c r="C67" s="153"/>
-      <c r="D67" s="154"/>
-      <c r="E67" s="154"/>
-      <c r="F67" s="152"/>
-      <c r="G67" s="152"/>
-      <c r="H67" s="155"/>
-      <c r="I67" s="156"/>
-      <c r="J67" s="152"/>
-      <c r="K67" s="155"/>
-      <c r="L67" s="155"/>
-      <c r="M67" s="155"/>
-      <c r="N67" s="155"/>
-      <c r="O67" s="157"/>
-      <c r="P67" s="157"/>
-      <c r="Q67" s="157"/>
-      <c r="R67" s="157"/>
-      <c r="S67" s="157"/>
-      <c r="T67" s="158"/>
-      <c r="U67" s="158"/>
+      <c r="A67" s="151"/>
+      <c r="B67" s="151"/>
+      <c r="C67" s="152"/>
+      <c r="D67" s="153"/>
+      <c r="E67" s="153"/>
+      <c r="F67" s="151"/>
+      <c r="G67" s="151"/>
+      <c r="H67" s="154"/>
+      <c r="I67" s="155"/>
+      <c r="J67" s="151"/>
+      <c r="K67" s="154"/>
+      <c r="L67" s="154"/>
+      <c r="M67" s="154"/>
+      <c r="N67" s="154"/>
+      <c r="O67" s="156"/>
+      <c r="P67" s="156"/>
+      <c r="Q67" s="156"/>
+      <c r="R67" s="156"/>
+      <c r="S67" s="156"/>
+      <c r="T67" s="157"/>
+      <c r="U67" s="157"/>
     </row>
     <row r="68" spans="1:21" s="131" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="152"/>
-      <c r="B68" s="152"/>
-      <c r="C68" s="153"/>
-      <c r="D68" s="154"/>
-      <c r="E68" s="154"/>
-      <c r="F68" s="152"/>
-      <c r="G68" s="152"/>
-      <c r="H68" s="155"/>
-      <c r="I68" s="156"/>
-      <c r="J68" s="152"/>
-      <c r="K68" s="155"/>
-      <c r="L68" s="155"/>
-      <c r="M68" s="155"/>
-      <c r="N68" s="155"/>
-      <c r="O68" s="157"/>
-      <c r="P68" s="157"/>
-      <c r="Q68" s="157"/>
-      <c r="R68" s="157"/>
-      <c r="S68" s="157"/>
-      <c r="T68" s="158"/>
-      <c r="U68" s="158"/>
+      <c r="A68" s="151"/>
+      <c r="B68" s="151"/>
+      <c r="C68" s="152"/>
+      <c r="D68" s="153"/>
+      <c r="E68" s="153"/>
+      <c r="F68" s="151"/>
+      <c r="G68" s="151"/>
+      <c r="H68" s="154"/>
+      <c r="I68" s="155"/>
+      <c r="J68" s="151"/>
+      <c r="K68" s="154"/>
+      <c r="L68" s="154"/>
+      <c r="M68" s="154"/>
+      <c r="N68" s="154"/>
+      <c r="O68" s="156"/>
+      <c r="P68" s="156"/>
+      <c r="Q68" s="156"/>
+      <c r="R68" s="156"/>
+      <c r="S68" s="156"/>
+      <c r="T68" s="157"/>
+      <c r="U68" s="157"/>
     </row>
     <row r="69" spans="1:21" s="131" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="152"/>
-      <c r="B69" s="152"/>
-      <c r="C69" s="153"/>
-      <c r="D69" s="154"/>
-      <c r="E69" s="154"/>
-      <c r="F69" s="152"/>
-      <c r="G69" s="152"/>
-      <c r="H69" s="155"/>
-      <c r="I69" s="156"/>
-      <c r="J69" s="152"/>
-      <c r="K69" s="155"/>
-      <c r="L69" s="155"/>
-      <c r="M69" s="155"/>
-      <c r="N69" s="155"/>
-      <c r="O69" s="157"/>
-      <c r="P69" s="157"/>
-      <c r="Q69" s="157"/>
-      <c r="R69" s="157"/>
-      <c r="S69" s="157"/>
-      <c r="T69" s="158"/>
-      <c r="U69" s="158"/>
+      <c r="A69" s="151"/>
+      <c r="B69" s="151"/>
+      <c r="C69" s="152"/>
+      <c r="D69" s="153"/>
+      <c r="E69" s="153"/>
+      <c r="F69" s="151"/>
+      <c r="G69" s="151"/>
+      <c r="H69" s="154"/>
+      <c r="I69" s="155"/>
+      <c r="J69" s="151"/>
+      <c r="K69" s="154"/>
+      <c r="L69" s="154"/>
+      <c r="M69" s="154"/>
+      <c r="N69" s="154"/>
+      <c r="O69" s="156"/>
+      <c r="P69" s="156"/>
+      <c r="Q69" s="156"/>
+      <c r="R69" s="156"/>
+      <c r="S69" s="156"/>
+      <c r="T69" s="157"/>
+      <c r="U69" s="157"/>
     </row>
     <row r="70" spans="1:21" s="131" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="152"/>
-      <c r="B70" s="152"/>
-      <c r="C70" s="153"/>
-      <c r="D70" s="154"/>
-      <c r="E70" s="154"/>
-      <c r="F70" s="152"/>
-      <c r="G70" s="152"/>
-      <c r="H70" s="155"/>
-      <c r="I70" s="156"/>
-      <c r="J70" s="152"/>
-      <c r="K70" s="155"/>
-      <c r="L70" s="155"/>
-      <c r="M70" s="155"/>
-      <c r="N70" s="155"/>
-      <c r="O70" s="157"/>
-      <c r="P70" s="157"/>
-      <c r="Q70" s="157"/>
-      <c r="R70" s="157"/>
-      <c r="S70" s="157"/>
-      <c r="T70" s="158"/>
-      <c r="U70" s="158"/>
+      <c r="A70" s="151"/>
+      <c r="B70" s="151"/>
+      <c r="C70" s="152"/>
+      <c r="D70" s="153"/>
+      <c r="E70" s="153"/>
+      <c r="F70" s="151"/>
+      <c r="G70" s="151"/>
+      <c r="H70" s="154"/>
+      <c r="I70" s="155"/>
+      <c r="J70" s="151"/>
+      <c r="K70" s="154"/>
+      <c r="L70" s="154"/>
+      <c r="M70" s="154"/>
+      <c r="N70" s="154"/>
+      <c r="O70" s="156"/>
+      <c r="P70" s="156"/>
+      <c r="Q70" s="156"/>
+      <c r="R70" s="156"/>
+      <c r="S70" s="156"/>
+      <c r="T70" s="157"/>
+      <c r="U70" s="157"/>
     </row>
     <row r="71" spans="1:21" s="131" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="152"/>
-      <c r="B71" s="152"/>
-      <c r="C71" s="153"/>
-      <c r="D71" s="154"/>
-      <c r="E71" s="154"/>
-      <c r="F71" s="152"/>
-      <c r="G71" s="152"/>
-      <c r="H71" s="155"/>
-      <c r="I71" s="156"/>
-      <c r="J71" s="152"/>
-      <c r="K71" s="155"/>
-      <c r="L71" s="155"/>
-      <c r="M71" s="155"/>
-      <c r="N71" s="155"/>
-      <c r="O71" s="157"/>
-      <c r="P71" s="157"/>
-      <c r="Q71" s="157"/>
-      <c r="R71" s="157"/>
-      <c r="S71" s="157"/>
-      <c r="T71" s="158"/>
-      <c r="U71" s="158"/>
+      <c r="A71" s="151"/>
+      <c r="B71" s="151"/>
+      <c r="C71" s="152"/>
+      <c r="D71" s="153"/>
+      <c r="E71" s="153"/>
+      <c r="F71" s="151"/>
+      <c r="G71" s="151"/>
+      <c r="H71" s="154"/>
+      <c r="I71" s="155"/>
+      <c r="J71" s="151"/>
+      <c r="K71" s="154"/>
+      <c r="L71" s="154"/>
+      <c r="M71" s="154"/>
+      <c r="N71" s="154"/>
+      <c r="O71" s="156"/>
+      <c r="P71" s="156"/>
+      <c r="Q71" s="156"/>
+      <c r="R71" s="156"/>
+      <c r="S71" s="156"/>
+      <c r="T71" s="157"/>
+      <c r="U71" s="157"/>
     </row>
     <row r="91" spans="1:21" s="131" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="152"/>
-      <c r="B91" s="152"/>
-      <c r="C91" s="153"/>
-      <c r="D91" s="154"/>
-      <c r="E91" s="154"/>
-      <c r="F91" s="152"/>
-      <c r="G91" s="152"/>
-      <c r="H91" s="155"/>
-      <c r="I91" s="156"/>
-      <c r="J91" s="152"/>
-      <c r="K91" s="155"/>
-      <c r="L91" s="155"/>
-      <c r="M91" s="155"/>
-      <c r="N91" s="155"/>
-      <c r="O91" s="157"/>
-      <c r="P91" s="157"/>
-      <c r="Q91" s="157"/>
-      <c r="R91" s="157"/>
-      <c r="S91" s="157"/>
-      <c r="T91" s="158"/>
-      <c r="U91" s="158"/>
+      <c r="A91" s="151"/>
+      <c r="B91" s="151"/>
+      <c r="C91" s="152"/>
+      <c r="D91" s="153"/>
+      <c r="E91" s="153"/>
+      <c r="F91" s="151"/>
+      <c r="G91" s="151"/>
+      <c r="H91" s="154"/>
+      <c r="I91" s="155"/>
+      <c r="J91" s="151"/>
+      <c r="K91" s="154"/>
+      <c r="L91" s="154"/>
+      <c r="M91" s="154"/>
+      <c r="N91" s="154"/>
+      <c r="O91" s="156"/>
+      <c r="P91" s="156"/>
+      <c r="Q91" s="156"/>
+      <c r="R91" s="156"/>
+      <c r="S91" s="156"/>
+      <c r="T91" s="157"/>
+      <c r="U91" s="157"/>
     </row>
     <row r="92" spans="1:21" s="131" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="152"/>
-      <c r="B92" s="152"/>
-      <c r="C92" s="153"/>
-      <c r="D92" s="154"/>
-      <c r="E92" s="154"/>
-      <c r="F92" s="152"/>
-      <c r="G92" s="152"/>
-      <c r="H92" s="155"/>
-      <c r="I92" s="156"/>
-      <c r="J92" s="152"/>
-      <c r="K92" s="155"/>
-      <c r="L92" s="155"/>
-      <c r="M92" s="155"/>
-      <c r="N92" s="155"/>
-      <c r="O92" s="157"/>
-      <c r="P92" s="157"/>
-      <c r="Q92" s="157"/>
-      <c r="R92" s="157"/>
-      <c r="S92" s="157"/>
-      <c r="T92" s="158"/>
-      <c r="U92" s="158"/>
+      <c r="A92" s="151"/>
+      <c r="B92" s="151"/>
+      <c r="C92" s="152"/>
+      <c r="D92" s="153"/>
+      <c r="E92" s="153"/>
+      <c r="F92" s="151"/>
+      <c r="G92" s="151"/>
+      <c r="H92" s="154"/>
+      <c r="I92" s="155"/>
+      <c r="J92" s="151"/>
+      <c r="K92" s="154"/>
+      <c r="L92" s="154"/>
+      <c r="M92" s="154"/>
+      <c r="N92" s="154"/>
+      <c r="O92" s="156"/>
+      <c r="P92" s="156"/>
+      <c r="Q92" s="156"/>
+      <c r="R92" s="156"/>
+      <c r="S92" s="156"/>
+      <c r="T92" s="157"/>
+      <c r="U92" s="157"/>
     </row>
     <row r="93" spans="1:21" s="131" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="152"/>
-      <c r="B93" s="152"/>
-      <c r="C93" s="153"/>
-      <c r="D93" s="154"/>
-      <c r="E93" s="154"/>
-      <c r="F93" s="152"/>
-      <c r="G93" s="152"/>
-      <c r="H93" s="155"/>
-      <c r="I93" s="156"/>
-      <c r="J93" s="152"/>
-      <c r="K93" s="155"/>
-      <c r="L93" s="155"/>
-      <c r="M93" s="155"/>
-      <c r="N93" s="155"/>
-      <c r="O93" s="157"/>
-      <c r="P93" s="157"/>
-      <c r="Q93" s="157"/>
-      <c r="R93" s="157"/>
-      <c r="S93" s="157"/>
-      <c r="T93" s="158"/>
-      <c r="U93" s="158"/>
+      <c r="A93" s="151"/>
+      <c r="B93" s="151"/>
+      <c r="C93" s="152"/>
+      <c r="D93" s="153"/>
+      <c r="E93" s="153"/>
+      <c r="F93" s="151"/>
+      <c r="G93" s="151"/>
+      <c r="H93" s="154"/>
+      <c r="I93" s="155"/>
+      <c r="J93" s="151"/>
+      <c r="K93" s="154"/>
+      <c r="L93" s="154"/>
+      <c r="M93" s="154"/>
+      <c r="N93" s="154"/>
+      <c r="O93" s="156"/>
+      <c r="P93" s="156"/>
+      <c r="Q93" s="156"/>
+      <c r="R93" s="156"/>
+      <c r="S93" s="156"/>
+      <c r="T93" s="157"/>
+      <c r="U93" s="157"/>
     </row>
     <row r="97" spans="1:21" s="131" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="152"/>
-      <c r="B97" s="152"/>
-      <c r="C97" s="153"/>
-      <c r="D97" s="154"/>
-      <c r="E97" s="154"/>
-      <c r="F97" s="152"/>
-      <c r="G97" s="152"/>
-      <c r="H97" s="155"/>
-      <c r="I97" s="156"/>
-      <c r="J97" s="152"/>
-      <c r="K97" s="155"/>
-      <c r="L97" s="155"/>
-      <c r="M97" s="155"/>
-      <c r="N97" s="155"/>
-      <c r="O97" s="157"/>
-      <c r="P97" s="157"/>
-      <c r="Q97" s="157"/>
-      <c r="R97" s="157"/>
-      <c r="S97" s="157"/>
-      <c r="T97" s="158"/>
-      <c r="U97" s="158"/>
+      <c r="A97" s="151"/>
+      <c r="B97" s="151"/>
+      <c r="C97" s="152"/>
+      <c r="D97" s="153"/>
+      <c r="E97" s="153"/>
+      <c r="F97" s="151"/>
+      <c r="G97" s="151"/>
+      <c r="H97" s="154"/>
+      <c r="I97" s="155"/>
+      <c r="J97" s="151"/>
+      <c r="K97" s="154"/>
+      <c r="L97" s="154"/>
+      <c r="M97" s="154"/>
+      <c r="N97" s="154"/>
+      <c r="O97" s="156"/>
+      <c r="P97" s="156"/>
+      <c r="Q97" s="156"/>
+      <c r="R97" s="156"/>
+      <c r="S97" s="156"/>
+      <c r="T97" s="157"/>
+      <c r="U97" s="157"/>
     </row>
     <row r="98" spans="1:21" s="131" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="152"/>
-      <c r="B98" s="152"/>
-      <c r="C98" s="153"/>
-      <c r="D98" s="154"/>
-      <c r="E98" s="154"/>
-      <c r="F98" s="152"/>
-      <c r="G98" s="152"/>
-      <c r="H98" s="155"/>
-      <c r="I98" s="156"/>
-      <c r="J98" s="152"/>
-      <c r="K98" s="155"/>
-      <c r="L98" s="155"/>
-      <c r="M98" s="155"/>
-      <c r="N98" s="155"/>
-      <c r="O98" s="157"/>
-      <c r="P98" s="157"/>
-      <c r="Q98" s="157"/>
-      <c r="R98" s="157"/>
-      <c r="S98" s="157"/>
-      <c r="T98" s="158"/>
-      <c r="U98" s="158"/>
+      <c r="A98" s="151"/>
+      <c r="B98" s="151"/>
+      <c r="C98" s="152"/>
+      <c r="D98" s="153"/>
+      <c r="E98" s="153"/>
+      <c r="F98" s="151"/>
+      <c r="G98" s="151"/>
+      <c r="H98" s="154"/>
+      <c r="I98" s="155"/>
+      <c r="J98" s="151"/>
+      <c r="K98" s="154"/>
+      <c r="L98" s="154"/>
+      <c r="M98" s="154"/>
+      <c r="N98" s="154"/>
+      <c r="O98" s="156"/>
+      <c r="P98" s="156"/>
+      <c r="Q98" s="156"/>
+      <c r="R98" s="156"/>
+      <c r="S98" s="156"/>
+      <c r="T98" s="157"/>
+      <c r="U98" s="157"/>
     </row>
     <row r="106" spans="1:21" s="131" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="152"/>
-      <c r="B106" s="152"/>
-      <c r="C106" s="153"/>
-      <c r="D106" s="154"/>
-      <c r="E106" s="154"/>
-      <c r="F106" s="152"/>
-      <c r="G106" s="152"/>
-      <c r="H106" s="155"/>
-      <c r="I106" s="156"/>
-      <c r="J106" s="152"/>
-      <c r="K106" s="155"/>
-      <c r="L106" s="155"/>
-      <c r="M106" s="155"/>
-      <c r="N106" s="155"/>
-      <c r="O106" s="157"/>
-      <c r="P106" s="157"/>
-      <c r="Q106" s="157"/>
-      <c r="R106" s="157"/>
-      <c r="S106" s="157"/>
-      <c r="T106" s="158"/>
-      <c r="U106" s="158"/>
+      <c r="A106" s="151"/>
+      <c r="B106" s="151"/>
+      <c r="C106" s="152"/>
+      <c r="D106" s="153"/>
+      <c r="E106" s="153"/>
+      <c r="F106" s="151"/>
+      <c r="G106" s="151"/>
+      <c r="H106" s="154"/>
+      <c r="I106" s="155"/>
+      <c r="J106" s="151"/>
+      <c r="K106" s="154"/>
+      <c r="L106" s="154"/>
+      <c r="M106" s="154"/>
+      <c r="N106" s="154"/>
+      <c r="O106" s="156"/>
+      <c r="P106" s="156"/>
+      <c r="Q106" s="156"/>
+      <c r="R106" s="156"/>
+      <c r="S106" s="156"/>
+      <c r="T106" s="157"/>
+      <c r="U106" s="157"/>
     </row>
     <row r="107" spans="1:21" s="131" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="152"/>
-      <c r="B107" s="152"/>
-      <c r="C107" s="153"/>
-      <c r="D107" s="154"/>
-      <c r="E107" s="154"/>
-      <c r="F107" s="152"/>
-      <c r="G107" s="152"/>
-      <c r="H107" s="155"/>
-      <c r="I107" s="156"/>
-      <c r="J107" s="152"/>
-      <c r="K107" s="155"/>
-      <c r="L107" s="155"/>
-      <c r="M107" s="155"/>
-      <c r="N107" s="155"/>
-      <c r="O107" s="157"/>
-      <c r="P107" s="157"/>
-      <c r="Q107" s="157"/>
-      <c r="R107" s="157"/>
-      <c r="S107" s="157"/>
-      <c r="T107" s="158"/>
-      <c r="U107" s="158"/>
+      <c r="A107" s="151"/>
+      <c r="B107" s="151"/>
+      <c r="C107" s="152"/>
+      <c r="D107" s="153"/>
+      <c r="E107" s="153"/>
+      <c r="F107" s="151"/>
+      <c r="G107" s="151"/>
+      <c r="H107" s="154"/>
+      <c r="I107" s="155"/>
+      <c r="J107" s="151"/>
+      <c r="K107" s="154"/>
+      <c r="L107" s="154"/>
+      <c r="M107" s="154"/>
+      <c r="N107" s="154"/>
+      <c r="O107" s="156"/>
+      <c r="P107" s="156"/>
+      <c r="Q107" s="156"/>
+      <c r="R107" s="156"/>
+      <c r="S107" s="156"/>
+      <c r="T107" s="157"/>
+      <c r="U107" s="157"/>
     </row>
     <row r="108" spans="1:21" s="131" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="152"/>
-      <c r="B108" s="152"/>
-      <c r="C108" s="153"/>
-      <c r="D108" s="154"/>
-      <c r="E108" s="154"/>
-      <c r="F108" s="152"/>
-      <c r="G108" s="152"/>
-      <c r="H108" s="155"/>
-      <c r="I108" s="156"/>
-      <c r="J108" s="152"/>
-      <c r="K108" s="155"/>
-      <c r="L108" s="155"/>
-      <c r="M108" s="155"/>
-      <c r="N108" s="155"/>
-      <c r="O108" s="157"/>
-      <c r="P108" s="157"/>
-      <c r="Q108" s="157"/>
-      <c r="R108" s="157"/>
-      <c r="S108" s="157"/>
-      <c r="T108" s="158"/>
-      <c r="U108" s="158"/>
+      <c r="A108" s="151"/>
+      <c r="B108" s="151"/>
+      <c r="C108" s="152"/>
+      <c r="D108" s="153"/>
+      <c r="E108" s="153"/>
+      <c r="F108" s="151"/>
+      <c r="G108" s="151"/>
+      <c r="H108" s="154"/>
+      <c r="I108" s="155"/>
+      <c r="J108" s="151"/>
+      <c r="K108" s="154"/>
+      <c r="L108" s="154"/>
+      <c r="M108" s="154"/>
+      <c r="N108" s="154"/>
+      <c r="O108" s="156"/>
+      <c r="P108" s="156"/>
+      <c r="Q108" s="156"/>
+      <c r="R108" s="156"/>
+      <c r="S108" s="156"/>
+      <c r="T108" s="157"/>
+      <c r="U108" s="157"/>
     </row>
     <row r="111" spans="1:21" s="131" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="152"/>
-      <c r="B111" s="152"/>
-      <c r="C111" s="153"/>
-      <c r="D111" s="154"/>
-      <c r="E111" s="154"/>
-      <c r="F111" s="152"/>
-      <c r="G111" s="152"/>
-      <c r="H111" s="155"/>
-      <c r="I111" s="156"/>
-      <c r="J111" s="152"/>
-      <c r="K111" s="155"/>
-      <c r="L111" s="155"/>
-      <c r="M111" s="155"/>
-      <c r="N111" s="155"/>
-      <c r="O111" s="157"/>
-      <c r="P111" s="157"/>
-      <c r="Q111" s="157"/>
-      <c r="R111" s="157"/>
-      <c r="S111" s="157"/>
-      <c r="T111" s="158"/>
-      <c r="U111" s="158"/>
+      <c r="A111" s="151"/>
+      <c r="B111" s="151"/>
+      <c r="C111" s="152"/>
+      <c r="D111" s="153"/>
+      <c r="E111" s="153"/>
+      <c r="F111" s="151"/>
+      <c r="G111" s="151"/>
+      <c r="H111" s="154"/>
+      <c r="I111" s="155"/>
+      <c r="J111" s="151"/>
+      <c r="K111" s="154"/>
+      <c r="L111" s="154"/>
+      <c r="M111" s="154"/>
+      <c r="N111" s="154"/>
+      <c r="O111" s="156"/>
+      <c r="P111" s="156"/>
+      <c r="Q111" s="156"/>
+      <c r="R111" s="156"/>
+      <c r="S111" s="156"/>
+      <c r="T111" s="157"/>
+      <c r="U111" s="157"/>
     </row>
     <row r="112" spans="1:21" s="131" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="152"/>
-      <c r="B112" s="152"/>
-      <c r="C112" s="153"/>
-      <c r="D112" s="154"/>
-      <c r="E112" s="154"/>
-      <c r="F112" s="152"/>
-      <c r="G112" s="152"/>
-      <c r="H112" s="155"/>
-      <c r="I112" s="156"/>
-      <c r="J112" s="152"/>
-      <c r="K112" s="155"/>
-      <c r="L112" s="155"/>
-      <c r="M112" s="155"/>
-      <c r="N112" s="155"/>
-      <c r="O112" s="157"/>
-      <c r="P112" s="157"/>
-      <c r="Q112" s="157"/>
-      <c r="R112" s="157"/>
-      <c r="S112" s="157"/>
-      <c r="T112" s="158"/>
-      <c r="U112" s="158"/>
+      <c r="A112" s="151"/>
+      <c r="B112" s="151"/>
+      <c r="C112" s="152"/>
+      <c r="D112" s="153"/>
+      <c r="E112" s="153"/>
+      <c r="F112" s="151"/>
+      <c r="G112" s="151"/>
+      <c r="H112" s="154"/>
+      <c r="I112" s="155"/>
+      <c r="J112" s="151"/>
+      <c r="K112" s="154"/>
+      <c r="L112" s="154"/>
+      <c r="M112" s="154"/>
+      <c r="N112" s="154"/>
+      <c r="O112" s="156"/>
+      <c r="P112" s="156"/>
+      <c r="Q112" s="156"/>
+      <c r="R112" s="156"/>
+      <c r="S112" s="156"/>
+      <c r="T112" s="157"/>
+      <c r="U112" s="157"/>
     </row>
     <row r="113" spans="1:21" s="131" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="152"/>
-      <c r="B113" s="152"/>
-      <c r="C113" s="153"/>
-      <c r="D113" s="154"/>
-      <c r="E113" s="154"/>
-      <c r="F113" s="152"/>
-      <c r="G113" s="152"/>
-      <c r="H113" s="155"/>
-      <c r="I113" s="156"/>
-      <c r="J113" s="152"/>
-      <c r="K113" s="155"/>
-      <c r="L113" s="155"/>
-      <c r="M113" s="155"/>
-      <c r="N113" s="155"/>
-      <c r="O113" s="157"/>
-      <c r="P113" s="157"/>
-      <c r="Q113" s="157"/>
-      <c r="R113" s="157"/>
-      <c r="S113" s="157"/>
-      <c r="T113" s="158"/>
-      <c r="U113" s="158"/>
+      <c r="A113" s="151"/>
+      <c r="B113" s="151"/>
+      <c r="C113" s="152"/>
+      <c r="D113" s="153"/>
+      <c r="E113" s="153"/>
+      <c r="F113" s="151"/>
+      <c r="G113" s="151"/>
+      <c r="H113" s="154"/>
+      <c r="I113" s="155"/>
+      <c r="J113" s="151"/>
+      <c r="K113" s="154"/>
+      <c r="L113" s="154"/>
+      <c r="M113" s="154"/>
+      <c r="N113" s="154"/>
+      <c r="O113" s="156"/>
+      <c r="P113" s="156"/>
+      <c r="Q113" s="156"/>
+      <c r="R113" s="156"/>
+      <c r="S113" s="156"/>
+      <c r="T113" s="157"/>
+      <c r="U113" s="157"/>
     </row>
     <row r="114" spans="1:21" s="131" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="152"/>
-      <c r="B114" s="152"/>
-      <c r="C114" s="153"/>
-      <c r="D114" s="154"/>
-      <c r="E114" s="154"/>
-      <c r="F114" s="152"/>
-      <c r="G114" s="152"/>
-      <c r="H114" s="155"/>
-      <c r="I114" s="156"/>
-      <c r="J114" s="152"/>
-      <c r="K114" s="155"/>
-      <c r="L114" s="155"/>
-      <c r="M114" s="155"/>
-      <c r="N114" s="155"/>
-      <c r="O114" s="157"/>
-      <c r="P114" s="157"/>
-      <c r="Q114" s="157"/>
-      <c r="R114" s="157"/>
-      <c r="S114" s="157"/>
-      <c r="T114" s="158"/>
-      <c r="U114" s="158"/>
+      <c r="A114" s="151"/>
+      <c r="B114" s="151"/>
+      <c r="C114" s="152"/>
+      <c r="D114" s="153"/>
+      <c r="E114" s="153"/>
+      <c r="F114" s="151"/>
+      <c r="G114" s="151"/>
+      <c r="H114" s="154"/>
+      <c r="I114" s="155"/>
+      <c r="J114" s="151"/>
+      <c r="K114" s="154"/>
+      <c r="L114" s="154"/>
+      <c r="M114" s="154"/>
+      <c r="N114" s="154"/>
+      <c r="O114" s="156"/>
+      <c r="P114" s="156"/>
+      <c r="Q114" s="156"/>
+      <c r="R114" s="156"/>
+      <c r="S114" s="156"/>
+      <c r="T114" s="157"/>
+      <c r="U114" s="157"/>
     </row>
     <row r="116" spans="1:21" s="131" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="152"/>
-      <c r="B116" s="152"/>
-      <c r="C116" s="153"/>
-      <c r="D116" s="154"/>
-      <c r="E116" s="154"/>
-      <c r="F116" s="152"/>
-      <c r="G116" s="152"/>
-      <c r="H116" s="155"/>
-      <c r="I116" s="156"/>
-      <c r="J116" s="152"/>
-      <c r="K116" s="155"/>
-      <c r="L116" s="155"/>
-      <c r="M116" s="155"/>
-      <c r="N116" s="155"/>
-      <c r="O116" s="157"/>
-      <c r="P116" s="157"/>
-      <c r="Q116" s="157"/>
-      <c r="R116" s="157"/>
-      <c r="S116" s="157"/>
-      <c r="T116" s="158"/>
-      <c r="U116" s="158"/>
+      <c r="A116" s="151"/>
+      <c r="B116" s="151"/>
+      <c r="C116" s="152"/>
+      <c r="D116" s="153"/>
+      <c r="E116" s="153"/>
+      <c r="F116" s="151"/>
+      <c r="G116" s="151"/>
+      <c r="H116" s="154"/>
+      <c r="I116" s="155"/>
+      <c r="J116" s="151"/>
+      <c r="K116" s="154"/>
+      <c r="L116" s="154"/>
+      <c r="M116" s="154"/>
+      <c r="N116" s="154"/>
+      <c r="O116" s="156"/>
+      <c r="P116" s="156"/>
+      <c r="Q116" s="156"/>
+      <c r="R116" s="156"/>
+      <c r="S116" s="156"/>
+      <c r="T116" s="157"/>
+      <c r="U116" s="157"/>
     </row>
     <row r="117" spans="1:21" s="131" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="152"/>
-      <c r="B117" s="152"/>
-      <c r="C117" s="153"/>
-      <c r="D117" s="154"/>
-      <c r="E117" s="154"/>
-      <c r="F117" s="152"/>
-      <c r="G117" s="152"/>
-      <c r="H117" s="155"/>
-      <c r="I117" s="156"/>
-      <c r="J117" s="152"/>
-      <c r="K117" s="155"/>
-      <c r="L117" s="155"/>
-      <c r="M117" s="155"/>
-      <c r="N117" s="155"/>
-      <c r="O117" s="157"/>
-      <c r="P117" s="157"/>
-      <c r="Q117" s="157"/>
-      <c r="R117" s="157"/>
-      <c r="S117" s="157"/>
-      <c r="T117" s="158"/>
-      <c r="U117" s="158"/>
+      <c r="A117" s="151"/>
+      <c r="B117" s="151"/>
+      <c r="C117" s="152"/>
+      <c r="D117" s="153"/>
+      <c r="E117" s="153"/>
+      <c r="F117" s="151"/>
+      <c r="G117" s="151"/>
+      <c r="H117" s="154"/>
+      <c r="I117" s="155"/>
+      <c r="J117" s="151"/>
+      <c r="K117" s="154"/>
+      <c r="L117" s="154"/>
+      <c r="M117" s="154"/>
+      <c r="N117" s="154"/>
+      <c r="O117" s="156"/>
+      <c r="P117" s="156"/>
+      <c r="Q117" s="156"/>
+      <c r="R117" s="156"/>
+      <c r="S117" s="156"/>
+      <c r="T117" s="157"/>
+      <c r="U117" s="157"/>
     </row>
     <row r="118" spans="1:21" s="131" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="152"/>
-      <c r="B118" s="152"/>
-      <c r="C118" s="153"/>
-      <c r="D118" s="154"/>
-      <c r="E118" s="154"/>
-      <c r="F118" s="152"/>
-      <c r="G118" s="152"/>
-      <c r="H118" s="155"/>
-      <c r="I118" s="156"/>
-      <c r="J118" s="152"/>
-      <c r="K118" s="155"/>
-      <c r="L118" s="155"/>
-      <c r="M118" s="155"/>
-      <c r="N118" s="155"/>
-      <c r="O118" s="157"/>
-      <c r="P118" s="157"/>
-      <c r="Q118" s="157"/>
-      <c r="R118" s="157"/>
-      <c r="S118" s="157"/>
-      <c r="T118" s="158"/>
-      <c r="U118" s="158"/>
+      <c r="A118" s="151"/>
+      <c r="B118" s="151"/>
+      <c r="C118" s="152"/>
+      <c r="D118" s="153"/>
+      <c r="E118" s="153"/>
+      <c r="F118" s="151"/>
+      <c r="G118" s="151"/>
+      <c r="H118" s="154"/>
+      <c r="I118" s="155"/>
+      <c r="J118" s="151"/>
+      <c r="K118" s="154"/>
+      <c r="L118" s="154"/>
+      <c r="M118" s="154"/>
+      <c r="N118" s="154"/>
+      <c r="O118" s="156"/>
+      <c r="P118" s="156"/>
+      <c r="Q118" s="156"/>
+      <c r="R118" s="156"/>
+      <c r="S118" s="156"/>
+      <c r="T118" s="157"/>
+      <c r="U118" s="157"/>
     </row>
     <row r="119" spans="1:21" s="131" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="152"/>
-      <c r="B119" s="152"/>
-      <c r="C119" s="153"/>
-      <c r="D119" s="154"/>
-      <c r="E119" s="154"/>
-      <c r="F119" s="152"/>
-      <c r="G119" s="152"/>
-      <c r="H119" s="155"/>
-      <c r="I119" s="156"/>
-      <c r="J119" s="152"/>
-      <c r="K119" s="155"/>
-      <c r="L119" s="155"/>
-      <c r="M119" s="155"/>
-      <c r="N119" s="155"/>
-      <c r="O119" s="157"/>
-      <c r="P119" s="157"/>
-      <c r="Q119" s="157"/>
-      <c r="R119" s="157"/>
-      <c r="S119" s="157"/>
-      <c r="T119" s="158"/>
-      <c r="U119" s="158"/>
+      <c r="A119" s="151"/>
+      <c r="B119" s="151"/>
+      <c r="C119" s="152"/>
+      <c r="D119" s="153"/>
+      <c r="E119" s="153"/>
+      <c r="F119" s="151"/>
+      <c r="G119" s="151"/>
+      <c r="H119" s="154"/>
+      <c r="I119" s="155"/>
+      <c r="J119" s="151"/>
+      <c r="K119" s="154"/>
+      <c r="L119" s="154"/>
+      <c r="M119" s="154"/>
+      <c r="N119" s="154"/>
+      <c r="O119" s="156"/>
+      <c r="P119" s="156"/>
+      <c r="Q119" s="156"/>
+      <c r="R119" s="156"/>
+      <c r="S119" s="156"/>
+      <c r="T119" s="157"/>
+      <c r="U119" s="157"/>
     </row>
     <row r="122" spans="1:21" s="131" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="152"/>
-      <c r="B122" s="152"/>
-      <c r="C122" s="153"/>
-      <c r="D122" s="154"/>
-      <c r="E122" s="154"/>
-      <c r="F122" s="152"/>
-      <c r="G122" s="152"/>
-      <c r="H122" s="155"/>
-      <c r="I122" s="156"/>
-      <c r="J122" s="152"/>
-      <c r="K122" s="155"/>
-      <c r="L122" s="155"/>
-      <c r="M122" s="155"/>
-      <c r="N122" s="155"/>
-      <c r="O122" s="157"/>
-      <c r="P122" s="157"/>
-      <c r="Q122" s="157"/>
-      <c r="R122" s="157"/>
-      <c r="S122" s="157"/>
-      <c r="T122" s="158"/>
-      <c r="U122" s="158"/>
+      <c r="A122" s="151"/>
+      <c r="B122" s="151"/>
+      <c r="C122" s="152"/>
+      <c r="D122" s="153"/>
+      <c r="E122" s="153"/>
+      <c r="F122" s="151"/>
+      <c r="G122" s="151"/>
+      <c r="H122" s="154"/>
+      <c r="I122" s="155"/>
+      <c r="J122" s="151"/>
+      <c r="K122" s="154"/>
+      <c r="L122" s="154"/>
+      <c r="M122" s="154"/>
+      <c r="N122" s="154"/>
+      <c r="O122" s="156"/>
+      <c r="P122" s="156"/>
+      <c r="Q122" s="156"/>
+      <c r="R122" s="156"/>
+      <c r="S122" s="156"/>
+      <c r="T122" s="157"/>
+      <c r="U122" s="157"/>
     </row>
     <row r="123" spans="1:21" s="131" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="152"/>
-      <c r="B123" s="152"/>
-      <c r="C123" s="153"/>
-      <c r="D123" s="154"/>
-      <c r="E123" s="154"/>
-      <c r="F123" s="152"/>
-      <c r="G123" s="152"/>
-      <c r="H123" s="155"/>
-      <c r="I123" s="156"/>
-      <c r="J123" s="152"/>
-      <c r="K123" s="155"/>
-      <c r="L123" s="155"/>
-      <c r="M123" s="155"/>
-      <c r="N123" s="155"/>
-      <c r="O123" s="157"/>
-      <c r="P123" s="157"/>
-      <c r="Q123" s="157"/>
-      <c r="R123" s="157"/>
-      <c r="S123" s="157"/>
-      <c r="T123" s="158"/>
-      <c r="U123" s="158"/>
+      <c r="A123" s="151"/>
+      <c r="B123" s="151"/>
+      <c r="C123" s="152"/>
+      <c r="D123" s="153"/>
+      <c r="E123" s="153"/>
+      <c r="F123" s="151"/>
+      <c r="G123" s="151"/>
+      <c r="H123" s="154"/>
+      <c r="I123" s="155"/>
+      <c r="J123" s="151"/>
+      <c r="K123" s="154"/>
+      <c r="L123" s="154"/>
+      <c r="M123" s="154"/>
+      <c r="N123" s="154"/>
+      <c r="O123" s="156"/>
+      <c r="P123" s="156"/>
+      <c r="Q123" s="156"/>
+      <c r="R123" s="156"/>
+      <c r="S123" s="156"/>
+      <c r="T123" s="157"/>
+      <c r="U123" s="157"/>
     </row>
     <row r="124" spans="1:21" s="131" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="152"/>
-      <c r="B124" s="152"/>
-      <c r="C124" s="153"/>
-      <c r="D124" s="154"/>
-      <c r="E124" s="154"/>
-      <c r="F124" s="152"/>
-      <c r="G124" s="152"/>
-      <c r="H124" s="155"/>
-      <c r="I124" s="156"/>
-      <c r="J124" s="152"/>
-      <c r="K124" s="155"/>
-      <c r="L124" s="155"/>
-      <c r="M124" s="155"/>
-      <c r="N124" s="155"/>
-      <c r="O124" s="157"/>
-      <c r="P124" s="157"/>
-      <c r="Q124" s="157"/>
-      <c r="R124" s="157"/>
-      <c r="S124" s="157"/>
-      <c r="T124" s="158"/>
-      <c r="U124" s="158"/>
+      <c r="A124" s="151"/>
+      <c r="B124" s="151"/>
+      <c r="C124" s="152"/>
+      <c r="D124" s="153"/>
+      <c r="E124" s="153"/>
+      <c r="F124" s="151"/>
+      <c r="G124" s="151"/>
+      <c r="H124" s="154"/>
+      <c r="I124" s="155"/>
+      <c r="J124" s="151"/>
+      <c r="K124" s="154"/>
+      <c r="L124" s="154"/>
+      <c r="M124" s="154"/>
+      <c r="N124" s="154"/>
+      <c r="O124" s="156"/>
+      <c r="P124" s="156"/>
+      <c r="Q124" s="156"/>
+      <c r="R124" s="156"/>
+      <c r="S124" s="156"/>
+      <c r="T124" s="157"/>
+      <c r="U124" s="157"/>
     </row>
     <row r="125" spans="1:21" s="131" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="152"/>
-      <c r="B125" s="152"/>
-      <c r="C125" s="153"/>
-      <c r="D125" s="154"/>
-      <c r="E125" s="154"/>
-      <c r="F125" s="152"/>
-      <c r="G125" s="152"/>
-      <c r="H125" s="155"/>
-      <c r="I125" s="156"/>
-      <c r="J125" s="152"/>
-      <c r="K125" s="155"/>
-      <c r="L125" s="155"/>
-      <c r="M125" s="155"/>
-      <c r="N125" s="155"/>
-      <c r="O125" s="157"/>
-      <c r="P125" s="157"/>
-      <c r="Q125" s="157"/>
-      <c r="R125" s="157"/>
-      <c r="S125" s="157"/>
-      <c r="T125" s="158"/>
-      <c r="U125" s="158"/>
+      <c r="A125" s="151"/>
+      <c r="B125" s="151"/>
+      <c r="C125" s="152"/>
+      <c r="D125" s="153"/>
+      <c r="E125" s="153"/>
+      <c r="F125" s="151"/>
+      <c r="G125" s="151"/>
+      <c r="H125" s="154"/>
+      <c r="I125" s="155"/>
+      <c r="J125" s="151"/>
+      <c r="K125" s="154"/>
+      <c r="L125" s="154"/>
+      <c r="M125" s="154"/>
+      <c r="N125" s="154"/>
+      <c r="O125" s="156"/>
+      <c r="P125" s="156"/>
+      <c r="Q125" s="156"/>
+      <c r="R125" s="156"/>
+      <c r="S125" s="156"/>
+      <c r="T125" s="157"/>
+      <c r="U125" s="157"/>
     </row>
     <row r="127" spans="1:21" s="131" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="152"/>
-      <c r="B127" s="152"/>
-      <c r="C127" s="153"/>
-      <c r="D127" s="154"/>
-      <c r="E127" s="154"/>
-      <c r="F127" s="152"/>
-      <c r="G127" s="152"/>
-      <c r="H127" s="155"/>
-      <c r="I127" s="156"/>
-      <c r="J127" s="152"/>
-      <c r="K127" s="155"/>
-      <c r="L127" s="155"/>
-      <c r="M127" s="155"/>
-      <c r="N127" s="155"/>
-      <c r="O127" s="157"/>
-      <c r="P127" s="157"/>
-      <c r="Q127" s="157"/>
-      <c r="R127" s="157"/>
-      <c r="S127" s="157"/>
-      <c r="T127" s="158"/>
-      <c r="U127" s="158"/>
+      <c r="A127" s="151"/>
+      <c r="B127" s="151"/>
+      <c r="C127" s="152"/>
+      <c r="D127" s="153"/>
+      <c r="E127" s="153"/>
+      <c r="F127" s="151"/>
+      <c r="G127" s="151"/>
+      <c r="H127" s="154"/>
+      <c r="I127" s="155"/>
+      <c r="J127" s="151"/>
+      <c r="K127" s="154"/>
+      <c r="L127" s="154"/>
+      <c r="M127" s="154"/>
+      <c r="N127" s="154"/>
+      <c r="O127" s="156"/>
+      <c r="P127" s="156"/>
+      <c r="Q127" s="156"/>
+      <c r="R127" s="156"/>
+      <c r="S127" s="156"/>
+      <c r="T127" s="157"/>
+      <c r="U127" s="157"/>
     </row>
     <row r="129" spans="1:21" s="131" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="152"/>
-      <c r="B129" s="152"/>
-      <c r="C129" s="153"/>
-      <c r="D129" s="154"/>
-      <c r="E129" s="154"/>
-      <c r="F129" s="152"/>
-      <c r="G129" s="152"/>
-      <c r="H129" s="155"/>
-      <c r="I129" s="156"/>
-      <c r="J129" s="152"/>
-      <c r="K129" s="155"/>
-      <c r="L129" s="155"/>
-      <c r="M129" s="155"/>
-      <c r="N129" s="155"/>
-      <c r="O129" s="157"/>
-      <c r="P129" s="157"/>
-      <c r="Q129" s="157"/>
-      <c r="R129" s="157"/>
-      <c r="S129" s="157"/>
-      <c r="T129" s="158"/>
-      <c r="U129" s="158"/>
+      <c r="A129" s="151"/>
+      <c r="B129" s="151"/>
+      <c r="C129" s="152"/>
+      <c r="D129" s="153"/>
+      <c r="E129" s="153"/>
+      <c r="F129" s="151"/>
+      <c r="G129" s="151"/>
+      <c r="H129" s="154"/>
+      <c r="I129" s="155"/>
+      <c r="J129" s="151"/>
+      <c r="K129" s="154"/>
+      <c r="L129" s="154"/>
+      <c r="M129" s="154"/>
+      <c r="N129" s="154"/>
+      <c r="O129" s="156"/>
+      <c r="P129" s="156"/>
+      <c r="Q129" s="156"/>
+      <c r="R129" s="156"/>
+      <c r="S129" s="156"/>
+      <c r="T129" s="157"/>
+      <c r="U129" s="157"/>
     </row>
     <row r="140" spans="1:21" s="134" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="152"/>
-      <c r="B140" s="152"/>
-      <c r="C140" s="153"/>
-      <c r="D140" s="154"/>
-      <c r="E140" s="154"/>
-      <c r="F140" s="152"/>
-      <c r="G140" s="152"/>
-      <c r="H140" s="155"/>
-      <c r="I140" s="156"/>
-      <c r="J140" s="152"/>
-      <c r="K140" s="155"/>
-      <c r="L140" s="155"/>
-      <c r="M140" s="155"/>
-      <c r="N140" s="155"/>
-      <c r="O140" s="157"/>
-      <c r="P140" s="157"/>
-      <c r="Q140" s="157"/>
-      <c r="R140" s="157"/>
-      <c r="S140" s="157"/>
-      <c r="T140" s="158"/>
-      <c r="U140" s="158"/>
+      <c r="A140" s="151"/>
+      <c r="B140" s="151"/>
+      <c r="C140" s="152"/>
+      <c r="D140" s="153"/>
+      <c r="E140" s="153"/>
+      <c r="F140" s="151"/>
+      <c r="G140" s="151"/>
+      <c r="H140" s="154"/>
+      <c r="I140" s="155"/>
+      <c r="J140" s="151"/>
+      <c r="K140" s="154"/>
+      <c r="L140" s="154"/>
+      <c r="M140" s="154"/>
+      <c r="N140" s="154"/>
+      <c r="O140" s="156"/>
+      <c r="P140" s="156"/>
+      <c r="Q140" s="156"/>
+      <c r="R140" s="156"/>
+      <c r="S140" s="156"/>
+      <c r="T140" s="157"/>
+      <c r="U140" s="157"/>
     </row>
     <row r="141" spans="1:21" s="134" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="152"/>
-      <c r="B141" s="152"/>
-      <c r="C141" s="153"/>
-      <c r="D141" s="154"/>
-      <c r="E141" s="154"/>
-      <c r="F141" s="152"/>
-      <c r="G141" s="152"/>
-      <c r="H141" s="155"/>
-      <c r="I141" s="156"/>
-      <c r="J141" s="152"/>
-      <c r="K141" s="155"/>
-      <c r="L141" s="155"/>
-      <c r="M141" s="155"/>
-      <c r="N141" s="155"/>
-      <c r="O141" s="157"/>
-      <c r="P141" s="157"/>
-      <c r="Q141" s="157"/>
-      <c r="R141" s="157"/>
-      <c r="S141" s="157"/>
-      <c r="T141" s="158"/>
-      <c r="U141" s="158"/>
+      <c r="A141" s="151"/>
+      <c r="B141" s="151"/>
+      <c r="C141" s="152"/>
+      <c r="D141" s="153"/>
+      <c r="E141" s="153"/>
+      <c r="F141" s="151"/>
+      <c r="G141" s="151"/>
+      <c r="H141" s="154"/>
+      <c r="I141" s="155"/>
+      <c r="J141" s="151"/>
+      <c r="K141" s="154"/>
+      <c r="L141" s="154"/>
+      <c r="M141" s="154"/>
+      <c r="N141" s="154"/>
+      <c r="O141" s="156"/>
+      <c r="P141" s="156"/>
+      <c r="Q141" s="156"/>
+      <c r="R141" s="156"/>
+      <c r="S141" s="156"/>
+      <c r="T141" s="157"/>
+      <c r="U141" s="157"/>
     </row>
     <row r="142" spans="1:21" s="134" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="152"/>
-      <c r="B142" s="152"/>
-      <c r="C142" s="153"/>
-      <c r="D142" s="154"/>
-      <c r="E142" s="154"/>
-      <c r="F142" s="152"/>
-      <c r="G142" s="152"/>
-      <c r="H142" s="155"/>
-      <c r="I142" s="156"/>
-      <c r="J142" s="152"/>
-      <c r="K142" s="155"/>
-      <c r="L142" s="155"/>
-      <c r="M142" s="155"/>
-      <c r="N142" s="155"/>
-      <c r="O142" s="157"/>
-      <c r="P142" s="157"/>
-      <c r="Q142" s="157"/>
-      <c r="R142" s="157"/>
-      <c r="S142" s="157"/>
-      <c r="T142" s="158"/>
-      <c r="U142" s="158"/>
+      <c r="A142" s="151"/>
+      <c r="B142" s="151"/>
+      <c r="C142" s="152"/>
+      <c r="D142" s="153"/>
+      <c r="E142" s="153"/>
+      <c r="F142" s="151"/>
+      <c r="G142" s="151"/>
+      <c r="H142" s="154"/>
+      <c r="I142" s="155"/>
+      <c r="J142" s="151"/>
+      <c r="K142" s="154"/>
+      <c r="L142" s="154"/>
+      <c r="M142" s="154"/>
+      <c r="N142" s="154"/>
+      <c r="O142" s="156"/>
+      <c r="P142" s="156"/>
+      <c r="Q142" s="156"/>
+      <c r="R142" s="156"/>
+      <c r="S142" s="156"/>
+      <c r="T142" s="157"/>
+      <c r="U142" s="157"/>
     </row>
     <row r="143" spans="1:21" s="134" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="152"/>
-      <c r="B143" s="152"/>
-      <c r="C143" s="153"/>
-      <c r="D143" s="154"/>
-      <c r="E143" s="154"/>
-      <c r="F143" s="152"/>
-      <c r="G143" s="152"/>
-      <c r="H143" s="155"/>
-      <c r="I143" s="156"/>
-      <c r="J143" s="152"/>
-      <c r="K143" s="155"/>
-      <c r="L143" s="155"/>
-      <c r="M143" s="155"/>
-      <c r="N143" s="155"/>
-      <c r="O143" s="157"/>
-      <c r="P143" s="157"/>
-      <c r="Q143" s="157"/>
-      <c r="R143" s="157"/>
-      <c r="S143" s="157"/>
-      <c r="T143" s="158"/>
-      <c r="U143" s="158"/>
+      <c r="A143" s="151"/>
+      <c r="B143" s="151"/>
+      <c r="C143" s="152"/>
+      <c r="D143" s="153"/>
+      <c r="E143" s="153"/>
+      <c r="F143" s="151"/>
+      <c r="G143" s="151"/>
+      <c r="H143" s="154"/>
+      <c r="I143" s="155"/>
+      <c r="J143" s="151"/>
+      <c r="K143" s="154"/>
+      <c r="L143" s="154"/>
+      <c r="M143" s="154"/>
+      <c r="N143" s="154"/>
+      <c r="O143" s="156"/>
+      <c r="P143" s="156"/>
+      <c r="Q143" s="156"/>
+      <c r="R143" s="156"/>
+      <c r="S143" s="156"/>
+      <c r="T143" s="157"/>
+      <c r="U143" s="157"/>
     </row>
     <row r="144" spans="1:21" s="134" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="152"/>
-      <c r="B144" s="152"/>
-      <c r="C144" s="153"/>
-      <c r="D144" s="154"/>
-      <c r="E144" s="154"/>
-      <c r="F144" s="152"/>
-      <c r="G144" s="152"/>
-      <c r="H144" s="155"/>
-      <c r="I144" s="156"/>
-      <c r="J144" s="152"/>
-      <c r="K144" s="155"/>
-      <c r="L144" s="155"/>
-      <c r="M144" s="155"/>
-      <c r="N144" s="155"/>
-      <c r="O144" s="157"/>
-      <c r="P144" s="157"/>
-      <c r="Q144" s="157"/>
-      <c r="R144" s="157"/>
-      <c r="S144" s="157"/>
-      <c r="T144" s="158"/>
-      <c r="U144" s="158"/>
+      <c r="A144" s="151"/>
+      <c r="B144" s="151"/>
+      <c r="C144" s="152"/>
+      <c r="D144" s="153"/>
+      <c r="E144" s="153"/>
+      <c r="F144" s="151"/>
+      <c r="G144" s="151"/>
+      <c r="H144" s="154"/>
+      <c r="I144" s="155"/>
+      <c r="J144" s="151"/>
+      <c r="K144" s="154"/>
+      <c r="L144" s="154"/>
+      <c r="M144" s="154"/>
+      <c r="N144" s="154"/>
+      <c r="O144" s="156"/>
+      <c r="P144" s="156"/>
+      <c r="Q144" s="156"/>
+      <c r="R144" s="156"/>
+      <c r="S144" s="156"/>
+      <c r="T144" s="157"/>
+      <c r="U144" s="157"/>
     </row>
     <row r="145" spans="1:21" s="134" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="152"/>
-      <c r="B145" s="152"/>
-      <c r="C145" s="153"/>
-      <c r="D145" s="154"/>
-      <c r="E145" s="154"/>
-      <c r="F145" s="152"/>
-      <c r="G145" s="152"/>
-      <c r="H145" s="155"/>
-      <c r="I145" s="156"/>
-      <c r="J145" s="152"/>
-      <c r="K145" s="155"/>
-      <c r="L145" s="155"/>
-      <c r="M145" s="155"/>
-      <c r="N145" s="155"/>
-      <c r="O145" s="157"/>
-      <c r="P145" s="157"/>
-      <c r="Q145" s="157"/>
-      <c r="R145" s="157"/>
-      <c r="S145" s="157"/>
-      <c r="T145" s="158"/>
-      <c r="U145" s="158"/>
+      <c r="A145" s="151"/>
+      <c r="B145" s="151"/>
+      <c r="C145" s="152"/>
+      <c r="D145" s="153"/>
+      <c r="E145" s="153"/>
+      <c r="F145" s="151"/>
+      <c r="G145" s="151"/>
+      <c r="H145" s="154"/>
+      <c r="I145" s="155"/>
+      <c r="J145" s="151"/>
+      <c r="K145" s="154"/>
+      <c r="L145" s="154"/>
+      <c r="M145" s="154"/>
+      <c r="N145" s="154"/>
+      <c r="O145" s="156"/>
+      <c r="P145" s="156"/>
+      <c r="Q145" s="156"/>
+      <c r="R145" s="156"/>
+      <c r="S145" s="156"/>
+      <c r="T145" s="157"/>
+      <c r="U145" s="157"/>
     </row>
     <row r="146" spans="1:21" s="134" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="152"/>
-      <c r="B146" s="152"/>
-      <c r="C146" s="153"/>
-      <c r="D146" s="154"/>
-      <c r="E146" s="154"/>
-      <c r="F146" s="152"/>
-      <c r="G146" s="152"/>
-      <c r="H146" s="155"/>
-      <c r="I146" s="156"/>
-      <c r="J146" s="152"/>
-      <c r="K146" s="155"/>
-      <c r="L146" s="155"/>
-      <c r="M146" s="155"/>
-      <c r="N146" s="155"/>
-      <c r="O146" s="157"/>
-      <c r="P146" s="157"/>
-      <c r="Q146" s="157"/>
-      <c r="R146" s="157"/>
-      <c r="S146" s="157"/>
-      <c r="T146" s="158"/>
-      <c r="U146" s="158"/>
+      <c r="A146" s="151"/>
+      <c r="B146" s="151"/>
+      <c r="C146" s="152"/>
+      <c r="D146" s="153"/>
+      <c r="E146" s="153"/>
+      <c r="F146" s="151"/>
+      <c r="G146" s="151"/>
+      <c r="H146" s="154"/>
+      <c r="I146" s="155"/>
+      <c r="J146" s="151"/>
+      <c r="K146" s="154"/>
+      <c r="L146" s="154"/>
+      <c r="M146" s="154"/>
+      <c r="N146" s="154"/>
+      <c r="O146" s="156"/>
+      <c r="P146" s="156"/>
+      <c r="Q146" s="156"/>
+      <c r="R146" s="156"/>
+      <c r="S146" s="156"/>
+      <c r="T146" s="157"/>
+      <c r="U146" s="157"/>
     </row>
     <row r="147" spans="1:21" s="134" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="152"/>
-      <c r="B147" s="152"/>
-      <c r="C147" s="153"/>
-      <c r="D147" s="154"/>
-      <c r="E147" s="154"/>
-      <c r="F147" s="152"/>
-      <c r="G147" s="152"/>
-      <c r="H147" s="155"/>
-      <c r="I147" s="156"/>
-      <c r="J147" s="152"/>
-      <c r="K147" s="155"/>
-      <c r="L147" s="155"/>
-      <c r="M147" s="155"/>
-      <c r="N147" s="155"/>
-      <c r="O147" s="157"/>
-      <c r="P147" s="157"/>
-      <c r="Q147" s="157"/>
-      <c r="R147" s="157"/>
-      <c r="S147" s="157"/>
-      <c r="T147" s="158"/>
-      <c r="U147" s="158"/>
+      <c r="A147" s="151"/>
+      <c r="B147" s="151"/>
+      <c r="C147" s="152"/>
+      <c r="D147" s="153"/>
+      <c r="E147" s="153"/>
+      <c r="F147" s="151"/>
+      <c r="G147" s="151"/>
+      <c r="H147" s="154"/>
+      <c r="I147" s="155"/>
+      <c r="J147" s="151"/>
+      <c r="K147" s="154"/>
+      <c r="L147" s="154"/>
+      <c r="M147" s="154"/>
+      <c r="N147" s="154"/>
+      <c r="O147" s="156"/>
+      <c r="P147" s="156"/>
+      <c r="Q147" s="156"/>
+      <c r="R147" s="156"/>
+      <c r="S147" s="156"/>
+      <c r="T147" s="157"/>
+      <c r="U147" s="157"/>
     </row>
     <row r="148" spans="1:21" s="134" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="152"/>
-      <c r="B148" s="152"/>
-      <c r="C148" s="153"/>
-      <c r="D148" s="154"/>
-      <c r="E148" s="154"/>
-      <c r="F148" s="152"/>
-      <c r="G148" s="152"/>
-      <c r="H148" s="155"/>
-      <c r="I148" s="156"/>
-      <c r="J148" s="152"/>
-      <c r="K148" s="155"/>
-      <c r="L148" s="155"/>
-      <c r="M148" s="155"/>
-      <c r="N148" s="155"/>
-      <c r="O148" s="157"/>
-      <c r="P148" s="157"/>
-      <c r="Q148" s="157"/>
-      <c r="R148" s="157"/>
-      <c r="S148" s="157"/>
-      <c r="T148" s="158"/>
-      <c r="U148" s="158"/>
+      <c r="A148" s="151"/>
+      <c r="B148" s="151"/>
+      <c r="C148" s="152"/>
+      <c r="D148" s="153"/>
+      <c r="E148" s="153"/>
+      <c r="F148" s="151"/>
+      <c r="G148" s="151"/>
+      <c r="H148" s="154"/>
+      <c r="I148" s="155"/>
+      <c r="J148" s="151"/>
+      <c r="K148" s="154"/>
+      <c r="L148" s="154"/>
+      <c r="M148" s="154"/>
+      <c r="N148" s="154"/>
+      <c r="O148" s="156"/>
+      <c r="P148" s="156"/>
+      <c r="Q148" s="156"/>
+      <c r="R148" s="156"/>
+      <c r="S148" s="156"/>
+      <c r="T148" s="157"/>
+      <c r="U148" s="157"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:U26"/>
@@ -9182,13 +9182,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="122" t="s">
-        <v>225</v>
-      </c>
-      <c r="B2" s="172" t="s">
-        <v>284</v>
-      </c>
-      <c r="C2" s="172" t="s">
-        <v>289</v>
+        <v>224</v>
+      </c>
+      <c r="B2" s="171" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="171" t="s">
+        <v>288</v>
       </c>
       <c r="D2" s="122"/>
       <c r="E2" s="122"/>
@@ -9202,13 +9202,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="122" t="s">
-        <v>237</v>
-      </c>
-      <c r="B3" s="172" t="s">
-        <v>284</v>
-      </c>
-      <c r="C3" s="172" t="s">
-        <v>288</v>
+        <v>236</v>
+      </c>
+      <c r="B3" s="171" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="171" t="s">
+        <v>287</v>
       </c>
       <c r="D3" s="122"/>
       <c r="E3" s="122"/>
@@ -9222,13 +9222,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="122" t="s">
-        <v>232</v>
-      </c>
-      <c r="B4" s="172" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="171" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="171" t="s">
         <v>284</v>
-      </c>
-      <c r="C4" s="172" t="s">
-        <v>285</v>
       </c>
       <c r="D4" s="122"/>
       <c r="E4" s="122"/>
@@ -9242,13 +9242,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="122" t="s">
-        <v>287</v>
-      </c>
-      <c r="B5" s="172" t="s">
-        <v>284</v>
-      </c>
-      <c r="C5" s="172" t="s">
         <v>286</v>
+      </c>
+      <c r="B5" s="171" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="171" t="s">
+        <v>285</v>
       </c>
       <c r="D5" s="122"/>
       <c r="E5" s="122"/>
@@ -13309,7 +13309,7 @@
   <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:L281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -13370,16 +13370,16 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="122" t="s">
-        <v>308</v>
-      </c>
-      <c r="B2" s="172" t="s">
-        <v>284</v>
-      </c>
-      <c r="C2" s="172" t="s">
-        <v>289</v>
-      </c>
-      <c r="D2" s="172" t="s">
-        <v>216</v>
+        <v>307</v>
+      </c>
+      <c r="B2" s="171" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="171" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="171" t="s">
+        <v>215</v>
       </c>
       <c r="E2" s="122"/>
       <c r="F2" s="122"/>
@@ -13392,16 +13392,16 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="122" t="s">
+        <v>309</v>
+      </c>
+      <c r="B3" s="171" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="171" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" s="171" t="s">
         <v>310</v>
-      </c>
-      <c r="B3" s="172" t="s">
-        <v>284</v>
-      </c>
-      <c r="C3" s="172" t="s">
-        <v>289</v>
-      </c>
-      <c r="D3" s="172" t="s">
-        <v>311</v>
       </c>
       <c r="E3" s="122"/>
       <c r="F3" s="122"/>
@@ -13414,16 +13414,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="122" t="s">
-        <v>313</v>
-      </c>
-      <c r="B4" s="172" t="s">
-        <v>284</v>
-      </c>
-      <c r="C4" s="172" t="s">
-        <v>289</v>
-      </c>
-      <c r="D4" s="172" t="s">
         <v>312</v>
+      </c>
+      <c r="B4" s="171" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="171" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="171" t="s">
+        <v>311</v>
       </c>
       <c r="E4" s="122"/>
       <c r="F4" s="122"/>
@@ -13436,16 +13436,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="122" t="s">
-        <v>229</v>
-      </c>
-      <c r="B5" s="172" t="s">
-        <v>284</v>
-      </c>
-      <c r="C5" s="172" t="s">
-        <v>289</v>
-      </c>
-      <c r="D5" s="172" t="s">
-        <v>314</v>
+        <v>228</v>
+      </c>
+      <c r="B5" s="171" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="171" t="s">
+        <v>288</v>
+      </c>
+      <c r="D5" s="171" t="s">
+        <v>313</v>
       </c>
       <c r="E5" s="122"/>
       <c r="F5" s="122"/>
@@ -13458,19 +13458,19 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="122" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" s="171" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" s="171" t="s">
+        <v>288</v>
+      </c>
+      <c r="D6" s="171" t="s">
         <v>315</v>
       </c>
-      <c r="B6" s="172" t="s">
-        <v>284</v>
-      </c>
-      <c r="C6" s="172" t="s">
-        <v>289</v>
-      </c>
-      <c r="D6" s="172" t="s">
+      <c r="E6" s="171" t="s">
         <v>316</v>
-      </c>
-      <c r="E6" s="172" t="s">
-        <v>317</v>
       </c>
       <c r="F6" s="122"/>
       <c r="G6" s="122"/>
@@ -13482,19 +13482,19 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="122" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7" s="171" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="171" t="s">
+        <v>288</v>
+      </c>
+      <c r="D7" s="171" t="s">
+        <v>315</v>
+      </c>
+      <c r="E7" s="122" t="s">
         <v>318</v>
-      </c>
-      <c r="B7" s="172" t="s">
-        <v>284</v>
-      </c>
-      <c r="C7" s="172" t="s">
-        <v>289</v>
-      </c>
-      <c r="D7" s="172" t="s">
-        <v>316</v>
-      </c>
-      <c r="E7" s="122" t="s">
-        <v>319</v>
       </c>
       <c r="F7" s="122"/>
       <c r="G7" s="122"/>
@@ -13506,16 +13506,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="122" t="s">
-        <v>321</v>
-      </c>
-      <c r="B8" s="172" t="s">
-        <v>284</v>
-      </c>
-      <c r="C8" s="172" t="s">
-        <v>289</v>
-      </c>
-      <c r="D8" s="172" t="s">
         <v>320</v>
+      </c>
+      <c r="B8" s="171" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8" s="171" t="s">
+        <v>288</v>
+      </c>
+      <c r="D8" s="171" t="s">
+        <v>319</v>
       </c>
       <c r="E8" s="122"/>
       <c r="F8" s="122"/>
@@ -13528,10 +13528,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="122" t="s">
-        <v>322</v>
-      </c>
-      <c r="B9" s="172" t="s">
-        <v>284</v>
+        <v>321</v>
+      </c>
+      <c r="B9" s="171" t="s">
+        <v>283</v>
       </c>
       <c r="C9" s="122"/>
       <c r="D9" s="122"/>
@@ -13546,13 +13546,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="122" t="s">
-        <v>230</v>
-      </c>
-      <c r="B10" s="172" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" s="171" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" s="171" t="s">
         <v>284</v>
-      </c>
-      <c r="C10" s="172" t="s">
-        <v>285</v>
       </c>
       <c r="D10" s="122"/>
       <c r="E10" s="122"/>
@@ -13566,13 +13566,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="122" t="s">
-        <v>231</v>
-      </c>
-      <c r="B11" s="172" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="171" t="s">
+        <v>283</v>
+      </c>
+      <c r="C11" s="171" t="s">
         <v>284</v>
-      </c>
-      <c r="C11" s="172" t="s">
-        <v>285</v>
       </c>
       <c r="D11" s="122"/>
       <c r="E11" s="122"/>
@@ -13586,13 +13586,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="122" t="s">
-        <v>233</v>
-      </c>
-      <c r="B12" s="172" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" s="171" t="s">
+        <v>283</v>
+      </c>
+      <c r="C12" s="171" t="s">
         <v>284</v>
-      </c>
-      <c r="C12" s="172" t="s">
-        <v>285</v>
       </c>
       <c r="D12" s="122"/>
       <c r="E12" s="122"/>
@@ -13606,13 +13606,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="122" t="s">
-        <v>234</v>
-      </c>
-      <c r="B13" s="172" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" s="171" t="s">
+        <v>283</v>
+      </c>
+      <c r="C13" s="171" t="s">
         <v>284</v>
-      </c>
-      <c r="C13" s="172" t="s">
-        <v>285</v>
       </c>
       <c r="D13" s="122"/>
       <c r="E13" s="122"/>
@@ -13626,13 +13626,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="122" t="s">
-        <v>239</v>
-      </c>
-      <c r="B14" s="172" t="s">
-        <v>284</v>
-      </c>
-      <c r="C14" s="172" t="s">
-        <v>323</v>
+        <v>238</v>
+      </c>
+      <c r="B14" s="171" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" s="171" t="s">
+        <v>322</v>
       </c>
       <c r="D14" s="122"/>
       <c r="E14" s="122"/>
@@ -13646,13 +13646,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="122" t="s">
-        <v>324</v>
-      </c>
-      <c r="B15" s="172" t="s">
-        <v>284</v>
-      </c>
-      <c r="C15" s="172" t="s">
         <v>323</v>
+      </c>
+      <c r="B15" s="171" t="s">
+        <v>283</v>
+      </c>
+      <c r="C15" s="171" t="s">
+        <v>322</v>
       </c>
       <c r="D15" s="122"/>
       <c r="E15" s="122"/>
@@ -13666,13 +13666,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="122" t="s">
-        <v>238</v>
-      </c>
-      <c r="B16" s="172" t="s">
-        <v>284</v>
-      </c>
-      <c r="C16" s="172" t="s">
-        <v>323</v>
+        <v>237</v>
+      </c>
+      <c r="B16" s="171" t="s">
+        <v>283</v>
+      </c>
+      <c r="C16" s="171" t="s">
+        <v>322</v>
       </c>
       <c r="D16" s="122"/>
       <c r="E16" s="122"/>
@@ -13686,13 +13686,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="122" t="s">
-        <v>240</v>
-      </c>
-      <c r="B17" s="172" t="s">
-        <v>284</v>
-      </c>
-      <c r="C17" s="172" t="s">
-        <v>323</v>
+        <v>239</v>
+      </c>
+      <c r="B17" s="171" t="s">
+        <v>283</v>
+      </c>
+      <c r="C17" s="171" t="s">
+        <v>322</v>
       </c>
       <c r="D17" s="122"/>
       <c r="E17" s="122"/>
@@ -13706,13 +13706,13 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="122" t="s">
-        <v>243</v>
-      </c>
-      <c r="B18" s="172" t="s">
-        <v>284</v>
-      </c>
-      <c r="C18" s="172" t="s">
-        <v>323</v>
+        <v>242</v>
+      </c>
+      <c r="B18" s="171" t="s">
+        <v>283</v>
+      </c>
+      <c r="C18" s="171" t="s">
+        <v>322</v>
       </c>
       <c r="D18" s="122"/>
       <c r="E18" s="122"/>
@@ -13726,16 +13726,16 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="122" t="s">
-        <v>326</v>
-      </c>
-      <c r="B19" s="172" t="s">
-        <v>284</v>
-      </c>
-      <c r="C19" s="172" t="s">
-        <v>286</v>
-      </c>
-      <c r="D19" s="172" t="s">
         <v>325</v>
+      </c>
+      <c r="B19" s="171" t="s">
+        <v>283</v>
+      </c>
+      <c r="C19" s="171" t="s">
+        <v>285</v>
+      </c>
+      <c r="D19" s="171" t="s">
+        <v>324</v>
       </c>
       <c r="E19" s="122"/>
       <c r="F19" s="122"/>
@@ -13748,16 +13748,16 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="122" t="s">
-        <v>327</v>
-      </c>
-      <c r="B20" s="172" t="s">
-        <v>284</v>
-      </c>
-      <c r="C20" s="172" t="s">
-        <v>286</v>
-      </c>
-      <c r="D20" s="172" t="s">
-        <v>329</v>
+        <v>326</v>
+      </c>
+      <c r="B20" s="171" t="s">
+        <v>283</v>
+      </c>
+      <c r="C20" s="171" t="s">
+        <v>285</v>
+      </c>
+      <c r="D20" s="171" t="s">
+        <v>328</v>
       </c>
       <c r="E20" s="122"/>
       <c r="F20" s="122"/>
@@ -13770,16 +13770,16 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="122" t="s">
-        <v>328</v>
-      </c>
-      <c r="B21" s="172" t="s">
-        <v>284</v>
-      </c>
-      <c r="C21" s="172" t="s">
-        <v>288</v>
-      </c>
-      <c r="D21" s="172" t="s">
-        <v>330</v>
+        <v>327</v>
+      </c>
+      <c r="B21" s="171" t="s">
+        <v>283</v>
+      </c>
+      <c r="C21" s="171" t="s">
+        <v>287</v>
+      </c>
+      <c r="D21" s="171" t="s">
+        <v>329</v>
       </c>
       <c r="E21" s="122"/>
       <c r="F21" s="122"/>
@@ -13792,13 +13792,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="122" t="s">
-        <v>331</v>
-      </c>
-      <c r="B22" s="172" t="s">
-        <v>284</v>
-      </c>
-      <c r="C22" s="172" t="s">
-        <v>288</v>
+        <v>330</v>
+      </c>
+      <c r="B22" s="171" t="s">
+        <v>283</v>
+      </c>
+      <c r="C22" s="171" t="s">
+        <v>287</v>
       </c>
       <c r="D22" s="122"/>
       <c r="E22" s="122"/>
@@ -13812,13 +13812,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>354</v>
-      </c>
-      <c r="B23" s="172" t="s">
+        <v>353</v>
+      </c>
+      <c r="B23" s="171" t="s">
+        <v>283</v>
+      </c>
+      <c r="C23" s="171" t="s">
         <v>284</v>
-      </c>
-      <c r="C23" s="172" t="s">
-        <v>285</v>
       </c>
       <c r="D23" s="122"/>
       <c r="E23" s="122"/>
@@ -13832,13 +13832,13 @@
     </row>
     <row r="24" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>353</v>
-      </c>
-      <c r="B24" s="172" t="s">
+        <v>352</v>
+      </c>
+      <c r="B24" s="171" t="s">
+        <v>283</v>
+      </c>
+      <c r="C24" s="171" t="s">
         <v>284</v>
-      </c>
-      <c r="C24" s="172" t="s">
-        <v>285</v>
       </c>
       <c r="D24" s="122"/>
       <c r="E24" s="122"/>
@@ -13851,14 +13851,14 @@
       <c r="L24" s="122"/>
     </row>
     <row r="25" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="177" t="s">
-        <v>352</v>
-      </c>
-      <c r="B25" s="172" t="s">
+      <c r="A25" s="176" t="s">
+        <v>351</v>
+      </c>
+      <c r="B25" s="171" t="s">
+        <v>283</v>
+      </c>
+      <c r="C25" s="171" t="s">
         <v>284</v>
-      </c>
-      <c r="C25" s="172" t="s">
-        <v>285</v>
       </c>
       <c r="D25" s="122"/>
       <c r="E25" s="122"/>
@@ -13871,14 +13871,14 @@
       <c r="L25" s="122"/>
     </row>
     <row r="26" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="177" t="s">
-        <v>355</v>
-      </c>
-      <c r="B26" s="172" t="s">
+      <c r="A26" s="176" t="s">
+        <v>354</v>
+      </c>
+      <c r="B26" s="171" t="s">
+        <v>283</v>
+      </c>
+      <c r="C26" s="171" t="s">
         <v>284</v>
-      </c>
-      <c r="C26" s="172" t="s">
-        <v>285</v>
       </c>
       <c r="D26" s="122"/>
       <c r="E26" s="122"/>
@@ -13891,13 +13891,13 @@
       <c r="L26" s="122"/>
     </row>
     <row r="27" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="177" t="s">
-        <v>356</v>
-      </c>
-      <c r="B27" s="172" t="s">
-        <v>332</v>
-      </c>
-      <c r="C27" s="172"/>
+      <c r="A27" s="176" t="s">
+        <v>355</v>
+      </c>
+      <c r="B27" s="171" t="s">
+        <v>331</v>
+      </c>
+      <c r="C27" s="171"/>
       <c r="D27" s="122"/>
       <c r="E27" s="122"/>
       <c r="F27" s="122"/>
